--- a/.idea/fed_rollover.xlsx
+++ b/.idea/fed_rollover.xlsx
@@ -447,7 +447,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>new_past_fed_soma</t>
+          <t>new_fed_soma</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -482,7 +482,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>new_past_fed_soma_true</t>
+          <t>new_fed_soma_true</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -1125,19 +1125,19 @@
         <v>19090300</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>14673697500</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>14673697500</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>8318946614</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>6354750885</v>
       </c>
       <c r="N15" t="n">
-        <v>55000000000</v>
+        <v>48645249114</v>
       </c>
     </row>
     <row r="16">
@@ -1174,16 +1174,16 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>14673697500</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>3697309606</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>4621637007</v>
       </c>
       <c r="N16" t="n">
-        <v>40000000000</v>
+        <v>35378362992</v>
       </c>
     </row>
     <row r="17">
@@ -1220,16 +1220,16 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>14673697500</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>3697309606</v>
       </c>
       <c r="N17" t="n">
-        <v>32000000000</v>
+        <v>28302690393</v>
       </c>
     </row>
     <row r="18">
@@ -1261,13 +1261,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>14673697500</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>14673697500</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>14673697500</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>14673697500</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -1399,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>14673697500</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -1442,16 +1442,16 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>14673697500</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>7083853965</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>7589843534</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>37410156465</v>
+        <v>45000000000</v>
       </c>
     </row>
     <row r="23">
@@ -1488,16 +1488,16 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>14673697500</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>7083853965</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>34916146034</v>
+        <v>42000000000</v>
       </c>
     </row>
     <row r="24">
@@ -2392,7 +2392,7 @@
         <v>50000000</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>50000000</v>
       </c>
       <c r="L43" t="n">
         <v>50000000</v>
@@ -2436,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>50000000</v>
       </c>
       <c r="L44" t="n">
         <v>50000000</v>
@@ -2618,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L48" t="n">
         <v>-1</v>
@@ -2662,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L49" t="n">
         <v>-1</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L50" t="n">
         <v>-1</v>
@@ -3252,16 +3252,16 @@
         <v>12985231900</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>12985231900</v>
       </c>
       <c r="L62" t="n">
-        <v>12985231900</v>
+        <v>6268732641</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>6716499258</v>
       </c>
       <c r="N62" t="n">
-        <v>45000000000</v>
+        <v>38283500741</v>
       </c>
     </row>
     <row r="63">
@@ -3298,16 +3298,16 @@
         <v>12985231900</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>12985231900</v>
       </c>
       <c r="L63" t="n">
-        <v>25970463800</v>
+        <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>6268732641</v>
       </c>
       <c r="N63" t="n">
-        <v>42000000000</v>
+        <v>35731267358</v>
       </c>
     </row>
     <row r="64">
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>25970463800</v>
+        <v>0</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
@@ -3389,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>25970463800</v>
+        <v>0</v>
       </c>
       <c r="M65" t="n">
         <v>0</v>
@@ -3432,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>25970463800</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>12221394729</v>
+        <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>13749069070</v>
+        <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>31250930929</v>
+        <v>45000000000</v>
       </c>
     </row>
     <row r="67">
@@ -3478,16 +3478,16 @@
         <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>25970463800</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>12221394729</v>
+        <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>27778605270</v>
+        <v>40000000000</v>
       </c>
     </row>
     <row r="68">
@@ -3748,16 +3748,16 @@
         <v>100000000</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>100000000</v>
       </c>
       <c r="L73" t="n">
-        <v>100000000</v>
+        <v>42424242</v>
       </c>
       <c r="M73" t="n">
-        <v>0</v>
+        <v>57575757</v>
       </c>
       <c r="N73" t="n">
-        <v>38000000000</v>
+        <v>37942424242</v>
       </c>
     </row>
     <row r="74">
@@ -3794,16 +3794,16 @@
         <v>100000000</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>100000000</v>
       </c>
       <c r="L74" t="n">
-        <v>200000000</v>
+        <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>0</v>
+        <v>42424242</v>
       </c>
       <c r="N74" t="n">
-        <v>28000000000</v>
+        <v>27957575757</v>
       </c>
     </row>
     <row r="75">
@@ -3840,16 +3840,16 @@
         <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>200000000</v>
+        <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>60000000</v>
+        <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>140000000</v>
+        <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>23860000000</v>
+        <v>24000000000</v>
       </c>
     </row>
     <row r="76">
@@ -3886,16 +3886,16 @@
         <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>60000000</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
-        <v>31698113</v>
+        <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>28301886</v>
+        <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>49971698113</v>
+        <v>50000000000</v>
       </c>
     </row>
     <row r="77">
@@ -3932,16 +3932,16 @@
         <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>60000000</v>
+        <v>0</v>
       </c>
       <c r="L77" t="n">
-        <v>9056603</v>
+        <v>0</v>
       </c>
       <c r="M77" t="n">
-        <v>22641509</v>
+        <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>39977358490</v>
+        <v>40000000000</v>
       </c>
     </row>
     <row r="78">
@@ -3978,16 +3978,16 @@
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>60000000</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
       </c>
       <c r="M78" t="n">
-        <v>9056603</v>
+        <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>15990943396</v>
+        <v>16000000000</v>
       </c>
     </row>
     <row r="79">
@@ -4200,16 +4200,16 @@
         <v>27777800</v>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>27777800</v>
       </c>
       <c r="L83" t="n">
-        <v>27777800</v>
+        <v>13409972</v>
       </c>
       <c r="M83" t="n">
-        <v>0</v>
+        <v>14367827</v>
       </c>
       <c r="N83" t="n">
-        <v>45000000000</v>
+        <v>44985632172</v>
       </c>
     </row>
     <row r="84">
@@ -4246,16 +4246,16 @@
         <v>27777800</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>27777800</v>
       </c>
       <c r="L84" t="n">
-        <v>55555600</v>
+        <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>0</v>
+        <v>13409972</v>
       </c>
       <c r="N84" t="n">
-        <v>42000000000</v>
+        <v>41986590027</v>
       </c>
     </row>
     <row r="85">
@@ -4293,7 +4293,7 @@
         <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>55555600</v>
+        <v>0</v>
       </c>
       <c r="M85" t="n">
         <v>0</v>
@@ -4336,16 +4336,16 @@
         <v>0</v>
       </c>
       <c r="K86" t="n">
-        <v>55555600</v>
+        <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>47123053</v>
+        <v>0</v>
       </c>
       <c r="M86" t="n">
-        <v>8432546</v>
+        <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>16991567453</v>
+        <v>17000000000</v>
       </c>
     </row>
     <row r="87">
@@ -4382,16 +4382,16 @@
         <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>55555600</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
-        <v>19841285</v>
+        <v>0</v>
       </c>
       <c r="M87" t="n">
-        <v>27281767</v>
+        <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>54972718232</v>
+        <v>55000000000</v>
       </c>
     </row>
     <row r="88">
@@ -4428,16 +4428,16 @@
         <v>0</v>
       </c>
       <c r="K88" t="n">
-        <v>55555600</v>
+        <v>0</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
       </c>
       <c r="M88" t="n">
-        <v>19841285</v>
+        <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>39980158714</v>
+        <v>40000000000</v>
       </c>
     </row>
     <row r="89">
@@ -5286,16 +5286,16 @@
         <v>15682561600</v>
       </c>
       <c r="K107" t="n">
-        <v>0</v>
+        <v>15682561600</v>
       </c>
       <c r="L107" t="n">
-        <v>15682561600</v>
+        <v>6603183831</v>
       </c>
       <c r="M107" t="n">
-        <v>0</v>
+        <v>9079377768</v>
       </c>
       <c r="N107" t="n">
-        <v>55000000000</v>
+        <v>45920622231</v>
       </c>
     </row>
     <row r="108">
@@ -5332,16 +5332,16 @@
         <v>15682561600</v>
       </c>
       <c r="K108" t="n">
-        <v>0</v>
+        <v>15682561600</v>
       </c>
       <c r="L108" t="n">
-        <v>31365123200</v>
+        <v>0</v>
       </c>
       <c r="M108" t="n">
-        <v>0</v>
+        <v>6603183831</v>
       </c>
       <c r="N108" t="n">
-        <v>40000000000</v>
+        <v>33396816168</v>
       </c>
     </row>
     <row r="109">
@@ -5379,7 +5379,7 @@
         <v>0</v>
       </c>
       <c r="L109" t="n">
-        <v>31365123200</v>
+        <v>0</v>
       </c>
       <c r="M109" t="n">
         <v>0</v>
@@ -5423,7 +5423,7 @@
         <v>0</v>
       </c>
       <c r="L110" t="n">
-        <v>31365123200</v>
+        <v>0</v>
       </c>
       <c r="M110" t="n">
         <v>0</v>
@@ -5467,7 +5467,7 @@
         <v>0</v>
       </c>
       <c r="L111" t="n">
-        <v>31365123200</v>
+        <v>0</v>
       </c>
       <c r="M111" t="n">
         <v>0</v>
@@ -5510,16 +5510,16 @@
         <v>0</v>
       </c>
       <c r="K112" t="n">
-        <v>31365123200</v>
+        <v>0</v>
       </c>
       <c r="L112" t="n">
-        <v>15141783613</v>
+        <v>0</v>
       </c>
       <c r="M112" t="n">
-        <v>16223339586</v>
+        <v>0</v>
       </c>
       <c r="N112" t="n">
-        <v>28776660413</v>
+        <v>45000000000</v>
       </c>
     </row>
     <row r="113">
@@ -5556,16 +5556,16 @@
         <v>0</v>
       </c>
       <c r="K113" t="n">
-        <v>31365123200</v>
+        <v>0</v>
       </c>
       <c r="L113" t="n">
         <v>0</v>
       </c>
       <c r="M113" t="n">
-        <v>15141783613</v>
+        <v>0</v>
       </c>
       <c r="N113" t="n">
-        <v>26858216386</v>
+        <v>42000000000</v>
       </c>
     </row>
     <row r="114">
@@ -5602,16 +5602,16 @@
         <v>52941200</v>
       </c>
       <c r="K114" t="n">
-        <v>0</v>
+        <v>52941200</v>
       </c>
       <c r="L114" t="n">
-        <v>52941200</v>
+        <v>22459903</v>
       </c>
       <c r="M114" t="n">
-        <v>0</v>
+        <v>30481296</v>
       </c>
       <c r="N114" t="n">
-        <v>38000000000</v>
+        <v>37969518703</v>
       </c>
     </row>
     <row r="115">
@@ -5648,16 +5648,16 @@
         <v>52941200</v>
       </c>
       <c r="K115" t="n">
-        <v>0</v>
+        <v>52941200</v>
       </c>
       <c r="L115" t="n">
-        <v>105882400</v>
+        <v>0</v>
       </c>
       <c r="M115" t="n">
-        <v>0</v>
+        <v>22459903</v>
       </c>
       <c r="N115" t="n">
-        <v>28000000000</v>
+        <v>27977540096</v>
       </c>
     </row>
     <row r="116">
@@ -5694,16 +5694,16 @@
         <v>0</v>
       </c>
       <c r="K116" t="n">
-        <v>105882400</v>
+        <v>0</v>
       </c>
       <c r="L116" t="n">
-        <v>31764720</v>
+        <v>0</v>
       </c>
       <c r="M116" t="n">
-        <v>74117680</v>
+        <v>0</v>
       </c>
       <c r="N116" t="n">
-        <v>26925882320</v>
+        <v>27000000000</v>
       </c>
     </row>
     <row r="117">
@@ -5740,16 +5740,16 @@
         <v>0</v>
       </c>
       <c r="K117" t="n">
-        <v>31764720</v>
+        <v>0</v>
       </c>
       <c r="L117" t="n">
-        <v>26470600</v>
+        <v>0</v>
       </c>
       <c r="M117" t="n">
-        <v>5294120</v>
+        <v>0</v>
       </c>
       <c r="N117" t="n">
-        <v>18994705880</v>
+        <v>19000000000</v>
       </c>
     </row>
     <row r="118">
@@ -5786,16 +5786,16 @@
         <v>0</v>
       </c>
       <c r="K118" t="n">
-        <v>31764720</v>
+        <v>0</v>
       </c>
       <c r="L118" t="n">
-        <v>11145515</v>
+        <v>0</v>
       </c>
       <c r="M118" t="n">
-        <v>15325084</v>
+        <v>0</v>
       </c>
       <c r="N118" t="n">
-        <v>54984674915</v>
+        <v>55000000000</v>
       </c>
     </row>
     <row r="119">
@@ -5832,16 +5832,16 @@
         <v>0</v>
       </c>
       <c r="K119" t="n">
-        <v>31764720</v>
+        <v>0</v>
       </c>
       <c r="L119" t="n">
         <v>0</v>
       </c>
       <c r="M119" t="n">
-        <v>11145515</v>
+        <v>0</v>
       </c>
       <c r="N119" t="n">
-        <v>39988854484</v>
+        <v>40000000000</v>
       </c>
     </row>
     <row r="120">
@@ -6054,16 +6054,16 @@
         <v>37654400</v>
       </c>
       <c r="K124" t="n">
-        <v>0</v>
+        <v>37654400</v>
       </c>
       <c r="L124" t="n">
-        <v>37654400</v>
+        <v>18177986</v>
       </c>
       <c r="M124" t="n">
-        <v>0</v>
+        <v>19476413</v>
       </c>
       <c r="N124" t="n">
-        <v>45000000000</v>
+        <v>44980523586</v>
       </c>
     </row>
     <row r="125">
@@ -6100,16 +6100,16 @@
         <v>37654400</v>
       </c>
       <c r="K125" t="n">
-        <v>0</v>
+        <v>37654400</v>
       </c>
       <c r="L125" t="n">
-        <v>75308800</v>
+        <v>0</v>
       </c>
       <c r="M125" t="n">
-        <v>0</v>
+        <v>18177986</v>
       </c>
       <c r="N125" t="n">
-        <v>42000000000</v>
+        <v>41981822013</v>
       </c>
     </row>
     <row r="126">
@@ -6147,7 +6147,7 @@
         <v>0</v>
       </c>
       <c r="L126" t="n">
-        <v>75308800</v>
+        <v>0</v>
       </c>
       <c r="M126" t="n">
         <v>0</v>
@@ -6190,16 +6190,16 @@
         <v>2010000000</v>
       </c>
       <c r="K127" t="n">
-        <v>75308800</v>
+        <v>2010000000</v>
       </c>
       <c r="L127" t="n">
-        <v>2041708968</v>
+        <v>846315789</v>
       </c>
       <c r="M127" t="n">
-        <v>43599831</v>
+        <v>1163684210</v>
       </c>
       <c r="N127" t="n">
-        <v>54956400168</v>
+        <v>53836315789</v>
       </c>
     </row>
     <row r="128">
@@ -6236,16 +6236,16 @@
         <v>2010000000</v>
       </c>
       <c r="K128" t="n">
-        <v>75308800</v>
+        <v>2010000000</v>
       </c>
       <c r="L128" t="n">
-        <v>4019999999</v>
+        <v>0</v>
       </c>
       <c r="M128" t="n">
-        <v>31708968</v>
+        <v>846315789</v>
       </c>
       <c r="N128" t="n">
-        <v>39968291031</v>
+        <v>39153684210</v>
       </c>
     </row>
     <row r="129">
@@ -6280,10 +6280,10 @@
         <v>39774712800</v>
       </c>
       <c r="K129" t="n">
-        <v>0</v>
+        <v>39774712800</v>
       </c>
       <c r="L129" t="n">
-        <v>43794712799</v>
+        <v>39774712800</v>
       </c>
       <c r="M129" t="n">
         <v>0</v>
@@ -6324,10 +6324,10 @@
         <v>0</v>
       </c>
       <c r="K130" t="n">
-        <v>0</v>
+        <v>39774712800</v>
       </c>
       <c r="L130" t="n">
-        <v>43794712799</v>
+        <v>39774712800</v>
       </c>
       <c r="M130" t="n">
         <v>0</v>
@@ -6368,10 +6368,10 @@
         <v>0</v>
       </c>
       <c r="K131" t="n">
-        <v>0</v>
+        <v>39774712800</v>
       </c>
       <c r="L131" t="n">
-        <v>43794712799</v>
+        <v>39774712800</v>
       </c>
       <c r="M131" t="n">
         <v>0</v>
@@ -6414,16 +6414,16 @@
         <v>0</v>
       </c>
       <c r="K132" t="n">
-        <v>43794712799</v>
+        <v>39774712800</v>
       </c>
       <c r="L132" t="n">
-        <v>21142275144</v>
+        <v>19201585489</v>
       </c>
       <c r="M132" t="n">
-        <v>22652437654</v>
+        <v>20573127310</v>
       </c>
       <c r="N132" t="n">
-        <v>22347562345</v>
+        <v>24426872689</v>
       </c>
     </row>
     <row r="133">
@@ -6460,16 +6460,16 @@
         <v>0</v>
       </c>
       <c r="K133" t="n">
-        <v>43794712799</v>
+        <v>39774712800</v>
       </c>
       <c r="L133" t="n">
         <v>0</v>
       </c>
       <c r="M133" t="n">
-        <v>21142275144</v>
+        <v>19201585489</v>
       </c>
       <c r="N133" t="n">
-        <v>20857724855</v>
+        <v>22798414510</v>
       </c>
     </row>
     <row r="134">
@@ -7004,16 +7004,16 @@
         <v>20000000</v>
       </c>
       <c r="K145" t="n">
-        <v>0</v>
+        <v>20000000</v>
       </c>
       <c r="L145" t="n">
-        <v>20000000</v>
+        <v>6101694</v>
       </c>
       <c r="M145" t="n">
-        <v>0</v>
+        <v>13898305</v>
       </c>
       <c r="N145" t="n">
-        <v>41000000000</v>
+        <v>40986101694</v>
       </c>
     </row>
     <row r="146">
@@ -7050,16 +7050,16 @@
         <v>20000000</v>
       </c>
       <c r="K146" t="n">
-        <v>0</v>
+        <v>20000000</v>
       </c>
       <c r="L146" t="n">
-        <v>40000000</v>
+        <v>0</v>
       </c>
       <c r="M146" t="n">
-        <v>0</v>
+        <v>6101694</v>
       </c>
       <c r="N146" t="n">
-        <v>18000000000</v>
+        <v>17993898305</v>
       </c>
     </row>
     <row r="147">
@@ -7093,19 +7093,19 @@
         <v>19120300</v>
       </c>
       <c r="J147" t="n">
-        <v>0</v>
+        <v>8970880300</v>
       </c>
       <c r="K147" t="n">
-        <v>40000000</v>
+        <v>8970880300</v>
       </c>
       <c r="L147" t="n">
-        <v>23928571</v>
+        <v>5366508750</v>
       </c>
       <c r="M147" t="n">
-        <v>16071428</v>
+        <v>3604371549</v>
       </c>
       <c r="N147" t="n">
-        <v>44983928571</v>
+        <v>41395628450</v>
       </c>
     </row>
     <row r="148">
@@ -7142,16 +7142,16 @@
         <v>0</v>
       </c>
       <c r="K148" t="n">
-        <v>40000000</v>
+        <v>8970880300</v>
       </c>
       <c r="L148" t="n">
-        <v>11428571</v>
+        <v>2563108656</v>
       </c>
       <c r="M148" t="n">
-        <v>12500000</v>
+        <v>2803400093</v>
       </c>
       <c r="N148" t="n">
-        <v>34987500000</v>
+        <v>32196599906</v>
       </c>
     </row>
     <row r="149">
@@ -7188,16 +7188,16 @@
         <v>0</v>
       </c>
       <c r="K149" t="n">
-        <v>40000000</v>
+        <v>8970880300</v>
       </c>
       <c r="L149" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M149" t="n">
-        <v>11428571</v>
+        <v>2563108657</v>
       </c>
       <c r="N149" t="n">
-        <v>31988571428</v>
+        <v>29436891342</v>
       </c>
     </row>
     <row r="150">
@@ -7232,10 +7232,10 @@
         <v>0</v>
       </c>
       <c r="K150" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L150" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M150" t="n">
         <v>0</v>
@@ -7273,13 +7273,13 @@
         <v>0</v>
       </c>
       <c r="J151" t="n">
-        <v>8975880300</v>
+        <v>5000000</v>
       </c>
       <c r="K151" t="n">
-        <v>0</v>
+        <v>4999999</v>
       </c>
       <c r="L151" t="n">
-        <v>8975880300</v>
+        <v>4999999</v>
       </c>
       <c r="M151" t="n">
         <v>0</v>
@@ -7320,10 +7320,10 @@
         <v>0</v>
       </c>
       <c r="K152" t="n">
-        <v>0</v>
+        <v>4999999</v>
       </c>
       <c r="L152" t="n">
-        <v>8975880300</v>
+        <v>4999999</v>
       </c>
       <c r="M152" t="n">
         <v>0</v>
@@ -7364,10 +7364,10 @@
         <v>0</v>
       </c>
       <c r="K153" t="n">
-        <v>0</v>
+        <v>4999999</v>
       </c>
       <c r="L153" t="n">
-        <v>8975880300</v>
+        <v>4999999</v>
       </c>
       <c r="M153" t="n">
         <v>0</v>
@@ -7410,16 +7410,16 @@
         <v>0</v>
       </c>
       <c r="K154" t="n">
-        <v>8975880300</v>
+        <v>4999999</v>
       </c>
       <c r="L154" t="n">
-        <v>4142713984</v>
+        <v>2307691</v>
       </c>
       <c r="M154" t="n">
-        <v>4833166315</v>
+        <v>2692307</v>
       </c>
       <c r="N154" t="n">
-        <v>37166833684</v>
+        <v>41997307692</v>
       </c>
     </row>
     <row r="155">
@@ -7456,16 +7456,16 @@
         <v>0</v>
       </c>
       <c r="K155" t="n">
-        <v>8975880300</v>
+        <v>4999999</v>
       </c>
       <c r="L155" t="n">
         <v>0</v>
       </c>
       <c r="M155" t="n">
-        <v>4142713984</v>
+        <v>2307691</v>
       </c>
       <c r="N155" t="n">
-        <v>31857286015</v>
+        <v>35997692308</v>
       </c>
     </row>
     <row r="156">
@@ -7502,16 +7502,16 @@
         <v>1037709000</v>
       </c>
       <c r="K156" t="n">
-        <v>0</v>
+        <v>1037709000</v>
       </c>
       <c r="L156" t="n">
-        <v>1037709000</v>
+        <v>311312700</v>
       </c>
       <c r="M156" t="n">
-        <v>0</v>
+        <v>726396300</v>
       </c>
       <c r="N156" t="n">
-        <v>26000000000</v>
+        <v>25273603700</v>
       </c>
     </row>
     <row r="157">
@@ -7546,10 +7546,10 @@
         <v>0</v>
       </c>
       <c r="K157" t="n">
-        <v>0</v>
+        <v>311312700</v>
       </c>
       <c r="L157" t="n">
-        <v>1037709000</v>
+        <v>311312700</v>
       </c>
       <c r="M157" t="n">
         <v>0</v>
@@ -7592,16 +7592,16 @@
         <v>0</v>
       </c>
       <c r="K158" t="n">
-        <v>1037709000</v>
+        <v>311312700</v>
       </c>
       <c r="L158" t="n">
-        <v>484264200</v>
+        <v>145279260</v>
       </c>
       <c r="M158" t="n">
-        <v>553444800</v>
+        <v>166033440</v>
       </c>
       <c r="N158" t="n">
-        <v>39446555200</v>
+        <v>39833966560</v>
       </c>
     </row>
     <row r="159">
@@ -7638,16 +7638,16 @@
         <v>0</v>
       </c>
       <c r="K159" t="n">
-        <v>1037709000</v>
+        <v>311312700</v>
       </c>
       <c r="L159" t="n">
         <v>0</v>
       </c>
       <c r="M159" t="n">
-        <v>484264200</v>
+        <v>145279260</v>
       </c>
       <c r="N159" t="n">
-        <v>34515735800</v>
+        <v>34854720740</v>
       </c>
     </row>
     <row r="160">
@@ -7956,16 +7956,16 @@
         <v>189145600</v>
       </c>
       <c r="K166" t="n">
-        <v>0</v>
+        <v>189145600</v>
       </c>
       <c r="L166" t="n">
-        <v>189145600</v>
+        <v>56743680</v>
       </c>
       <c r="M166" t="n">
-        <v>0</v>
+        <v>132401919</v>
       </c>
       <c r="N166" t="n">
-        <v>24000000000</v>
+        <v>23867598080</v>
       </c>
     </row>
     <row r="167">
@@ -8000,10 +8000,10 @@
         <v>0</v>
       </c>
       <c r="K167" t="n">
-        <v>0</v>
+        <v>56743680</v>
       </c>
       <c r="L167" t="n">
-        <v>189145600</v>
+        <v>56743680</v>
       </c>
       <c r="M167" t="n">
         <v>0</v>
@@ -8046,16 +8046,16 @@
         <v>0</v>
       </c>
       <c r="K168" t="n">
-        <v>189145600</v>
+        <v>56743680</v>
       </c>
       <c r="L168" t="n">
-        <v>106004676</v>
+        <v>31801403</v>
       </c>
       <c r="M168" t="n">
-        <v>83140923</v>
+        <v>24942276</v>
       </c>
       <c r="N168" t="n">
-        <v>39916859076</v>
+        <v>39975057723</v>
       </c>
     </row>
     <row r="169">
@@ -8092,16 +8092,16 @@
         <v>0</v>
       </c>
       <c r="K169" t="n">
-        <v>189145600</v>
+        <v>56743680</v>
       </c>
       <c r="L169" t="n">
-        <v>33256368</v>
+        <v>9976910</v>
       </c>
       <c r="M169" t="n">
-        <v>72748307</v>
+        <v>21824492</v>
       </c>
       <c r="N169" t="n">
-        <v>34927251692</v>
+        <v>34978175507</v>
       </c>
     </row>
     <row r="170">
@@ -8138,16 +8138,16 @@
         <v>0</v>
       </c>
       <c r="K170" t="n">
-        <v>189145600</v>
+        <v>56743680</v>
       </c>
       <c r="L170" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M170" t="n">
-        <v>33256369</v>
+        <v>9976910</v>
       </c>
       <c r="N170" t="n">
-        <v>15966743630</v>
+        <v>15990023089</v>
       </c>
     </row>
     <row r="171">
@@ -8185,7 +8185,7 @@
         <v>0</v>
       </c>
       <c r="L171" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M171" t="n">
         <v>0</v>
@@ -8229,7 +8229,7 @@
         <v>0</v>
       </c>
       <c r="L172" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M172" t="n">
         <v>0</v>
@@ -8273,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="L173" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M173" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="K174" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L174" t="n">
         <v>0</v>
@@ -8362,7 +8362,7 @@
         <v>0</v>
       </c>
       <c r="K175" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L175" t="n">
         <v>0</v>
@@ -8406,7 +8406,7 @@
         <v>8108000000</v>
       </c>
       <c r="K176" t="n">
-        <v>0</v>
+        <v>8108000000</v>
       </c>
       <c r="L176" t="n">
         <v>8108000000</v>
@@ -8498,16 +8498,16 @@
         <v>75000000</v>
       </c>
       <c r="K178" t="n">
-        <v>2432400000</v>
+        <v>2507400000</v>
       </c>
       <c r="L178" t="n">
-        <v>2078152941</v>
+        <v>2064917647</v>
       </c>
       <c r="M178" t="n">
-        <v>429247058</v>
+        <v>442482352</v>
       </c>
       <c r="N178" t="n">
-        <v>14570752941</v>
+        <v>14557517647</v>
       </c>
     </row>
     <row r="179">
@@ -8544,16 +8544,16 @@
         <v>75000000</v>
       </c>
       <c r="K179" t="n">
-        <v>2432400000</v>
+        <v>2507400000</v>
       </c>
       <c r="L179" t="n">
-        <v>1151576470</v>
+        <v>1032458823</v>
       </c>
       <c r="M179" t="n">
-        <v>1001576470</v>
+        <v>1032458823</v>
       </c>
       <c r="N179" t="n">
-        <v>33998423529</v>
+        <v>33967541176</v>
       </c>
     </row>
     <row r="180">
@@ -8590,16 +8590,16 @@
         <v>75000000</v>
       </c>
       <c r="K180" t="n">
-        <v>2432400000</v>
+        <v>2507400000</v>
       </c>
       <c r="L180" t="n">
-        <v>224999999</v>
+        <v>0</v>
       </c>
       <c r="M180" t="n">
-        <v>1001576470</v>
+        <v>1032458823</v>
       </c>
       <c r="N180" t="n">
-        <v>33998423529</v>
+        <v>33967541176</v>
       </c>
     </row>
     <row r="181">
@@ -8637,7 +8637,7 @@
         <v>0</v>
       </c>
       <c r="L181" t="n">
-        <v>224999999</v>
+        <v>0</v>
       </c>
       <c r="M181" t="n">
         <v>0</v>
@@ -8681,7 +8681,7 @@
         <v>0</v>
       </c>
       <c r="L182" t="n">
-        <v>224999999</v>
+        <v>0</v>
       </c>
       <c r="M182" t="n">
         <v>0</v>
@@ -8725,7 +8725,7 @@
         <v>0</v>
       </c>
       <c r="L183" t="n">
-        <v>224999999</v>
+        <v>0</v>
       </c>
       <c r="M183" t="n">
         <v>0</v>
@@ -8768,16 +8768,16 @@
         <v>0</v>
       </c>
       <c r="K184" t="n">
-        <v>224999999</v>
+        <v>0</v>
       </c>
       <c r="L184" t="n">
-        <v>148728812</v>
+        <v>0</v>
       </c>
       <c r="M184" t="n">
-        <v>76271186</v>
+        <v>0</v>
       </c>
       <c r="N184" t="n">
-        <v>39923728813</v>
+        <v>40000000000</v>
       </c>
     </row>
     <row r="185">
@@ -8814,16 +8814,16 @@
         <v>0</v>
       </c>
       <c r="K185" t="n">
-        <v>224999999</v>
+        <v>0</v>
       </c>
       <c r="L185" t="n">
-        <v>68644066</v>
+        <v>0</v>
       </c>
       <c r="M185" t="n">
-        <v>80084745</v>
+        <v>0</v>
       </c>
       <c r="N185" t="n">
-        <v>41919915254</v>
+        <v>42000000000</v>
       </c>
     </row>
     <row r="186">
@@ -8860,16 +8860,16 @@
         <v>0</v>
       </c>
       <c r="K186" t="n">
-        <v>224999999</v>
+        <v>0</v>
       </c>
       <c r="L186" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M186" t="n">
-        <v>68644067</v>
+        <v>0</v>
       </c>
       <c r="N186" t="n">
-        <v>35931355932</v>
+        <v>36000000000</v>
       </c>
     </row>
     <row r="187">
@@ -8906,7 +8906,7 @@
         <v>0</v>
       </c>
       <c r="K187" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L187" t="n">
         <v>0</v>
@@ -8996,16 +8996,16 @@
         <v>1440000000</v>
       </c>
       <c r="K189" t="n">
-        <v>0</v>
+        <v>1440000000</v>
       </c>
       <c r="L189" t="n">
-        <v>1440000000</v>
+        <v>945882352</v>
       </c>
       <c r="M189" t="n">
-        <v>0</v>
+        <v>494117647</v>
       </c>
       <c r="N189" t="n">
-        <v>35000000000</v>
+        <v>34505882352</v>
       </c>
     </row>
     <row r="190">
@@ -9042,16 +9042,16 @@
         <v>1440000000</v>
       </c>
       <c r="K190" t="n">
-        <v>0</v>
+        <v>1440000000</v>
       </c>
       <c r="L190" t="n">
-        <v>2880000000</v>
+        <v>451764704</v>
       </c>
       <c r="M190" t="n">
-        <v>0</v>
+        <v>494117647</v>
       </c>
       <c r="N190" t="n">
-        <v>35000000000</v>
+        <v>34505882352</v>
       </c>
     </row>
     <row r="191">
@@ -9088,16 +9088,16 @@
         <v>1440000000</v>
       </c>
       <c r="K191" t="n">
-        <v>0</v>
+        <v>1440000000</v>
       </c>
       <c r="L191" t="n">
-        <v>4320000000</v>
+        <v>-1</v>
       </c>
       <c r="M191" t="n">
-        <v>0</v>
+        <v>451764705</v>
       </c>
       <c r="N191" t="n">
-        <v>32000000000</v>
+        <v>31548235294</v>
       </c>
     </row>
     <row r="192">
@@ -9132,10 +9132,10 @@
         <v>0</v>
       </c>
       <c r="K192" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L192" t="n">
-        <v>4320000000</v>
+        <v>-1</v>
       </c>
       <c r="M192" t="n">
         <v>0</v>
@@ -9176,10 +9176,10 @@
         <v>0</v>
       </c>
       <c r="K193" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L193" t="n">
-        <v>4320000000</v>
+        <v>-1</v>
       </c>
       <c r="M193" t="n">
         <v>0</v>
@@ -9220,10 +9220,10 @@
         <v>0</v>
       </c>
       <c r="K194" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L194" t="n">
-        <v>4320000000</v>
+        <v>-1</v>
       </c>
       <c r="M194" t="n">
         <v>0</v>
@@ -9266,16 +9266,16 @@
         <v>0</v>
       </c>
       <c r="K195" t="n">
-        <v>4320000000</v>
+        <v>-1</v>
       </c>
       <c r="L195" t="n">
-        <v>2575384615</v>
+        <v>0</v>
       </c>
       <c r="M195" t="n">
-        <v>1744615384</v>
+        <v>0</v>
       </c>
       <c r="N195" t="n">
-        <v>40255384615</v>
+        <v>42000000000</v>
       </c>
     </row>
     <row r="196">
@@ -9312,16 +9312,16 @@
         <v>0</v>
       </c>
       <c r="K196" t="n">
-        <v>4320000000</v>
+        <v>-1</v>
       </c>
       <c r="L196" t="n">
-        <v>1079999999</v>
+        <v>0</v>
       </c>
       <c r="M196" t="n">
-        <v>1495384615</v>
+        <v>0</v>
       </c>
       <c r="N196" t="n">
-        <v>34504615384</v>
+        <v>36000000000</v>
       </c>
     </row>
     <row r="197">
@@ -9358,16 +9358,16 @@
         <v>0</v>
       </c>
       <c r="K197" t="n">
-        <v>4320000000</v>
+        <v>-1</v>
       </c>
       <c r="L197" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M197" t="n">
-        <v>1080000000</v>
+        <v>0</v>
       </c>
       <c r="N197" t="n">
-        <v>24920000000</v>
+        <v>26000000000</v>
       </c>
     </row>
     <row r="198">
@@ -9405,7 +9405,7 @@
         <v>0</v>
       </c>
       <c r="L198" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M198" t="n">
         <v>0</v>
@@ -9449,7 +9449,7 @@
         <v>0</v>
       </c>
       <c r="L199" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M199" t="n">
         <v>0</v>
@@ -9492,16 +9492,16 @@
         <v>1000000</v>
       </c>
       <c r="K200" t="n">
-        <v>-1</v>
+        <v>1000000</v>
       </c>
       <c r="L200" t="n">
-        <v>999999</v>
+        <v>500000</v>
       </c>
       <c r="M200" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="N200" t="n">
-        <v>35000000000</v>
+        <v>34999500000</v>
       </c>
     </row>
     <row r="201">
@@ -9538,16 +9538,16 @@
         <v>1000000</v>
       </c>
       <c r="K201" t="n">
-        <v>-1</v>
+        <v>1000000</v>
       </c>
       <c r="L201" t="n">
-        <v>1999999</v>
+        <v>0</v>
       </c>
       <c r="M201" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="N201" t="n">
-        <v>35000000000</v>
+        <v>34999500000</v>
       </c>
     </row>
     <row r="202">
@@ -9585,7 +9585,7 @@
         <v>0</v>
       </c>
       <c r="L202" t="n">
-        <v>1999999</v>
+        <v>0</v>
       </c>
       <c r="M202" t="n">
         <v>0</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="L203" t="n">
-        <v>1999999</v>
+        <v>0</v>
       </c>
       <c r="M203" t="n">
         <v>0</v>
@@ -9673,7 +9673,7 @@
         <v>0</v>
       </c>
       <c r="L204" t="n">
-        <v>1999999</v>
+        <v>0</v>
       </c>
       <c r="M204" t="n">
         <v>0</v>
@@ -9716,16 +9716,16 @@
         <v>0</v>
       </c>
       <c r="K205" t="n">
-        <v>1999999</v>
+        <v>0</v>
       </c>
       <c r="L205" t="n">
-        <v>923076</v>
+        <v>0</v>
       </c>
       <c r="M205" t="n">
-        <v>1076922</v>
+        <v>0</v>
       </c>
       <c r="N205" t="n">
-        <v>41998923077</v>
+        <v>42000000000</v>
       </c>
     </row>
     <row r="206">
@@ -9762,16 +9762,16 @@
         <v>0</v>
       </c>
       <c r="K206" t="n">
-        <v>1999999</v>
+        <v>0</v>
       </c>
       <c r="L206" t="n">
         <v>0</v>
       </c>
       <c r="M206" t="n">
-        <v>923076</v>
+        <v>0</v>
       </c>
       <c r="N206" t="n">
-        <v>35999076923</v>
+        <v>36000000000</v>
       </c>
     </row>
     <row r="207">
@@ -9808,16 +9808,16 @@
         <v>266732100</v>
       </c>
       <c r="K207" t="n">
-        <v>0</v>
+        <v>266732100</v>
       </c>
       <c r="L207" t="n">
-        <v>266732100</v>
+        <v>80019630</v>
       </c>
       <c r="M207" t="n">
-        <v>0</v>
+        <v>186712470</v>
       </c>
       <c r="N207" t="n">
-        <v>38000000000</v>
+        <v>37813287530</v>
       </c>
     </row>
     <row r="208">
@@ -9854,16 +9854,16 @@
         <v>0</v>
       </c>
       <c r="K208" t="n">
-        <v>266732100</v>
+        <v>80019630</v>
       </c>
       <c r="L208" t="n">
-        <v>80019630</v>
+        <v>24005889</v>
       </c>
       <c r="M208" t="n">
-        <v>186712470</v>
+        <v>56013741</v>
       </c>
       <c r="N208" t="n">
-        <v>23813287530</v>
+        <v>23943986259</v>
       </c>
     </row>
     <row r="209">
@@ -9900,16 +9900,16 @@
         <v>1172000000</v>
       </c>
       <c r="K209" t="n">
-        <v>80019630</v>
+        <v>1196005889</v>
       </c>
       <c r="L209" t="n">
-        <v>1237132256</v>
+        <v>973493165</v>
       </c>
       <c r="M209" t="n">
-        <v>14887373</v>
+        <v>222512723</v>
       </c>
       <c r="N209" t="n">
-        <v>15985112626</v>
+        <v>15777487276</v>
       </c>
     </row>
     <row r="210">
@@ -9946,16 +9946,16 @@
         <v>1172000000</v>
       </c>
       <c r="K210" t="n">
-        <v>80019630</v>
+        <v>1196005889</v>
       </c>
       <c r="L210" t="n">
-        <v>2376566127</v>
+        <v>486746582</v>
       </c>
       <c r="M210" t="n">
-        <v>32566128</v>
+        <v>486746582</v>
       </c>
       <c r="N210" t="n">
-        <v>34967433871</v>
+        <v>34513253417</v>
       </c>
     </row>
     <row r="211">
@@ -9992,16 +9992,16 @@
         <v>1172000000</v>
       </c>
       <c r="K211" t="n">
-        <v>80019630</v>
+        <v>1196005889</v>
       </c>
       <c r="L211" t="n">
-        <v>3515999998</v>
+        <v>0</v>
       </c>
       <c r="M211" t="n">
-        <v>32566128</v>
+        <v>486746582</v>
       </c>
       <c r="N211" t="n">
-        <v>34967433871</v>
+        <v>34513253417</v>
       </c>
     </row>
     <row r="212">
@@ -10039,7 +10039,7 @@
         <v>0</v>
       </c>
       <c r="L212" t="n">
-        <v>3515999998</v>
+        <v>0</v>
       </c>
       <c r="M212" t="n">
         <v>0</v>
@@ -10083,7 +10083,7 @@
         <v>0</v>
       </c>
       <c r="L213" t="n">
-        <v>3515999998</v>
+        <v>0</v>
       </c>
       <c r="M213" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="L214" t="n">
-        <v>3515999998</v>
+        <v>0</v>
       </c>
       <c r="M214" t="n">
         <v>0</v>
@@ -10170,16 +10170,16 @@
         <v>0</v>
       </c>
       <c r="K215" t="n">
-        <v>3515999998</v>
+        <v>0</v>
       </c>
       <c r="L215" t="n">
-        <v>1622769229</v>
+        <v>0</v>
       </c>
       <c r="M215" t="n">
-        <v>1893230768</v>
+        <v>0</v>
       </c>
       <c r="N215" t="n">
-        <v>40106769231</v>
+        <v>42000000000</v>
       </c>
     </row>
     <row r="216">
@@ -10216,16 +10216,16 @@
         <v>0</v>
       </c>
       <c r="K216" t="n">
-        <v>3515999998</v>
+        <v>0</v>
       </c>
       <c r="L216" t="n">
         <v>0</v>
       </c>
       <c r="M216" t="n">
-        <v>1622769229</v>
+        <v>0</v>
       </c>
       <c r="N216" t="n">
-        <v>34377230770</v>
+        <v>36000000000</v>
       </c>
     </row>
     <row r="217">
@@ -10260,7 +10260,7 @@
         <v>4324266700</v>
       </c>
       <c r="K217" t="n">
-        <v>0</v>
+        <v>4324266700</v>
       </c>
       <c r="L217" t="n">
         <v>4324266700</v>
@@ -10304,7 +10304,7 @@
         <v>0</v>
       </c>
       <c r="K218" t="n">
-        <v>0</v>
+        <v>4324266700</v>
       </c>
       <c r="L218" t="n">
         <v>4324266700</v>
@@ -10350,16 +10350,16 @@
         <v>5507000000</v>
       </c>
       <c r="K219" t="n">
-        <v>4324266700</v>
+        <v>9831266700</v>
       </c>
       <c r="L219" t="n">
-        <v>7669133350</v>
+        <v>4915633350</v>
       </c>
       <c r="M219" t="n">
-        <v>2162133350</v>
+        <v>4915633350</v>
       </c>
       <c r="N219" t="n">
-        <v>32837866650</v>
+        <v>30084366650</v>
       </c>
     </row>
     <row r="220">
@@ -10396,16 +10396,16 @@
         <v>5507000000</v>
       </c>
       <c r="K220" t="n">
-        <v>4324266700</v>
+        <v>9831266700</v>
       </c>
       <c r="L220" t="n">
-        <v>11014000000</v>
+        <v>0</v>
       </c>
       <c r="M220" t="n">
-        <v>2162133350</v>
+        <v>4915633350</v>
       </c>
       <c r="N220" t="n">
-        <v>32837866650</v>
+        <v>30084366650</v>
       </c>
     </row>
     <row r="221">
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="L221" t="n">
-        <v>11014000000</v>
+        <v>0</v>
       </c>
       <c r="M221" t="n">
         <v>0</v>
@@ -10487,7 +10487,7 @@
         <v>0</v>
       </c>
       <c r="L222" t="n">
-        <v>11014000000</v>
+        <v>0</v>
       </c>
       <c r="M222" t="n">
         <v>0</v>
@@ -10531,7 +10531,7 @@
         <v>0</v>
       </c>
       <c r="L223" t="n">
-        <v>11014000000</v>
+        <v>0</v>
       </c>
       <c r="M223" t="n">
         <v>0</v>
@@ -10575,7 +10575,7 @@
         <v>0</v>
       </c>
       <c r="L224" t="n">
-        <v>11014000000</v>
+        <v>0</v>
       </c>
       <c r="M224" t="n">
         <v>0</v>
@@ -10618,16 +10618,16 @@
         <v>3258944400</v>
       </c>
       <c r="K225" t="n">
-        <v>11014000000</v>
+        <v>3258944400</v>
       </c>
       <c r="L225" t="n">
-        <v>8342329015</v>
+        <v>1504128184</v>
       </c>
       <c r="M225" t="n">
-        <v>5930615384</v>
+        <v>1754816215</v>
       </c>
       <c r="N225" t="n">
-        <v>36069384615</v>
+        <v>40245183784</v>
       </c>
     </row>
     <row r="226">
@@ -10664,16 +10664,16 @@
         <v>3258944400</v>
       </c>
       <c r="K226" t="n">
-        <v>11014000000</v>
+        <v>3258944400</v>
       </c>
       <c r="L226" t="n">
-        <v>6517888799</v>
+        <v>0</v>
       </c>
       <c r="M226" t="n">
-        <v>5083384615</v>
+        <v>1504128184</v>
       </c>
       <c r="N226" t="n">
-        <v>30916615384</v>
+        <v>34495871815</v>
       </c>
     </row>
     <row r="227">
@@ -10711,7 +10711,7 @@
         <v>0</v>
       </c>
       <c r="L227" t="n">
-        <v>6517888799</v>
+        <v>0</v>
       </c>
       <c r="M227" t="n">
         <v>0</v>
@@ -10754,16 +10754,16 @@
         <v>1513000000</v>
       </c>
       <c r="K228" t="n">
-        <v>6517888799</v>
+        <v>1513000000</v>
       </c>
       <c r="L228" t="n">
-        <v>7060139403</v>
+        <v>1287659574</v>
       </c>
       <c r="M228" t="n">
-        <v>970749395</v>
+        <v>225340425</v>
       </c>
       <c r="N228" t="n">
-        <v>13029250604</v>
+        <v>13774659574</v>
       </c>
     </row>
     <row r="229">
@@ -10800,16 +10800,16 @@
         <v>1513000000</v>
       </c>
       <c r="K229" t="n">
-        <v>6517888799</v>
+        <v>1513000000</v>
       </c>
       <c r="L229" t="n">
-        <v>5799569701</v>
+        <v>643829786</v>
       </c>
       <c r="M229" t="n">
-        <v>2773569701</v>
+        <v>643829787</v>
       </c>
       <c r="N229" t="n">
-        <v>37226430298</v>
+        <v>39356170212</v>
       </c>
     </row>
     <row r="230">
@@ -10846,16 +10846,16 @@
         <v>1513000000</v>
       </c>
       <c r="K230" t="n">
-        <v>6517888799</v>
+        <v>1513000000</v>
       </c>
       <c r="L230" t="n">
-        <v>4538999999</v>
+        <v>-1</v>
       </c>
       <c r="M230" t="n">
-        <v>2773569701</v>
+        <v>643829787</v>
       </c>
       <c r="N230" t="n">
-        <v>37226430298</v>
+        <v>39356170212</v>
       </c>
     </row>
     <row r="231">
@@ -10890,10 +10890,10 @@
         <v>0</v>
       </c>
       <c r="K231" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L231" t="n">
-        <v>4538999999</v>
+        <v>-1</v>
       </c>
       <c r="M231" t="n">
         <v>0</v>
@@ -10934,10 +10934,10 @@
         <v>0</v>
       </c>
       <c r="K232" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L232" t="n">
-        <v>4538999999</v>
+        <v>-1</v>
       </c>
       <c r="M232" t="n">
         <v>0</v>
@@ -10978,10 +10978,10 @@
         <v>0</v>
       </c>
       <c r="K233" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L233" t="n">
-        <v>4538999999</v>
+        <v>-1</v>
       </c>
       <c r="M233" t="n">
         <v>0</v>
@@ -11024,16 +11024,16 @@
         <v>0</v>
       </c>
       <c r="K234" t="n">
-        <v>4538999999</v>
+        <v>-1</v>
       </c>
       <c r="L234" t="n">
-        <v>3438636362</v>
+        <v>0</v>
       </c>
       <c r="M234" t="n">
-        <v>1100363636</v>
+        <v>0</v>
       </c>
       <c r="N234" t="n">
-        <v>38899636363</v>
+        <v>40000000000</v>
       </c>
     </row>
     <row r="235">
@@ -11070,16 +11070,16 @@
         <v>0</v>
       </c>
       <c r="K235" t="n">
-        <v>4538999999</v>
+        <v>-1</v>
       </c>
       <c r="L235" t="n">
-        <v>2310763634</v>
+        <v>0</v>
       </c>
       <c r="M235" t="n">
-        <v>1127872727</v>
+        <v>0</v>
       </c>
       <c r="N235" t="n">
-        <v>39872127272</v>
+        <v>41000000000</v>
       </c>
     </row>
     <row r="236">
@@ -11116,16 +11116,16 @@
         <v>0</v>
       </c>
       <c r="K236" t="n">
-        <v>4538999999</v>
+        <v>-1</v>
       </c>
       <c r="L236" t="n">
-        <v>1072854543</v>
+        <v>0</v>
       </c>
       <c r="M236" t="n">
-        <v>1237909090</v>
+        <v>0</v>
       </c>
       <c r="N236" t="n">
-        <v>43762090909</v>
+        <v>45000000000</v>
       </c>
     </row>
     <row r="237">
@@ -11162,16 +11162,16 @@
         <v>0</v>
       </c>
       <c r="K237" t="n">
-        <v>4538999999</v>
+        <v>-1</v>
       </c>
       <c r="L237" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M237" t="n">
-        <v>1072854545</v>
+        <v>0</v>
       </c>
       <c r="N237" t="n">
-        <v>37927145454</v>
+        <v>39000000000</v>
       </c>
     </row>
     <row r="238">
@@ -11208,16 +11208,16 @@
         <v>3061998800</v>
       </c>
       <c r="K238" t="n">
-        <v>-2</v>
+        <v>3061998800</v>
       </c>
       <c r="L238" t="n">
-        <v>3061998798</v>
+        <v>2276870902</v>
       </c>
       <c r="M238" t="n">
-        <v>0</v>
+        <v>785127897</v>
       </c>
       <c r="N238" t="n">
-        <v>20000000000</v>
+        <v>19214872102</v>
       </c>
     </row>
     <row r="239">
@@ -11254,16 +11254,16 @@
         <v>3061998800</v>
       </c>
       <c r="K239" t="n">
-        <v>-2</v>
+        <v>3061998800</v>
       </c>
       <c r="L239" t="n">
-        <v>6123997598</v>
+        <v>1020666266</v>
       </c>
       <c r="M239" t="n">
-        <v>0</v>
+        <v>1256204635</v>
       </c>
       <c r="N239" t="n">
-        <v>32000000000</v>
+        <v>30743795364</v>
       </c>
     </row>
     <row r="240">
@@ -11300,16 +11300,16 @@
         <v>3061998800</v>
       </c>
       <c r="K240" t="n">
-        <v>-2</v>
+        <v>3061998800</v>
       </c>
       <c r="L240" t="n">
-        <v>9185996398</v>
+        <v>0</v>
       </c>
       <c r="M240" t="n">
-        <v>0</v>
+        <v>1020666266</v>
       </c>
       <c r="N240" t="n">
-        <v>26000000000</v>
+        <v>24979333733</v>
       </c>
     </row>
     <row r="241">
@@ -11347,7 +11347,7 @@
         <v>0</v>
       </c>
       <c r="L241" t="n">
-        <v>9185996398</v>
+        <v>0</v>
       </c>
       <c r="M241" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>1526000000</v>
       </c>
       <c r="K242" t="n">
-        <v>9185996398</v>
+        <v>1526000000</v>
       </c>
       <c r="L242" t="n">
-        <v>6118998199</v>
+        <v>763000000</v>
       </c>
       <c r="M242" t="n">
-        <v>4592998199</v>
+        <v>763000000</v>
       </c>
       <c r="N242" t="n">
-        <v>40407001801</v>
+        <v>44237000000</v>
       </c>
     </row>
     <row r="243">
@@ -11436,16 +11436,16 @@
         <v>1526000000</v>
       </c>
       <c r="K243" t="n">
-        <v>9185996398</v>
+        <v>1526000000</v>
       </c>
       <c r="L243" t="n">
-        <v>3052000000</v>
+        <v>0</v>
       </c>
       <c r="M243" t="n">
-        <v>4592998199</v>
+        <v>763000000</v>
       </c>
       <c r="N243" t="n">
-        <v>40407001801</v>
+        <v>44237000000</v>
       </c>
     </row>
     <row r="244">
@@ -11480,10 +11480,10 @@
         <v>15179120600</v>
       </c>
       <c r="K244" t="n">
-        <v>0</v>
+        <v>15179120600</v>
       </c>
       <c r="L244" t="n">
-        <v>18231120600</v>
+        <v>15179120600</v>
       </c>
       <c r="M244" t="n">
         <v>0</v>
@@ -11524,10 +11524,10 @@
         <v>0</v>
       </c>
       <c r="K245" t="n">
-        <v>0</v>
+        <v>15179120600</v>
       </c>
       <c r="L245" t="n">
-        <v>18231120600</v>
+        <v>15179120600</v>
       </c>
       <c r="M245" t="n">
         <v>0</v>
@@ -11568,10 +11568,10 @@
         <v>0</v>
       </c>
       <c r="K246" t="n">
-        <v>0</v>
+        <v>15179120600</v>
       </c>
       <c r="L246" t="n">
-        <v>18231120600</v>
+        <v>15179120600</v>
       </c>
       <c r="M246" t="n">
         <v>0</v>
@@ -11614,16 +11614,16 @@
         <v>0</v>
       </c>
       <c r="K247" t="n">
-        <v>18231120600</v>
+        <v>15179120600</v>
       </c>
       <c r="L247" t="n">
-        <v>8464448850</v>
+        <v>7047448850</v>
       </c>
       <c r="M247" t="n">
-        <v>9766671750</v>
+        <v>8131671750</v>
       </c>
       <c r="N247" t="n">
-        <v>35233328250</v>
+        <v>36868328250</v>
       </c>
     </row>
     <row r="248">
@@ -11660,16 +11660,16 @@
         <v>0</v>
       </c>
       <c r="K248" t="n">
-        <v>18231120600</v>
+        <v>15179120600</v>
       </c>
       <c r="L248" t="n">
         <v>0</v>
       </c>
       <c r="M248" t="n">
-        <v>8464448850</v>
+        <v>7047448850</v>
       </c>
       <c r="N248" t="n">
-        <v>30535551150</v>
+        <v>31952551150</v>
       </c>
     </row>
     <row r="249">
@@ -11704,7 +11704,7 @@
         <v>1158634000</v>
       </c>
       <c r="K249" t="n">
-        <v>0</v>
+        <v>1158634000</v>
       </c>
       <c r="L249" t="n">
         <v>1158634000</v>
@@ -11748,7 +11748,7 @@
         <v>0</v>
       </c>
       <c r="K250" t="n">
-        <v>0</v>
+        <v>1158634000</v>
       </c>
       <c r="L250" t="n">
         <v>1158634000</v>
@@ -11794,16 +11794,16 @@
         <v>1220000000</v>
       </c>
       <c r="K251" t="n">
-        <v>1158634000</v>
+        <v>2378634000</v>
       </c>
       <c r="L251" t="n">
-        <v>1768826631</v>
+        <v>1126721368</v>
       </c>
       <c r="M251" t="n">
-        <v>609807368</v>
+        <v>1251912631</v>
       </c>
       <c r="N251" t="n">
-        <v>49390192631</v>
+        <v>48748087368</v>
       </c>
     </row>
     <row r="252">
@@ -11840,16 +11840,16 @@
         <v>1220000000</v>
       </c>
       <c r="K252" t="n">
-        <v>1158634000</v>
+        <v>2378634000</v>
       </c>
       <c r="L252" t="n">
-        <v>2439999999</v>
+        <v>0</v>
       </c>
       <c r="M252" t="n">
-        <v>548826631</v>
+        <v>1126721368</v>
       </c>
       <c r="N252" t="n">
-        <v>44451173368</v>
+        <v>43873278631</v>
       </c>
     </row>
     <row r="253">
@@ -11887,7 +11887,7 @@
         <v>0</v>
       </c>
       <c r="L253" t="n">
-        <v>2439999999</v>
+        <v>0</v>
       </c>
       <c r="M253" t="n">
         <v>0</v>
@@ -11931,7 +11931,7 @@
         <v>0</v>
       </c>
       <c r="L254" t="n">
-        <v>2439999999</v>
+        <v>0</v>
       </c>
       <c r="M254" t="n">
         <v>0</v>
@@ -11975,7 +11975,7 @@
         <v>0</v>
       </c>
       <c r="L255" t="n">
-        <v>2439999999</v>
+        <v>0</v>
       </c>
       <c r="M255" t="n">
         <v>0</v>
@@ -12018,16 +12018,16 @@
         <v>0</v>
       </c>
       <c r="K256" t="n">
-        <v>2439999999</v>
+        <v>0</v>
       </c>
       <c r="L256" t="n">
-        <v>1132857142</v>
+        <v>0</v>
       </c>
       <c r="M256" t="n">
-        <v>1307142856</v>
+        <v>0</v>
       </c>
       <c r="N256" t="n">
-        <v>43692857143</v>
+        <v>45000000000</v>
       </c>
     </row>
     <row r="257">
@@ -12064,16 +12064,16 @@
         <v>0</v>
       </c>
       <c r="K257" t="n">
-        <v>2439999999</v>
+        <v>0</v>
       </c>
       <c r="L257" t="n">
         <v>0</v>
       </c>
       <c r="M257" t="n">
-        <v>1132857142</v>
+        <v>0</v>
       </c>
       <c r="N257" t="n">
-        <v>37867142857</v>
+        <v>39000000000</v>
       </c>
     </row>
     <row r="258">
@@ -12110,16 +12110,16 @@
         <v>6768866700</v>
       </c>
       <c r="K258" t="n">
-        <v>0</v>
+        <v>6768866700</v>
       </c>
       <c r="L258" t="n">
-        <v>6768866700</v>
+        <v>2986264720</v>
       </c>
       <c r="M258" t="n">
-        <v>0</v>
+        <v>3782601979</v>
       </c>
       <c r="N258" t="n">
-        <v>38000000000</v>
+        <v>34217398020</v>
       </c>
     </row>
     <row r="259">
@@ -12156,16 +12156,16 @@
         <v>6768866700</v>
       </c>
       <c r="K259" t="n">
-        <v>0</v>
+        <v>6768866700</v>
       </c>
       <c r="L259" t="n">
-        <v>13537733400</v>
+        <v>0</v>
       </c>
       <c r="M259" t="n">
-        <v>0</v>
+        <v>2986264720</v>
       </c>
       <c r="N259" t="n">
-        <v>30000000000</v>
+        <v>27013735279</v>
       </c>
     </row>
     <row r="260">
@@ -12202,16 +12202,16 @@
         <v>0</v>
       </c>
       <c r="K260" t="n">
-        <v>13537733400</v>
+        <v>0</v>
       </c>
       <c r="L260" t="n">
-        <v>4061320020</v>
+        <v>0</v>
       </c>
       <c r="M260" t="n">
-        <v>9476413380</v>
+        <v>0</v>
       </c>
       <c r="N260" t="n">
-        <v>17523586620</v>
+        <v>27000000000</v>
       </c>
     </row>
     <row r="261">
@@ -12245,19 +12245,19 @@
         <v>20021800</v>
       </c>
       <c r="J261" t="n">
-        <v>2413655200</v>
+        <v>39770974400</v>
       </c>
       <c r="K261" t="n">
-        <v>4061320020</v>
+        <v>39770974400</v>
       </c>
       <c r="L261" t="n">
-        <v>4693694509</v>
+        <v>22327564575</v>
       </c>
       <c r="M261" t="n">
-        <v>1781280710</v>
+        <v>17443409824</v>
       </c>
       <c r="N261" t="n">
-        <v>48218719289</v>
+        <v>32556590175</v>
       </c>
     </row>
     <row r="262">
@@ -12294,16 +12294,16 @@
         <v>2413655200</v>
       </c>
       <c r="K262" t="n">
-        <v>4061320020</v>
+        <v>39770974400</v>
       </c>
       <c r="L262" t="n">
-        <v>5504197069</v>
+        <v>6628495732</v>
       </c>
       <c r="M262" t="n">
-        <v>1603152639</v>
+        <v>15699068842</v>
       </c>
       <c r="N262" t="n">
-        <v>43396847360</v>
+        <v>29300931157</v>
       </c>
     </row>
     <row r="263">
@@ -12340,16 +12340,16 @@
         <v>2413655200</v>
       </c>
       <c r="K263" t="n">
-        <v>4061320020</v>
+        <v>39770974400</v>
       </c>
       <c r="L263" t="n">
-        <v>7240965599</v>
+        <v>-1</v>
       </c>
       <c r="M263" t="n">
-        <v>676886670</v>
+        <v>6628495733</v>
       </c>
       <c r="N263" t="n">
-        <v>18323113330</v>
+        <v>12371504266</v>
       </c>
     </row>
     <row r="264">
@@ -12381,13 +12381,13 @@
         <v>0</v>
       </c>
       <c r="J264" t="n">
-        <v>37357319200</v>
+        <v>0</v>
       </c>
       <c r="K264" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L264" t="n">
-        <v>44598284799</v>
+        <v>-1</v>
       </c>
       <c r="M264" t="n">
         <v>0</v>
@@ -12428,10 +12428,10 @@
         <v>0</v>
       </c>
       <c r="K265" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L265" t="n">
-        <v>44598284799</v>
+        <v>-1</v>
       </c>
       <c r="M265" t="n">
         <v>0</v>
@@ -12472,10 +12472,10 @@
         <v>0</v>
       </c>
       <c r="K266" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L266" t="n">
-        <v>44598284799</v>
+        <v>-1</v>
       </c>
       <c r="M266" t="n">
         <v>0</v>
@@ -12516,10 +12516,10 @@
         <v>0</v>
       </c>
       <c r="K267" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L267" t="n">
-        <v>44598284799</v>
+        <v>-1</v>
       </c>
       <c r="M267" t="n">
         <v>0</v>
@@ -12562,16 +12562,16 @@
         <v>4291527800</v>
       </c>
       <c r="K268" t="n">
-        <v>44598284799</v>
+        <v>4291527799</v>
       </c>
       <c r="L268" t="n">
-        <v>34503269115</v>
+        <v>2907163992</v>
       </c>
       <c r="M268" t="n">
-        <v>14386543483</v>
+        <v>1384363806</v>
       </c>
       <c r="N268" t="n">
-        <v>25613456516</v>
+        <v>38615636193</v>
       </c>
     </row>
     <row r="269">
@@ -12608,16 +12608,16 @@
         <v>4291527800</v>
       </c>
       <c r="K269" t="n">
-        <v>44598284799</v>
+        <v>4291527799</v>
       </c>
       <c r="L269" t="n">
-        <v>22609935496</v>
+        <v>1349754710</v>
       </c>
       <c r="M269" t="n">
-        <v>16184861418</v>
+        <v>1557409281</v>
       </c>
       <c r="N269" t="n">
-        <v>28815138581</v>
+        <v>43442590718</v>
       </c>
     </row>
     <row r="270">
@@ -12654,16 +12654,16 @@
         <v>4291527800</v>
       </c>
       <c r="K270" t="n">
-        <v>44598284799</v>
+        <v>4291527799</v>
       </c>
       <c r="L270" t="n">
-        <v>12874583399</v>
+        <v>0</v>
       </c>
       <c r="M270" t="n">
-        <v>14026879896</v>
+        <v>1349754710</v>
       </c>
       <c r="N270" t="n">
-        <v>24973120103</v>
+        <v>37650245289</v>
       </c>
     </row>
     <row r="271">
@@ -12701,7 +12701,7 @@
         <v>0</v>
       </c>
       <c r="L271" t="n">
-        <v>12874583399</v>
+        <v>0</v>
       </c>
       <c r="M271" t="n">
         <v>0</v>
@@ -12744,16 +12744,16 @@
         <v>1313000000</v>
       </c>
       <c r="K272" t="n">
-        <v>12874583399</v>
+        <v>1313000000</v>
       </c>
       <c r="L272" t="n">
-        <v>13187615756</v>
+        <v>1211019417</v>
       </c>
       <c r="M272" t="n">
-        <v>999967642</v>
+        <v>101980582</v>
       </c>
       <c r="N272" t="n">
-        <v>7000032357</v>
+        <v>7898019417</v>
       </c>
     </row>
     <row r="273">
@@ -12790,16 +12790,16 @@
         <v>1313000000</v>
       </c>
       <c r="K273" t="n">
-        <v>12874583399</v>
+        <v>1313000000</v>
       </c>
       <c r="L273" t="n">
-        <v>8250817989</v>
+        <v>573640776</v>
       </c>
       <c r="M273" t="n">
-        <v>6249797766</v>
+        <v>637378640</v>
       </c>
       <c r="N273" t="n">
-        <v>43750202233</v>
+        <v>49362621359</v>
       </c>
     </row>
     <row r="274">
@@ -12836,16 +12836,16 @@
         <v>1313000000</v>
       </c>
       <c r="K274" t="n">
-        <v>12874583399</v>
+        <v>1313000000</v>
       </c>
       <c r="L274" t="n">
-        <v>3938999999</v>
+        <v>0</v>
       </c>
       <c r="M274" t="n">
-        <v>5624817989</v>
+        <v>573640776</v>
       </c>
       <c r="N274" t="n">
-        <v>39375182010</v>
+        <v>44426359223</v>
       </c>
     </row>
     <row r="275">
@@ -12883,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="L275" t="n">
-        <v>3938999999</v>
+        <v>0</v>
       </c>
       <c r="M275" t="n">
         <v>0</v>
@@ -12927,7 +12927,7 @@
         <v>0</v>
       </c>
       <c r="L276" t="n">
-        <v>3938999999</v>
+        <v>0</v>
       </c>
       <c r="M276" t="n">
         <v>0</v>
@@ -12971,7 +12971,7 @@
         <v>0</v>
       </c>
       <c r="L277" t="n">
-        <v>3938999999</v>
+        <v>0</v>
       </c>
       <c r="M277" t="n">
         <v>0</v>
@@ -13014,16 +13014,16 @@
         <v>0</v>
       </c>
       <c r="K278" t="n">
-        <v>3938999999</v>
+        <v>0</v>
       </c>
       <c r="L278" t="n">
-        <v>1828821428</v>
+        <v>0</v>
       </c>
       <c r="M278" t="n">
-        <v>2110178570</v>
+        <v>0</v>
       </c>
       <c r="N278" t="n">
-        <v>42889821429</v>
+        <v>45000000000</v>
       </c>
     </row>
     <row r="279">
@@ -13060,16 +13060,16 @@
         <v>0</v>
       </c>
       <c r="K279" t="n">
-        <v>3938999999</v>
+        <v>0</v>
       </c>
       <c r="L279" t="n">
         <v>0</v>
       </c>
       <c r="M279" t="n">
-        <v>1828821428</v>
+        <v>0</v>
       </c>
       <c r="N279" t="n">
-        <v>37171178571</v>
+        <v>39000000000</v>
       </c>
     </row>
     <row r="280">
@@ -13106,16 +13106,16 @@
         <v>4473000600</v>
       </c>
       <c r="K280" t="n">
-        <v>0</v>
+        <v>4473000600</v>
       </c>
       <c r="L280" t="n">
-        <v>4473000600</v>
+        <v>1762091145</v>
       </c>
       <c r="M280" t="n">
-        <v>0</v>
+        <v>2710909454</v>
       </c>
       <c r="N280" t="n">
-        <v>40000000000</v>
+        <v>37289090545</v>
       </c>
     </row>
     <row r="281">
@@ -13152,16 +13152,16 @@
         <v>4473000600</v>
       </c>
       <c r="K281" t="n">
-        <v>0</v>
+        <v>4473000600</v>
       </c>
       <c r="L281" t="n">
-        <v>8946001200</v>
+        <v>0</v>
       </c>
       <c r="M281" t="n">
-        <v>0</v>
+        <v>1762091145</v>
       </c>
       <c r="N281" t="n">
-        <v>26000000000</v>
+        <v>24237908854</v>
       </c>
     </row>
     <row r="282">
@@ -13198,16 +13198,16 @@
         <v>0</v>
       </c>
       <c r="K282" t="n">
-        <v>8946001200</v>
+        <v>0</v>
       </c>
       <c r="L282" t="n">
-        <v>2729288501</v>
+        <v>0</v>
       </c>
       <c r="M282" t="n">
-        <v>6216712698</v>
+        <v>0</v>
       </c>
       <c r="N282" t="n">
-        <v>34783287301</v>
+        <v>41000000000</v>
       </c>
     </row>
     <row r="283">
@@ -13244,16 +13244,16 @@
         <v>0</v>
       </c>
       <c r="K283" t="n">
-        <v>8946001200</v>
+        <v>0</v>
       </c>
       <c r="L283" t="n">
         <v>0</v>
       </c>
       <c r="M283" t="n">
-        <v>2729288501</v>
+        <v>0</v>
       </c>
       <c r="N283" t="n">
-        <v>15270711498</v>
+        <v>18000000000</v>
       </c>
     </row>
     <row r="284">
@@ -13287,19 +13287,19 @@
         <v>20030300</v>
       </c>
       <c r="J284" t="n">
-        <v>2333678600</v>
+        <v>19411936600</v>
       </c>
       <c r="K284" t="n">
-        <v>0</v>
+        <v>19411936600</v>
       </c>
       <c r="L284" t="n">
-        <v>2333678600</v>
+        <v>11769441875</v>
       </c>
       <c r="M284" t="n">
-        <v>0</v>
+        <v>7642494724</v>
       </c>
       <c r="N284" t="n">
-        <v>50000000000</v>
+        <v>42357505275</v>
       </c>
     </row>
     <row r="285">
@@ -13336,16 +13336,16 @@
         <v>2333678600</v>
       </c>
       <c r="K285" t="n">
-        <v>0</v>
+        <v>19411936600</v>
       </c>
       <c r="L285" t="n">
-        <v>4667357200</v>
+        <v>4891196623</v>
       </c>
       <c r="M285" t="n">
-        <v>0</v>
+        <v>6878245251</v>
       </c>
       <c r="N285" t="n">
-        <v>45000000000</v>
+        <v>38121754748</v>
       </c>
     </row>
     <row r="286">
@@ -13382,16 +13382,16 @@
         <v>2333678600</v>
       </c>
       <c r="K286" t="n">
-        <v>0</v>
+        <v>19411936600</v>
       </c>
       <c r="L286" t="n">
-        <v>7001035800</v>
+        <v>0</v>
       </c>
       <c r="M286" t="n">
-        <v>0</v>
+        <v>4891196623</v>
       </c>
       <c r="N286" t="n">
-        <v>32000000000</v>
+        <v>27108803376</v>
       </c>
     </row>
     <row r="287">
@@ -13423,13 +13423,13 @@
         <v>0</v>
       </c>
       <c r="J287" t="n">
-        <v>17078258000</v>
+        <v>0</v>
       </c>
       <c r="K287" t="n">
         <v>0</v>
       </c>
       <c r="L287" t="n">
-        <v>24079293800</v>
+        <v>0</v>
       </c>
       <c r="M287" t="n">
         <v>0</v>
@@ -13473,7 +13473,7 @@
         <v>0</v>
       </c>
       <c r="L288" t="n">
-        <v>24079293800</v>
+        <v>0</v>
       </c>
       <c r="M288" t="n">
         <v>0</v>
@@ -13517,7 +13517,7 @@
         <v>0</v>
       </c>
       <c r="L289" t="n">
-        <v>24079293800</v>
+        <v>0</v>
       </c>
       <c r="M289" t="n">
         <v>0</v>
@@ -13560,16 +13560,16 @@
         <v>0</v>
       </c>
       <c r="K290" t="n">
-        <v>24079293800</v>
+        <v>0</v>
       </c>
       <c r="L290" t="n">
-        <v>11179672121</v>
+        <v>0</v>
       </c>
       <c r="M290" t="n">
-        <v>12899621678</v>
+        <v>0</v>
       </c>
       <c r="N290" t="n">
-        <v>32100378321</v>
+        <v>45000000000</v>
       </c>
     </row>
     <row r="291">
@@ -13606,16 +13606,16 @@
         <v>0</v>
       </c>
       <c r="K291" t="n">
-        <v>24079293800</v>
+        <v>0</v>
       </c>
       <c r="L291" t="n">
         <v>0</v>
       </c>
       <c r="M291" t="n">
-        <v>11179672121</v>
+        <v>0</v>
       </c>
       <c r="N291" t="n">
-        <v>27820327878</v>
+        <v>39000000000</v>
       </c>
     </row>
     <row r="292">
@@ -13650,7 +13650,7 @@
         <v>1027683000</v>
       </c>
       <c r="K292" t="n">
-        <v>0</v>
+        <v>1027683000</v>
       </c>
       <c r="L292" t="n">
         <v>1027683000</v>
@@ -13694,7 +13694,7 @@
         <v>0</v>
       </c>
       <c r="K293" t="n">
-        <v>0</v>
+        <v>1027683000</v>
       </c>
       <c r="L293" t="n">
         <v>1027683000</v>
@@ -13740,16 +13740,16 @@
         <v>5012000000</v>
       </c>
       <c r="K294" t="n">
-        <v>1027683000</v>
+        <v>6039683000</v>
       </c>
       <c r="L294" t="n">
-        <v>5498797210</v>
+        <v>2860902473</v>
       </c>
       <c r="M294" t="n">
-        <v>540885789</v>
+        <v>3178780526</v>
       </c>
       <c r="N294" t="n">
-        <v>49459114210</v>
+        <v>46821219473</v>
       </c>
     </row>
     <row r="295">
@@ -13786,16 +13786,16 @@
         <v>5012000000</v>
       </c>
       <c r="K295" t="n">
-        <v>1027683000</v>
+        <v>6039683000</v>
       </c>
       <c r="L295" t="n">
-        <v>10023999999</v>
+        <v>0</v>
       </c>
       <c r="M295" t="n">
-        <v>486797210</v>
+        <v>2860902473</v>
       </c>
       <c r="N295" t="n">
-        <v>44513202789</v>
+        <v>42139097526</v>
       </c>
     </row>
     <row r="296">
@@ -13833,7 +13833,7 @@
         <v>0</v>
       </c>
       <c r="L296" t="n">
-        <v>10023999999</v>
+        <v>0</v>
       </c>
       <c r="M296" t="n">
         <v>0</v>
@@ -13877,7 +13877,7 @@
         <v>0</v>
       </c>
       <c r="L297" t="n">
-        <v>10023999999</v>
+        <v>0</v>
       </c>
       <c r="M297" t="n">
         <v>0</v>
@@ -13921,7 +13921,7 @@
         <v>0</v>
       </c>
       <c r="L298" t="n">
-        <v>10023999999</v>
+        <v>0</v>
       </c>
       <c r="M298" t="n">
         <v>0</v>
@@ -13964,16 +13964,16 @@
         <v>0</v>
       </c>
       <c r="K299" t="n">
-        <v>10023999999</v>
+        <v>0</v>
       </c>
       <c r="L299" t="n">
-        <v>4626461538</v>
+        <v>0</v>
       </c>
       <c r="M299" t="n">
-        <v>5397538461</v>
+        <v>0</v>
       </c>
       <c r="N299" t="n">
-        <v>36602461539</v>
+        <v>42000000000</v>
       </c>
     </row>
     <row r="300">
@@ -14010,16 +14010,16 @@
         <v>0</v>
       </c>
       <c r="K300" t="n">
-        <v>10023999999</v>
+        <v>0</v>
       </c>
       <c r="L300" t="n">
         <v>0</v>
       </c>
       <c r="M300" t="n">
-        <v>4626461538</v>
+        <v>0</v>
       </c>
       <c r="N300" t="n">
-        <v>31373538462</v>
+        <v>36000000000</v>
       </c>
     </row>
     <row r="301">
@@ -14056,16 +14056,16 @@
         <v>6014694800</v>
       </c>
       <c r="K301" t="n">
-        <v>0</v>
+        <v>6014694800</v>
       </c>
       <c r="L301" t="n">
-        <v>6014694800</v>
+        <v>1804408440</v>
       </c>
       <c r="M301" t="n">
-        <v>0</v>
+        <v>4210286359</v>
       </c>
       <c r="N301" t="n">
-        <v>38000000000</v>
+        <v>33789713640</v>
       </c>
     </row>
     <row r="302">
@@ -14102,16 +14102,16 @@
         <v>0</v>
       </c>
       <c r="K302" t="n">
-        <v>6014694800</v>
+        <v>1804408440</v>
       </c>
       <c r="L302" t="n">
-        <v>1804408440</v>
+        <v>541322532</v>
       </c>
       <c r="M302" t="n">
-        <v>4210286359</v>
+        <v>1263085908</v>
       </c>
       <c r="N302" t="n">
-        <v>19789713640</v>
+        <v>22736914092</v>
       </c>
     </row>
     <row r="303">
@@ -14145,19 +14145,19 @@
         <v>20031700</v>
       </c>
       <c r="J303" t="n">
-        <v>3346000000</v>
+        <v>3421000000</v>
       </c>
       <c r="K303" t="n">
-        <v>1804408440</v>
+        <v>3962322532</v>
       </c>
       <c r="L303" t="n">
-        <v>4299272383</v>
+        <v>2093302469</v>
       </c>
       <c r="M303" t="n">
-        <v>851136056</v>
+        <v>1869020062</v>
       </c>
       <c r="N303" t="n">
-        <v>49148863943</v>
+        <v>48130979937</v>
       </c>
     </row>
     <row r="304">
@@ -14194,16 +14194,16 @@
         <v>3346000000</v>
       </c>
       <c r="K304" t="n">
-        <v>1804408440</v>
+        <v>3962322532</v>
       </c>
       <c r="L304" t="n">
-        <v>6964363537</v>
+        <v>598086419</v>
       </c>
       <c r="M304" t="n">
-        <v>680908845</v>
+        <v>1495216049</v>
       </c>
       <c r="N304" t="n">
-        <v>39319091154</v>
+        <v>38504783950</v>
       </c>
     </row>
     <row r="305">
@@ -14240,16 +14240,16 @@
         <v>3346000000</v>
       </c>
       <c r="K305" t="n">
-        <v>1804408440</v>
+        <v>3962322532</v>
       </c>
       <c r="L305" t="n">
-        <v>10037999998</v>
+        <v>0</v>
       </c>
       <c r="M305" t="n">
-        <v>272363538</v>
+        <v>598086419</v>
       </c>
       <c r="N305" t="n">
-        <v>15727636461</v>
+        <v>15401913580</v>
       </c>
     </row>
     <row r="306">
@@ -14281,13 +14281,13 @@
         <v>0</v>
       </c>
       <c r="J306" t="n">
-        <v>75000000</v>
+        <v>0</v>
       </c>
       <c r="K306" t="n">
         <v>0</v>
       </c>
       <c r="L306" t="n">
-        <v>10112999998</v>
+        <v>0</v>
       </c>
       <c r="M306" t="n">
         <v>0</v>
@@ -14331,7 +14331,7 @@
         <v>0</v>
       </c>
       <c r="L307" t="n">
-        <v>10112999998</v>
+        <v>0</v>
       </c>
       <c r="M307" t="n">
         <v>0</v>
@@ -14375,7 +14375,7 @@
         <v>0</v>
       </c>
       <c r="L308" t="n">
-        <v>10112999998</v>
+        <v>0</v>
       </c>
       <c r="M308" t="n">
         <v>0</v>
@@ -14418,16 +14418,16 @@
         <v>0</v>
       </c>
       <c r="K309" t="n">
-        <v>10112999998</v>
+        <v>0</v>
       </c>
       <c r="L309" t="n">
-        <v>4667538460</v>
+        <v>0</v>
       </c>
       <c r="M309" t="n">
-        <v>5445461537</v>
+        <v>0</v>
       </c>
       <c r="N309" t="n">
-        <v>36554538462</v>
+        <v>42000000000</v>
       </c>
     </row>
     <row r="310">
@@ -14464,16 +14464,16 @@
         <v>0</v>
       </c>
       <c r="K310" t="n">
-        <v>10112999998</v>
+        <v>0</v>
       </c>
       <c r="L310" t="n">
         <v>0</v>
       </c>
       <c r="M310" t="n">
-        <v>4667538460</v>
+        <v>0</v>
       </c>
       <c r="N310" t="n">
-        <v>31332461539</v>
+        <v>36000000000</v>
       </c>
     </row>
     <row r="311">
@@ -14508,7 +14508,7 @@
         <v>5559171100</v>
       </c>
       <c r="K311" t="n">
-        <v>0</v>
+        <v>5559171100</v>
       </c>
       <c r="L311" t="n">
         <v>5559171100</v>
@@ -14552,7 +14552,7 @@
         <v>0</v>
       </c>
       <c r="K312" t="n">
-        <v>0</v>
+        <v>5559171100</v>
       </c>
       <c r="L312" t="n">
         <v>5559171100</v>
@@ -14598,16 +14598,16 @@
         <v>2672384700</v>
       </c>
       <c r="K313" t="n">
-        <v>5559171100</v>
+        <v>8231555800</v>
       </c>
       <c r="L313" t="n">
-        <v>7684752085</v>
+        <v>7421894573</v>
       </c>
       <c r="M313" t="n">
-        <v>546803714</v>
+        <v>809661226</v>
       </c>
       <c r="N313" t="n">
-        <v>11453196285</v>
+        <v>11190338773</v>
       </c>
     </row>
     <row r="314">
@@ -14644,16 +14644,16 @@
         <v>2672384700</v>
       </c>
       <c r="K314" t="n">
-        <v>5559171100</v>
+        <v>8231555800</v>
       </c>
       <c r="L314" t="n">
-        <v>8078787973</v>
+        <v>4048306130</v>
       </c>
       <c r="M314" t="n">
-        <v>2278348811</v>
+        <v>3373588442</v>
       </c>
       <c r="N314" t="n">
-        <v>47721651188</v>
+        <v>46626411557</v>
       </c>
     </row>
     <row r="315">
@@ -14690,16 +14690,16 @@
         <v>2672384700</v>
       </c>
       <c r="K315" t="n">
-        <v>5559171100</v>
+        <v>8231555800</v>
       </c>
       <c r="L315" t="n">
-        <v>8928493623</v>
+        <v>1349435375</v>
       </c>
       <c r="M315" t="n">
-        <v>1822679049</v>
+        <v>2698870754</v>
       </c>
       <c r="N315" t="n">
-        <v>38177320950</v>
+        <v>37301129245</v>
       </c>
     </row>
     <row r="316">
@@ -14736,16 +14736,16 @@
         <v>2672384700</v>
       </c>
       <c r="K316" t="n">
-        <v>5559171100</v>
+        <v>8231555800</v>
       </c>
       <c r="L316" t="n">
-        <v>10689538798</v>
+        <v>-2</v>
       </c>
       <c r="M316" t="n">
-        <v>911339524</v>
+        <v>1349435377</v>
       </c>
       <c r="N316" t="n">
-        <v>19088660475</v>
+        <v>18650564622</v>
       </c>
     </row>
     <row r="317">
@@ -14780,10 +14780,10 @@
         <v>0</v>
       </c>
       <c r="K317" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L317" t="n">
-        <v>10689538798</v>
+        <v>-2</v>
       </c>
       <c r="M317" t="n">
         <v>0</v>
@@ -14824,10 +14824,10 @@
         <v>0</v>
       </c>
       <c r="K318" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L318" t="n">
-        <v>10689538798</v>
+        <v>-2</v>
       </c>
       <c r="M318" t="n">
         <v>0</v>
@@ -14868,10 +14868,10 @@
         <v>0</v>
       </c>
       <c r="K319" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L319" t="n">
-        <v>10689538798</v>
+        <v>-2</v>
       </c>
       <c r="M319" t="n">
         <v>0</v>
@@ -14914,16 +14914,16 @@
         <v>0</v>
       </c>
       <c r="K320" t="n">
-        <v>10689538798</v>
+        <v>-2</v>
       </c>
       <c r="L320" t="n">
-        <v>4963000156</v>
+        <v>0</v>
       </c>
       <c r="M320" t="n">
-        <v>5726538641</v>
+        <v>-1</v>
       </c>
       <c r="N320" t="n">
-        <v>39273461358</v>
+        <v>45000000001</v>
       </c>
     </row>
     <row r="321">
@@ -14960,16 +14960,16 @@
         <v>0</v>
       </c>
       <c r="K321" t="n">
-        <v>10689538798</v>
+        <v>-2</v>
       </c>
       <c r="L321" t="n">
         <v>0</v>
       </c>
       <c r="M321" t="n">
-        <v>4963000156</v>
+        <v>0</v>
       </c>
       <c r="N321" t="n">
-        <v>34036999843</v>
+        <v>39000000000</v>
       </c>
     </row>
     <row r="322">
@@ -15006,16 +15006,16 @@
         <v>4883210300</v>
       </c>
       <c r="K322" t="n">
-        <v>0</v>
+        <v>4883210300</v>
       </c>
       <c r="L322" t="n">
-        <v>4883210300</v>
+        <v>1923688906</v>
       </c>
       <c r="M322" t="n">
-        <v>0</v>
+        <v>2959521393</v>
       </c>
       <c r="N322" t="n">
-        <v>40000000000</v>
+        <v>37040478606</v>
       </c>
     </row>
     <row r="323">
@@ -15052,16 +15052,16 @@
         <v>4883210300</v>
       </c>
       <c r="K323" t="n">
-        <v>0</v>
+        <v>4883210300</v>
       </c>
       <c r="L323" t="n">
-        <v>9766420600</v>
+        <v>0</v>
       </c>
       <c r="M323" t="n">
-        <v>0</v>
+        <v>1923688906</v>
       </c>
       <c r="N323" t="n">
-        <v>26000000000</v>
+        <v>24076311093</v>
       </c>
     </row>
     <row r="324">
@@ -15098,16 +15098,16 @@
         <v>0</v>
       </c>
       <c r="K324" t="n">
-        <v>9766420600</v>
+        <v>0</v>
       </c>
       <c r="L324" t="n">
-        <v>2979585945</v>
+        <v>0</v>
       </c>
       <c r="M324" t="n">
-        <v>6786834654</v>
+        <v>0</v>
       </c>
       <c r="N324" t="n">
-        <v>34213165345</v>
+        <v>41000000000</v>
       </c>
     </row>
     <row r="325">
@@ -15144,16 +15144,16 @@
         <v>0</v>
       </c>
       <c r="K325" t="n">
-        <v>9766420600</v>
+        <v>0</v>
       </c>
       <c r="L325" t="n">
         <v>0</v>
       </c>
       <c r="M325" t="n">
-        <v>2979585945</v>
+        <v>0</v>
       </c>
       <c r="N325" t="n">
-        <v>15020414054</v>
+        <v>18000000000</v>
       </c>
     </row>
     <row r="326">
@@ -15190,16 +15190,16 @@
         <v>4891384700</v>
       </c>
       <c r="K326" t="n">
-        <v>0</v>
+        <v>4891384700</v>
       </c>
       <c r="L326" t="n">
-        <v>4891384700</v>
+        <v>2824602432</v>
       </c>
       <c r="M326" t="n">
-        <v>0</v>
+        <v>2066782267</v>
       </c>
       <c r="N326" t="n">
-        <v>60000000000</v>
+        <v>57933217732</v>
       </c>
     </row>
     <row r="327">
@@ -15236,16 +15236,16 @@
         <v>4891384700</v>
       </c>
       <c r="K327" t="n">
-        <v>0</v>
+        <v>4891384700</v>
       </c>
       <c r="L327" t="n">
-        <v>9782769400</v>
+        <v>1102283875</v>
       </c>
       <c r="M327" t="n">
-        <v>0</v>
+        <v>1722318556</v>
       </c>
       <c r="N327" t="n">
-        <v>50000000000</v>
+        <v>48277681443</v>
       </c>
     </row>
     <row r="328">
@@ -15282,16 +15282,16 @@
         <v>4891384700</v>
       </c>
       <c r="K328" t="n">
-        <v>0</v>
+        <v>4891384700</v>
       </c>
       <c r="L328" t="n">
-        <v>14674154100</v>
+        <v>-1</v>
       </c>
       <c r="M328" t="n">
-        <v>0</v>
+        <v>1102283876</v>
       </c>
       <c r="N328" t="n">
-        <v>32000000000</v>
+        <v>30897716123</v>
       </c>
     </row>
     <row r="329">
@@ -15326,10 +15326,10 @@
         <v>0</v>
       </c>
       <c r="K329" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L329" t="n">
-        <v>14674154100</v>
+        <v>-1</v>
       </c>
       <c r="M329" t="n">
         <v>0</v>
@@ -15370,10 +15370,10 @@
         <v>0</v>
       </c>
       <c r="K330" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L330" t="n">
-        <v>14674154100</v>
+        <v>-1</v>
       </c>
       <c r="M330" t="n">
         <v>0</v>
@@ -15414,10 +15414,10 @@
         <v>0</v>
       </c>
       <c r="K331" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L331" t="n">
-        <v>14674154100</v>
+        <v>-1</v>
       </c>
       <c r="M331" t="n">
         <v>0</v>
@@ -15460,16 +15460,16 @@
         <v>0</v>
       </c>
       <c r="K332" t="n">
-        <v>14674154100</v>
+        <v>-1</v>
       </c>
       <c r="L332" t="n">
-        <v>9782769400</v>
+        <v>0</v>
       </c>
       <c r="M332" t="n">
-        <v>4891384700</v>
+        <v>0</v>
       </c>
       <c r="N332" t="n">
-        <v>46108615300</v>
+        <v>51000000000</v>
       </c>
     </row>
     <row r="333">
@@ -15506,16 +15506,16 @@
         <v>0</v>
       </c>
       <c r="K333" t="n">
-        <v>14674154100</v>
+        <v>-1</v>
       </c>
       <c r="L333" t="n">
-        <v>5754570235</v>
+        <v>0</v>
       </c>
       <c r="M333" t="n">
-        <v>4028199164</v>
+        <v>0</v>
       </c>
       <c r="N333" t="n">
-        <v>37971800835</v>
+        <v>42000000000</v>
       </c>
     </row>
     <row r="334">
@@ -15552,16 +15552,16 @@
         <v>0</v>
       </c>
       <c r="K334" t="n">
-        <v>14674154100</v>
+        <v>-1</v>
       </c>
       <c r="L334" t="n">
         <v>0</v>
       </c>
       <c r="M334" t="n">
-        <v>5754570235</v>
+        <v>0</v>
       </c>
       <c r="N334" t="n">
-        <v>54245429764</v>
+        <v>60000000000</v>
       </c>
     </row>
     <row r="335">
@@ -15598,16 +15598,16 @@
         <v>19400916400</v>
       </c>
       <c r="K335" t="n">
-        <v>0</v>
+        <v>19400916400</v>
       </c>
       <c r="L335" t="n">
-        <v>19400916400</v>
+        <v>8314678457</v>
       </c>
       <c r="M335" t="n">
-        <v>0</v>
+        <v>11086237942</v>
       </c>
       <c r="N335" t="n">
-        <v>60000000000</v>
+        <v>48913762057</v>
       </c>
     </row>
     <row r="336">
@@ -15644,16 +15644,16 @@
         <v>19400916400</v>
       </c>
       <c r="K336" t="n">
-        <v>0</v>
+        <v>19400916400</v>
       </c>
       <c r="L336" t="n">
-        <v>38801832800</v>
+        <v>0</v>
       </c>
       <c r="M336" t="n">
-        <v>0</v>
+        <v>8314678457</v>
       </c>
       <c r="N336" t="n">
-        <v>45000000000</v>
+        <v>36685321542</v>
       </c>
     </row>
     <row r="337">
@@ -15690,16 +15690,16 @@
         <v>0</v>
       </c>
       <c r="K337" t="n">
-        <v>38801832800</v>
+        <v>0</v>
       </c>
       <c r="L337" t="n">
-        <v>18259686023</v>
+        <v>0</v>
       </c>
       <c r="M337" t="n">
-        <v>20542146776</v>
+        <v>0</v>
       </c>
       <c r="N337" t="n">
-        <v>24457853223</v>
+        <v>45000000000</v>
       </c>
     </row>
     <row r="338">
@@ -15736,16 +15736,16 @@
         <v>0</v>
       </c>
       <c r="K338" t="n">
-        <v>38801832800</v>
+        <v>0</v>
       </c>
       <c r="L338" t="n">
         <v>0</v>
       </c>
       <c r="M338" t="n">
-        <v>18259686023</v>
+        <v>0</v>
       </c>
       <c r="N338" t="n">
-        <v>21740313976</v>
+        <v>40000000000</v>
       </c>
     </row>
     <row r="339">
@@ -15782,16 +15782,16 @@
         <v>3958403900</v>
       </c>
       <c r="K339" t="n">
-        <v>0</v>
+        <v>3958403900</v>
       </c>
       <c r="L339" t="n">
-        <v>3958403900</v>
+        <v>2518984300</v>
       </c>
       <c r="M339" t="n">
-        <v>0</v>
+        <v>1439419599</v>
       </c>
       <c r="N339" t="n">
-        <v>80000000000</v>
+        <v>78560580400</v>
       </c>
     </row>
     <row r="340">
@@ -15828,16 +15828,16 @@
         <v>3958403900</v>
       </c>
       <c r="K340" t="n">
-        <v>0</v>
+        <v>3958403900</v>
       </c>
       <c r="L340" t="n">
-        <v>7916807800</v>
+        <v>1439419600</v>
       </c>
       <c r="M340" t="n">
-        <v>0</v>
+        <v>1079564700</v>
       </c>
       <c r="N340" t="n">
-        <v>60000000000</v>
+        <v>58920435300</v>
       </c>
     </row>
     <row r="341">
@@ -15874,16 +15874,16 @@
         <v>3958403900</v>
       </c>
       <c r="K341" t="n">
-        <v>0</v>
+        <v>3958403900</v>
       </c>
       <c r="L341" t="n">
-        <v>11875211700</v>
+        <v>719709800</v>
       </c>
       <c r="M341" t="n">
-        <v>0</v>
+        <v>719709799</v>
       </c>
       <c r="N341" t="n">
-        <v>40000000000</v>
+        <v>39280290200</v>
       </c>
     </row>
     <row r="342">
@@ -15920,16 +15920,16 @@
         <v>3958403900</v>
       </c>
       <c r="K342" t="n">
-        <v>0</v>
+        <v>3958403900</v>
       </c>
       <c r="L342" t="n">
-        <v>15833615600</v>
+        <v>0</v>
       </c>
       <c r="M342" t="n">
-        <v>0</v>
+        <v>719709799</v>
       </c>
       <c r="N342" t="n">
-        <v>40000000000</v>
+        <v>39280290200</v>
       </c>
     </row>
     <row r="343">
@@ -15967,7 +15967,7 @@
         <v>0</v>
       </c>
       <c r="L343" t="n">
-        <v>15833615600</v>
+        <v>0</v>
       </c>
       <c r="M343" t="n">
         <v>0</v>
@@ -16011,7 +16011,7 @@
         <v>0</v>
       </c>
       <c r="L344" t="n">
-        <v>15833615600</v>
+        <v>0</v>
       </c>
       <c r="M344" t="n">
         <v>0</v>
@@ -16055,7 +16055,7 @@
         <v>0</v>
       </c>
       <c r="L345" t="n">
-        <v>15833615600</v>
+        <v>0</v>
       </c>
       <c r="M345" t="n">
         <v>0</v>
@@ -16098,16 +16098,16 @@
         <v>0</v>
       </c>
       <c r="K346" t="n">
-        <v>15833615600</v>
+        <v>0</v>
       </c>
       <c r="L346" t="n">
-        <v>12650979298</v>
+        <v>0</v>
       </c>
       <c r="M346" t="n">
-        <v>3182636301</v>
+        <v>0</v>
       </c>
       <c r="N346" t="n">
-        <v>36817363698</v>
+        <v>40000000000</v>
       </c>
     </row>
     <row r="347">
@@ -16144,16 +16144,16 @@
         <v>0</v>
       </c>
       <c r="K347" t="n">
-        <v>15833615600</v>
+        <v>0</v>
       </c>
       <c r="L347" t="n">
-        <v>8354420290</v>
+        <v>0</v>
       </c>
       <c r="M347" t="n">
-        <v>4296559007</v>
+        <v>0</v>
       </c>
       <c r="N347" t="n">
-        <v>49703440992</v>
+        <v>54000000000</v>
       </c>
     </row>
     <row r="348">
@@ -16190,16 +16190,16 @@
         <v>0</v>
       </c>
       <c r="K348" t="n">
-        <v>15833615600</v>
+        <v>0</v>
       </c>
       <c r="L348" t="n">
-        <v>4773954450</v>
+        <v>0</v>
       </c>
       <c r="M348" t="n">
-        <v>3580465839</v>
+        <v>0</v>
       </c>
       <c r="N348" t="n">
-        <v>41419534160</v>
+        <v>45000000000</v>
       </c>
     </row>
     <row r="349">
@@ -16236,16 +16236,16 @@
         <v>0</v>
       </c>
       <c r="K349" t="n">
-        <v>15833615600</v>
+        <v>0</v>
       </c>
       <c r="L349" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M349" t="n">
-        <v>4773954452</v>
+        <v>0</v>
       </c>
       <c r="N349" t="n">
-        <v>55226045547</v>
+        <v>60000000000</v>
       </c>
     </row>
     <row r="350">
@@ -16282,16 +16282,16 @@
         <v>6814934100</v>
       </c>
       <c r="K350" t="n">
-        <v>-2</v>
+        <v>6814934100</v>
       </c>
       <c r="L350" t="n">
-        <v>6814934098</v>
+        <v>5266085440</v>
       </c>
       <c r="M350" t="n">
-        <v>0</v>
+        <v>1548848659</v>
       </c>
       <c r="N350" t="n">
-        <v>25000000000</v>
+        <v>23451151340</v>
       </c>
     </row>
     <row r="351">
@@ -16328,16 +16328,16 @@
         <v>6814934100</v>
       </c>
       <c r="K351" t="n">
-        <v>-2</v>
+        <v>6814934100</v>
       </c>
       <c r="L351" t="n">
-        <v>13629868198</v>
+        <v>2787927585</v>
       </c>
       <c r="M351" t="n">
-        <v>0</v>
+        <v>2478157854</v>
       </c>
       <c r="N351" t="n">
-        <v>40000000000</v>
+        <v>37521842145</v>
       </c>
     </row>
     <row r="352">
@@ -16374,16 +16374,16 @@
         <v>6814934100</v>
       </c>
       <c r="K352" t="n">
-        <v>-2</v>
+        <v>6814934100</v>
       </c>
       <c r="L352" t="n">
-        <v>20444802298</v>
+        <v>-1</v>
       </c>
       <c r="M352" t="n">
-        <v>0</v>
+        <v>2787927586</v>
       </c>
       <c r="N352" t="n">
-        <v>45000000000</v>
+        <v>42212072413</v>
       </c>
     </row>
     <row r="353">
@@ -16420,16 +16420,16 @@
         <v>0</v>
       </c>
       <c r="K353" t="n">
-        <v>20444802298</v>
+        <v>-1</v>
       </c>
       <c r="L353" t="n">
-        <v>17997185121</v>
+        <v>0</v>
       </c>
       <c r="M353" t="n">
-        <v>2447617176</v>
+        <v>0</v>
       </c>
       <c r="N353" t="n">
-        <v>14552382823</v>
+        <v>17000000000</v>
       </c>
     </row>
     <row r="354">
@@ -16466,16 +16466,16 @@
         <v>0</v>
       </c>
       <c r="K354" t="n">
-        <v>20444802298</v>
+        <v>-1</v>
       </c>
       <c r="L354" t="n">
-        <v>12238085882</v>
+        <v>0</v>
       </c>
       <c r="M354" t="n">
-        <v>5759099238</v>
+        <v>0</v>
       </c>
       <c r="N354" t="n">
-        <v>34240900761</v>
+        <v>40000000000</v>
       </c>
     </row>
     <row r="355">
@@ -16512,16 +16512,16 @@
         <v>0</v>
       </c>
       <c r="K355" t="n">
-        <v>20444802298</v>
+        <v>-1</v>
       </c>
       <c r="L355" t="n">
-        <v>5759099238</v>
+        <v>0</v>
       </c>
       <c r="M355" t="n">
-        <v>6478986643</v>
+        <v>0</v>
       </c>
       <c r="N355" t="n">
-        <v>38521013356</v>
+        <v>45000000000</v>
       </c>
     </row>
     <row r="356">
@@ -16558,16 +16558,16 @@
         <v>0</v>
       </c>
       <c r="K356" t="n">
-        <v>20444802298</v>
+        <v>-1</v>
       </c>
       <c r="L356" t="n">
         <v>0</v>
       </c>
       <c r="M356" t="n">
-        <v>5759099238</v>
+        <v>0</v>
       </c>
       <c r="N356" t="n">
-        <v>34240900761</v>
+        <v>40000000000</v>
       </c>
     </row>
     <row r="357">
@@ -16604,16 +16604,16 @@
         <v>8971077000</v>
       </c>
       <c r="K357" t="n">
-        <v>0</v>
+        <v>8971077000</v>
       </c>
       <c r="L357" t="n">
-        <v>8971077000</v>
+        <v>3924846187</v>
       </c>
       <c r="M357" t="n">
-        <v>0</v>
+        <v>5046230812</v>
       </c>
       <c r="N357" t="n">
-        <v>90000000000</v>
+        <v>84953769187</v>
       </c>
     </row>
     <row r="358">
@@ -16650,16 +16650,16 @@
         <v>8971077000</v>
       </c>
       <c r="K358" t="n">
-        <v>0</v>
+        <v>8971077000</v>
       </c>
       <c r="L358" t="n">
-        <v>17942154000</v>
+        <v>0</v>
       </c>
       <c r="M358" t="n">
-        <v>0</v>
+        <v>3924846187</v>
       </c>
       <c r="N358" t="n">
-        <v>70000000000</v>
+        <v>66075153812</v>
       </c>
     </row>
     <row r="359">
@@ -16697,7 +16697,7 @@
         <v>0</v>
       </c>
       <c r="L359" t="n">
-        <v>17942154000</v>
+        <v>0</v>
       </c>
       <c r="M359" t="n">
         <v>0</v>
@@ -16741,7 +16741,7 @@
         <v>0</v>
       </c>
       <c r="L360" t="n">
-        <v>17942154000</v>
+        <v>0</v>
       </c>
       <c r="M360" t="n">
         <v>0</v>
@@ -16785,7 +16785,7 @@
         <v>0</v>
       </c>
       <c r="L361" t="n">
-        <v>17942154000</v>
+        <v>0</v>
       </c>
       <c r="M361" t="n">
         <v>0</v>
@@ -16828,16 +16828,16 @@
         <v>0</v>
       </c>
       <c r="K362" t="n">
-        <v>17942154000</v>
+        <v>0</v>
       </c>
       <c r="L362" t="n">
-        <v>10637134157</v>
+        <v>0</v>
       </c>
       <c r="M362" t="n">
-        <v>7305019842</v>
+        <v>0</v>
       </c>
       <c r="N362" t="n">
-        <v>49694980157</v>
+        <v>57000000000</v>
       </c>
     </row>
     <row r="363">
@@ -16874,16 +16874,16 @@
         <v>0</v>
       </c>
       <c r="K363" t="n">
-        <v>17942154000</v>
+        <v>0</v>
       </c>
       <c r="L363" t="n">
-        <v>4485538499</v>
+        <v>0</v>
       </c>
       <c r="M363" t="n">
-        <v>6151595657</v>
+        <v>0</v>
       </c>
       <c r="N363" t="n">
-        <v>41848404342</v>
+        <v>48000000000</v>
       </c>
     </row>
     <row r="364">
@@ -16920,16 +16920,16 @@
         <v>0</v>
       </c>
       <c r="K364" t="n">
-        <v>17942154000</v>
+        <v>0</v>
       </c>
       <c r="L364" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M364" t="n">
-        <v>4485538500</v>
+        <v>0</v>
       </c>
       <c r="N364" t="n">
-        <v>30514461500</v>
+        <v>35000000000</v>
       </c>
     </row>
     <row r="365">
@@ -16966,16 +16966,16 @@
         <v>6986257300</v>
       </c>
       <c r="K365" t="n">
-        <v>-1</v>
+        <v>6986257300</v>
       </c>
       <c r="L365" t="n">
-        <v>6986257299</v>
+        <v>5045630272</v>
       </c>
       <c r="M365" t="n">
-        <v>0</v>
+        <v>1940627027</v>
       </c>
       <c r="N365" t="n">
-        <v>25000000000</v>
+        <v>23059372972</v>
       </c>
     </row>
     <row r="366">
@@ -17012,16 +17012,16 @@
         <v>6986257300</v>
       </c>
       <c r="K366" t="n">
-        <v>-1</v>
+        <v>6986257300</v>
       </c>
       <c r="L366" t="n">
-        <v>13972514599</v>
+        <v>155250162</v>
       </c>
       <c r="M366" t="n">
-        <v>0</v>
+        <v>4890380110</v>
       </c>
       <c r="N366" t="n">
-        <v>65000000000</v>
+        <v>60109619890</v>
       </c>
     </row>
     <row r="367">
@@ -17058,16 +17058,16 @@
         <v>0</v>
       </c>
       <c r="K367" t="n">
-        <v>13972514599</v>
+        <v>155250162</v>
       </c>
       <c r="L367" t="n">
-        <v>6986257299</v>
+        <v>77625081</v>
       </c>
       <c r="M367" t="n">
-        <v>6986257299</v>
+        <v>77625081</v>
       </c>
       <c r="N367" t="n">
-        <v>23013742700</v>
+        <v>29922374919</v>
       </c>
     </row>
     <row r="368">
@@ -17104,16 +17104,16 @@
         <v>0</v>
       </c>
       <c r="K368" t="n">
-        <v>13972514599</v>
+        <v>155250162</v>
       </c>
       <c r="L368" t="n">
         <v>0</v>
       </c>
       <c r="M368" t="n">
-        <v>6986257299</v>
+        <v>77625081</v>
       </c>
       <c r="N368" t="n">
-        <v>23013742700</v>
+        <v>29922374919</v>
       </c>
     </row>
     <row r="369">
@@ -17150,16 +17150,16 @@
         <v>9237307700</v>
       </c>
       <c r="K369" t="n">
-        <v>0</v>
+        <v>9237307700</v>
       </c>
       <c r="L369" t="n">
-        <v>9237307700</v>
+        <v>4041322118</v>
       </c>
       <c r="M369" t="n">
-        <v>0</v>
+        <v>5195985581</v>
       </c>
       <c r="N369" t="n">
-        <v>90000000000</v>
+        <v>84804014418</v>
       </c>
     </row>
     <row r="370">
@@ -17196,16 +17196,16 @@
         <v>9237307700</v>
       </c>
       <c r="K370" t="n">
-        <v>0</v>
+        <v>9237307700</v>
       </c>
       <c r="L370" t="n">
-        <v>18474615400</v>
+        <v>0</v>
       </c>
       <c r="M370" t="n">
-        <v>0</v>
+        <v>4041322118</v>
       </c>
       <c r="N370" t="n">
-        <v>70000000000</v>
+        <v>65958677881</v>
       </c>
     </row>
     <row r="371">
@@ -17243,7 +17243,7 @@
         <v>0</v>
       </c>
       <c r="L371" t="n">
-        <v>18474615400</v>
+        <v>0</v>
       </c>
       <c r="M371" t="n">
         <v>0</v>
@@ -17287,7 +17287,7 @@
         <v>0</v>
       </c>
       <c r="L372" t="n">
-        <v>18474615400</v>
+        <v>0</v>
       </c>
       <c r="M372" t="n">
         <v>0</v>
@@ -17331,7 +17331,7 @@
         <v>0</v>
       </c>
       <c r="L373" t="n">
-        <v>18474615400</v>
+        <v>0</v>
       </c>
       <c r="M373" t="n">
         <v>0</v>
@@ -17374,16 +17374,16 @@
         <v>0</v>
       </c>
       <c r="K374" t="n">
-        <v>18474615400</v>
+        <v>0</v>
       </c>
       <c r="L374" t="n">
-        <v>12280185530</v>
+        <v>0</v>
       </c>
       <c r="M374" t="n">
-        <v>6194429869</v>
+        <v>0</v>
       </c>
       <c r="N374" t="n">
-        <v>50805570130</v>
+        <v>57000000000</v>
       </c>
     </row>
     <row r="375">
@@ -17420,16 +17420,16 @@
         <v>0</v>
       </c>
       <c r="K375" t="n">
-        <v>18474615400</v>
+        <v>0</v>
       </c>
       <c r="L375" t="n">
-        <v>7063823534</v>
+        <v>0</v>
       </c>
       <c r="M375" t="n">
-        <v>5216361995</v>
+        <v>0</v>
       </c>
       <c r="N375" t="n">
-        <v>42783638004</v>
+        <v>48000000000</v>
       </c>
     </row>
     <row r="376">
@@ -17466,16 +17466,16 @@
         <v>0</v>
       </c>
       <c r="K376" t="n">
-        <v>18474615400</v>
+        <v>0</v>
       </c>
       <c r="L376" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M376" t="n">
-        <v>7063823535</v>
+        <v>0</v>
       </c>
       <c r="N376" t="n">
-        <v>57936176464</v>
+        <v>65000000000</v>
       </c>
     </row>
     <row r="377">
@@ -17512,16 +17512,16 @@
         <v>7612684400</v>
       </c>
       <c r="K377" t="n">
-        <v>-1</v>
+        <v>7612684400</v>
       </c>
       <c r="L377" t="n">
-        <v>7612684399</v>
+        <v>4021795532</v>
       </c>
       <c r="M377" t="n">
-        <v>0</v>
+        <v>3590888867</v>
       </c>
       <c r="N377" t="n">
-        <v>25000000000</v>
+        <v>21409111132</v>
       </c>
     </row>
     <row r="378">
@@ -17558,16 +17558,16 @@
         <v>7612684400</v>
       </c>
       <c r="K378" t="n">
-        <v>-1</v>
+        <v>7612684400</v>
       </c>
       <c r="L378" t="n">
-        <v>15225368799</v>
+        <v>0</v>
       </c>
       <c r="M378" t="n">
-        <v>0</v>
+        <v>4021795532</v>
       </c>
       <c r="N378" t="n">
-        <v>28000000000</v>
+        <v>23978204467</v>
       </c>
     </row>
     <row r="379">
@@ -17604,16 +17604,16 @@
         <v>0</v>
       </c>
       <c r="K379" t="n">
-        <v>15225368799</v>
+        <v>0</v>
       </c>
       <c r="L379" t="n">
-        <v>7612684399</v>
+        <v>0</v>
       </c>
       <c r="M379" t="n">
-        <v>7612684399</v>
+        <v>0</v>
       </c>
       <c r="N379" t="n">
-        <v>22387315600</v>
+        <v>30000000000</v>
       </c>
     </row>
     <row r="380">
@@ -17650,16 +17650,16 @@
         <v>0</v>
       </c>
       <c r="K380" t="n">
-        <v>15225368799</v>
+        <v>0</v>
       </c>
       <c r="L380" t="n">
         <v>0</v>
       </c>
       <c r="M380" t="n">
-        <v>7612684399</v>
+        <v>0</v>
       </c>
       <c r="N380" t="n">
-        <v>22387315600</v>
+        <v>30000000000</v>
       </c>
     </row>
     <row r="381">
@@ -17696,16 +17696,16 @@
         <v>14034692400</v>
       </c>
       <c r="K381" t="n">
-        <v>0</v>
+        <v>14034692400</v>
       </c>
       <c r="L381" t="n">
-        <v>14034692400</v>
+        <v>12686727593</v>
       </c>
       <c r="M381" t="n">
-        <v>0</v>
+        <v>1347964806</v>
       </c>
       <c r="N381" t="n">
-        <v>17000000000</v>
+        <v>15652035193</v>
       </c>
     </row>
     <row r="382">
@@ -17742,16 +17742,16 @@
         <v>14034692400</v>
       </c>
       <c r="K382" t="n">
-        <v>0</v>
+        <v>14034692400</v>
       </c>
       <c r="L382" t="n">
-        <v>28069384800</v>
+        <v>5550443321</v>
       </c>
       <c r="M382" t="n">
-        <v>0</v>
+        <v>7136284271</v>
       </c>
       <c r="N382" t="n">
-        <v>90000000000</v>
+        <v>82863715728</v>
       </c>
     </row>
     <row r="383">
@@ -17788,16 +17788,16 @@
         <v>14034692400</v>
       </c>
       <c r="K383" t="n">
-        <v>0</v>
+        <v>14034692400</v>
       </c>
       <c r="L383" t="n">
-        <v>42104077200</v>
+        <v>-1</v>
       </c>
       <c r="M383" t="n">
-        <v>0</v>
+        <v>5550443322</v>
       </c>
       <c r="N383" t="n">
-        <v>70000000000</v>
+        <v>64449556677</v>
       </c>
     </row>
     <row r="384">
@@ -17832,10 +17832,10 @@
         <v>0</v>
       </c>
       <c r="K384" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L384" t="n">
-        <v>42104077200</v>
+        <v>-1</v>
       </c>
       <c r="M384" t="n">
         <v>0</v>
@@ -17876,10 +17876,10 @@
         <v>0</v>
       </c>
       <c r="K385" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L385" t="n">
-        <v>42104077200</v>
+        <v>-1</v>
       </c>
       <c r="M385" t="n">
         <v>0</v>
@@ -17920,10 +17920,10 @@
         <v>0</v>
       </c>
       <c r="K386" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L386" t="n">
-        <v>42104077200</v>
+        <v>-1</v>
       </c>
       <c r="M386" t="n">
         <v>0</v>
@@ -17966,16 +17966,16 @@
         <v>0</v>
       </c>
       <c r="K387" t="n">
-        <v>42104077200</v>
+        <v>-1</v>
       </c>
       <c r="L387" t="n">
-        <v>29472854040</v>
+        <v>0</v>
       </c>
       <c r="M387" t="n">
-        <v>12631223160</v>
+        <v>0</v>
       </c>
       <c r="N387" t="n">
-        <v>44368776840</v>
+        <v>57000000000</v>
       </c>
     </row>
     <row r="388">
@@ -18012,16 +18012,16 @@
         <v>0</v>
       </c>
       <c r="K388" t="n">
-        <v>42104077200</v>
+        <v>-1</v>
       </c>
       <c r="L388" t="n">
-        <v>18836034536</v>
+        <v>0</v>
       </c>
       <c r="M388" t="n">
-        <v>10636819503</v>
+        <v>0</v>
       </c>
       <c r="N388" t="n">
-        <v>37363180496</v>
+        <v>48000000000</v>
       </c>
     </row>
     <row r="389">
@@ -18058,16 +18058,16 @@
         <v>0</v>
       </c>
       <c r="K389" t="n">
-        <v>42104077200</v>
+        <v>-1</v>
       </c>
       <c r="L389" t="n">
-        <v>9528817470</v>
+        <v>0</v>
       </c>
       <c r="M389" t="n">
-        <v>9307217065</v>
+        <v>0</v>
       </c>
       <c r="N389" t="n">
-        <v>32692782934</v>
+        <v>42000000000</v>
       </c>
     </row>
     <row r="390">
@@ -18104,16 +18104,16 @@
         <v>0</v>
       </c>
       <c r="K390" t="n">
-        <v>42104077200</v>
+        <v>-1</v>
       </c>
       <c r="L390" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M390" t="n">
-        <v>9528817471</v>
+        <v>0</v>
       </c>
       <c r="N390" t="n">
-        <v>33471182528</v>
+        <v>43000000000</v>
       </c>
     </row>
     <row r="391">
@@ -18150,16 +18150,16 @@
         <v>6881362400</v>
       </c>
       <c r="K391" t="n">
-        <v>-1</v>
+        <v>6881362400</v>
       </c>
       <c r="L391" t="n">
-        <v>6881362399</v>
+        <v>5529666214</v>
       </c>
       <c r="M391" t="n">
-        <v>0</v>
+        <v>1351696185</v>
       </c>
       <c r="N391" t="n">
-        <v>22000000000</v>
+        <v>20648303814</v>
       </c>
     </row>
     <row r="392">
@@ -18196,16 +18196,16 @@
         <v>6881362400</v>
       </c>
       <c r="K392" t="n">
-        <v>-1</v>
+        <v>6881362400</v>
       </c>
       <c r="L392" t="n">
-        <v>13762724799</v>
+        <v>3379240464</v>
       </c>
       <c r="M392" t="n">
-        <v>0</v>
+        <v>2150425750</v>
       </c>
       <c r="N392" t="n">
-        <v>35000000000</v>
+        <v>32849574250</v>
       </c>
     </row>
     <row r="393">
@@ -18242,16 +18242,16 @@
         <v>6881362400</v>
       </c>
       <c r="K393" t="n">
-        <v>-1</v>
+        <v>6881362400</v>
       </c>
       <c r="L393" t="n">
-        <v>20644087199</v>
+        <v>0</v>
       </c>
       <c r="M393" t="n">
-        <v>0</v>
+        <v>3379240464</v>
       </c>
       <c r="N393" t="n">
-        <v>55000000000</v>
+        <v>51620759535</v>
       </c>
     </row>
     <row r="394">
@@ -18288,16 +18288,16 @@
         <v>0</v>
       </c>
       <c r="K394" t="n">
-        <v>20644087199</v>
+        <v>0</v>
       </c>
       <c r="L394" t="n">
-        <v>12902554499</v>
+        <v>0</v>
       </c>
       <c r="M394" t="n">
-        <v>7741532699</v>
+        <v>0</v>
       </c>
       <c r="N394" t="n">
-        <v>22258467300</v>
+        <v>30000000000</v>
       </c>
     </row>
     <row r="395">
@@ -18334,16 +18334,16 @@
         <v>0</v>
       </c>
       <c r="K395" t="n">
-        <v>20644087199</v>
+        <v>0</v>
       </c>
       <c r="L395" t="n">
-        <v>6451277249</v>
+        <v>0</v>
       </c>
       <c r="M395" t="n">
-        <v>6451277249</v>
+        <v>0</v>
       </c>
       <c r="N395" t="n">
-        <v>18548722750</v>
+        <v>25000000000</v>
       </c>
     </row>
     <row r="396">
@@ -18380,16 +18380,16 @@
         <v>0</v>
       </c>
       <c r="K396" t="n">
-        <v>20644087199</v>
+        <v>0</v>
       </c>
       <c r="L396" t="n">
         <v>0</v>
       </c>
       <c r="M396" t="n">
-        <v>6451277249</v>
+        <v>0</v>
       </c>
       <c r="N396" t="n">
-        <v>18548722750</v>
+        <v>25000000000</v>
       </c>
     </row>
     <row r="397">
@@ -18426,16 +18426,16 @@
         <v>20877507500</v>
       </c>
       <c r="K397" t="n">
-        <v>0</v>
+        <v>20877507500</v>
       </c>
       <c r="L397" t="n">
-        <v>20877507500</v>
+        <v>10988161842</v>
       </c>
       <c r="M397" t="n">
-        <v>0</v>
+        <v>9889345657</v>
       </c>
       <c r="N397" t="n">
-        <v>90000000000</v>
+        <v>80110654342</v>
       </c>
     </row>
     <row r="398">
@@ -18472,16 +18472,16 @@
         <v>20877507500</v>
       </c>
       <c r="K398" t="n">
-        <v>0</v>
+        <v>20877507500</v>
       </c>
       <c r="L398" t="n">
-        <v>41755015000</v>
+        <v>3296448552</v>
       </c>
       <c r="M398" t="n">
-        <v>0</v>
+        <v>7691713289</v>
       </c>
       <c r="N398" t="n">
-        <v>70000000000</v>
+        <v>62308286710</v>
       </c>
     </row>
     <row r="399">
@@ -18518,16 +18518,16 @@
         <v>20877507500</v>
       </c>
       <c r="K399" t="n">
-        <v>0</v>
+        <v>20877507500</v>
       </c>
       <c r="L399" t="n">
-        <v>62632522500</v>
+        <v>0</v>
       </c>
       <c r="M399" t="n">
-        <v>0</v>
+        <v>3296448552</v>
       </c>
       <c r="N399" t="n">
-        <v>30000000000</v>
+        <v>26703551447</v>
       </c>
     </row>
     <row r="400">
@@ -18565,7 +18565,7 @@
         <v>0</v>
       </c>
       <c r="L400" t="n">
-        <v>62632522500</v>
+        <v>0</v>
       </c>
       <c r="M400" t="n">
         <v>0</v>
@@ -18609,7 +18609,7 @@
         <v>0</v>
       </c>
       <c r="L401" t="n">
-        <v>62632522500</v>
+        <v>0</v>
       </c>
       <c r="M401" t="n">
         <v>0</v>
@@ -18653,7 +18653,7 @@
         <v>0</v>
       </c>
       <c r="L402" t="n">
-        <v>62632522500</v>
+        <v>0</v>
       </c>
       <c r="M402" t="n">
         <v>0</v>
@@ -18696,16 +18696,16 @@
         <v>0</v>
       </c>
       <c r="K403" t="n">
-        <v>62632522500</v>
+        <v>0</v>
       </c>
       <c r="L403" t="n">
-        <v>35980385265</v>
+        <v>0</v>
       </c>
       <c r="M403" t="n">
-        <v>26652137234</v>
+        <v>0</v>
       </c>
       <c r="N403" t="n">
-        <v>33347862765</v>
+        <v>60000000000</v>
       </c>
     </row>
     <row r="404">
@@ -18742,16 +18742,16 @@
         <v>0</v>
       </c>
       <c r="K404" t="n">
-        <v>62632522500</v>
+        <v>0</v>
       </c>
       <c r="L404" t="n">
-        <v>13326068616</v>
+        <v>0</v>
       </c>
       <c r="M404" t="n">
-        <v>22654316648</v>
+        <v>0</v>
       </c>
       <c r="N404" t="n">
-        <v>28345683351</v>
+        <v>51000000000</v>
       </c>
     </row>
     <row r="405">
@@ -18788,16 +18788,16 @@
         <v>0</v>
       </c>
       <c r="K405" t="n">
-        <v>62632522500</v>
+        <v>0</v>
       </c>
       <c r="L405" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M405" t="n">
-        <v>13326068617</v>
+        <v>0</v>
       </c>
       <c r="N405" t="n">
-        <v>16673931382</v>
+        <v>30000000000</v>
       </c>
     </row>
     <row r="406">
@@ -18834,16 +18834,16 @@
         <v>6743314000</v>
       </c>
       <c r="K406" t="n">
-        <v>-1</v>
+        <v>6743314000</v>
       </c>
       <c r="L406" t="n">
-        <v>6743313999</v>
+        <v>2129467578</v>
       </c>
       <c r="M406" t="n">
-        <v>0</v>
+        <v>4613846421</v>
       </c>
       <c r="N406" t="n">
-        <v>65000000000</v>
+        <v>60386153578</v>
       </c>
     </row>
     <row r="407">
@@ -18880,16 +18880,16 @@
         <v>6743314000</v>
       </c>
       <c r="K407" t="n">
-        <v>-1</v>
+        <v>6743314000</v>
       </c>
       <c r="L407" t="n">
-        <v>13486627999</v>
+        <v>0</v>
       </c>
       <c r="M407" t="n">
-        <v>0</v>
+        <v>2129467578</v>
       </c>
       <c r="N407" t="n">
-        <v>30000000000</v>
+        <v>27870532421</v>
       </c>
     </row>
     <row r="408">
@@ -18926,16 +18926,16 @@
         <v>0</v>
       </c>
       <c r="K408" t="n">
-        <v>13486627999</v>
+        <v>0</v>
       </c>
       <c r="L408" t="n">
-        <v>4045988399</v>
+        <v>0</v>
       </c>
       <c r="M408" t="n">
-        <v>9440639599</v>
+        <v>0</v>
       </c>
       <c r="N408" t="n">
-        <v>25559360400</v>
+        <v>35000000000</v>
       </c>
     </row>
     <row r="409">
@@ -18972,16 +18972,16 @@
         <v>10332571500</v>
       </c>
       <c r="K409" t="n">
-        <v>4045988399</v>
+        <v>10332571500</v>
       </c>
       <c r="L409" t="n">
-        <v>12580342832</v>
+        <v>5740317500</v>
       </c>
       <c r="M409" t="n">
-        <v>1798217066</v>
+        <v>4592254000</v>
       </c>
       <c r="N409" t="n">
-        <v>78201782933</v>
+        <v>75407746000</v>
       </c>
     </row>
     <row r="410">
@@ -19018,16 +19018,16 @@
         <v>10332571500</v>
       </c>
       <c r="K410" t="n">
-        <v>4045988399</v>
+        <v>10332571500</v>
       </c>
       <c r="L410" t="n">
-        <v>21339474399</v>
+        <v>1722095250</v>
       </c>
       <c r="M410" t="n">
-        <v>1573439932</v>
+        <v>4018222250</v>
       </c>
       <c r="N410" t="n">
-        <v>68426560067</v>
+        <v>65981777750</v>
       </c>
     </row>
     <row r="411">
@@ -19064,16 +19064,16 @@
         <v>10332571500</v>
       </c>
       <c r="K411" t="n">
-        <v>4045988399</v>
+        <v>10332571500</v>
       </c>
       <c r="L411" t="n">
-        <v>30997714499</v>
+        <v>0</v>
       </c>
       <c r="M411" t="n">
-        <v>674331399</v>
+        <v>1722095250</v>
       </c>
       <c r="N411" t="n">
-        <v>29325668600</v>
+        <v>28277904750</v>
       </c>
     </row>
     <row r="412">
@@ -19111,7 +19111,7 @@
         <v>0</v>
       </c>
       <c r="L412" t="n">
-        <v>30997714499</v>
+        <v>0</v>
       </c>
       <c r="M412" t="n">
         <v>0</v>
@@ -19155,7 +19155,7 @@
         <v>0</v>
       </c>
       <c r="L413" t="n">
-        <v>30997714499</v>
+        <v>0</v>
       </c>
       <c r="M413" t="n">
         <v>0</v>
@@ -19199,7 +19199,7 @@
         <v>0</v>
       </c>
       <c r="L414" t="n">
-        <v>30997714499</v>
+        <v>0</v>
       </c>
       <c r="M414" t="n">
         <v>0</v>
@@ -19242,16 +19242,16 @@
         <v>0</v>
       </c>
       <c r="K415" t="n">
-        <v>30997714499</v>
+        <v>0</v>
       </c>
       <c r="L415" t="n">
-        <v>22809638970</v>
+        <v>0</v>
       </c>
       <c r="M415" t="n">
-        <v>8188075528</v>
+        <v>0</v>
       </c>
       <c r="N415" t="n">
-        <v>33811924471</v>
+        <v>42000000000</v>
       </c>
     </row>
     <row r="416">
@@ -19288,16 +19288,16 @@
         <v>0</v>
       </c>
       <c r="K416" t="n">
-        <v>30997714499</v>
+        <v>0</v>
       </c>
       <c r="L416" t="n">
-        <v>10527525677</v>
+        <v>0</v>
       </c>
       <c r="M416" t="n">
-        <v>12282113292</v>
+        <v>0</v>
       </c>
       <c r="N416" t="n">
-        <v>50717886707</v>
+        <v>63000000000</v>
       </c>
     </row>
     <row r="417">
@@ -19334,16 +19334,16 @@
         <v>0</v>
       </c>
       <c r="K417" t="n">
-        <v>30997714499</v>
+        <v>0</v>
       </c>
       <c r="L417" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M417" t="n">
-        <v>10527525678</v>
+        <v>0</v>
       </c>
       <c r="N417" t="n">
-        <v>43472474321</v>
+        <v>54000000000</v>
       </c>
     </row>
     <row r="418">
@@ -19380,16 +19380,16 @@
         <v>6400512500</v>
       </c>
       <c r="K418" t="n">
-        <v>-1</v>
+        <v>6400512500</v>
       </c>
       <c r="L418" t="n">
-        <v>6400512499</v>
+        <v>4848873106</v>
       </c>
       <c r="M418" t="n">
-        <v>0</v>
+        <v>1551639393</v>
       </c>
       <c r="N418" t="n">
-        <v>32000000000</v>
+        <v>30448360606</v>
       </c>
     </row>
     <row r="419">
@@ -19426,16 +19426,16 @@
         <v>6400512500</v>
       </c>
       <c r="K419" t="n">
-        <v>-1</v>
+        <v>6400512500</v>
       </c>
       <c r="L419" t="n">
-        <v>12801024999</v>
+        <v>1697105587</v>
       </c>
       <c r="M419" t="n">
-        <v>0</v>
+        <v>3151767518</v>
       </c>
       <c r="N419" t="n">
-        <v>65000000000</v>
+        <v>61848232481</v>
       </c>
     </row>
     <row r="420">
@@ -19472,16 +19472,16 @@
         <v>6400512500</v>
       </c>
       <c r="K420" t="n">
-        <v>-1</v>
+        <v>6400512500</v>
       </c>
       <c r="L420" t="n">
-        <v>19201537499</v>
+        <v>0</v>
       </c>
       <c r="M420" t="n">
-        <v>0</v>
+        <v>1697105587</v>
       </c>
       <c r="N420" t="n">
-        <v>35000000000</v>
+        <v>33302894412</v>
       </c>
     </row>
     <row r="421">
@@ -19518,16 +19518,16 @@
         <v>0</v>
       </c>
       <c r="K421" t="n">
-        <v>19201537499</v>
+        <v>0</v>
       </c>
       <c r="L421" t="n">
-        <v>12273147679</v>
+        <v>0</v>
       </c>
       <c r="M421" t="n">
-        <v>6928389819</v>
+        <v>0</v>
       </c>
       <c r="N421" t="n">
-        <v>28071610180</v>
+        <v>35000000000</v>
       </c>
     </row>
     <row r="422">
@@ -19564,16 +19564,16 @@
         <v>0</v>
       </c>
       <c r="K422" t="n">
-        <v>19201537499</v>
+        <v>0</v>
       </c>
       <c r="L422" t="n">
-        <v>4354987885</v>
+        <v>0</v>
       </c>
       <c r="M422" t="n">
-        <v>7918159793</v>
+        <v>0</v>
       </c>
       <c r="N422" t="n">
-        <v>32081840206</v>
+        <v>40000000000</v>
       </c>
     </row>
     <row r="423">
@@ -19610,16 +19610,16 @@
         <v>0</v>
       </c>
       <c r="K423" t="n">
-        <v>19201537499</v>
+        <v>0</v>
       </c>
       <c r="L423" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M423" t="n">
-        <v>4354987886</v>
+        <v>0</v>
       </c>
       <c r="N423" t="n">
-        <v>17645012113</v>
+        <v>22000000000</v>
       </c>
     </row>
     <row r="424">
@@ -19656,16 +19656,16 @@
         <v>10940374400</v>
       </c>
       <c r="K424" t="n">
-        <v>-1</v>
+        <v>10940374400</v>
       </c>
       <c r="L424" t="n">
-        <v>10940374399</v>
+        <v>5105508053</v>
       </c>
       <c r="M424" t="n">
-        <v>0</v>
+        <v>5834866346</v>
       </c>
       <c r="N424" t="n">
-        <v>80000000000</v>
+        <v>74165133653</v>
       </c>
     </row>
     <row r="425">
@@ -19702,16 +19702,16 @@
         <v>10940374400</v>
       </c>
       <c r="K425" t="n">
-        <v>-1</v>
+        <v>10940374400</v>
       </c>
       <c r="L425" t="n">
-        <v>21880748799</v>
+        <v>0</v>
       </c>
       <c r="M425" t="n">
-        <v>0</v>
+        <v>5105508053</v>
       </c>
       <c r="N425" t="n">
-        <v>70000000000</v>
+        <v>64894491946</v>
       </c>
     </row>
     <row r="426">
@@ -19746,10 +19746,10 @@
         <v>50769482900</v>
       </c>
       <c r="K426" t="n">
-        <v>0</v>
+        <v>50769482900</v>
       </c>
       <c r="L426" t="n">
-        <v>72650231699</v>
+        <v>50769482900</v>
       </c>
       <c r="M426" t="n">
         <v>0</v>
@@ -19790,10 +19790,10 @@
         <v>0</v>
       </c>
       <c r="K427" t="n">
-        <v>0</v>
+        <v>50769482900</v>
       </c>
       <c r="L427" t="n">
-        <v>72650231699</v>
+        <v>50769482900</v>
       </c>
       <c r="M427" t="n">
         <v>0</v>
@@ -19834,10 +19834,10 @@
         <v>0</v>
       </c>
       <c r="K428" t="n">
-        <v>0</v>
+        <v>50769482900</v>
       </c>
       <c r="L428" t="n">
-        <v>72650231699</v>
+        <v>50769482900</v>
       </c>
       <c r="M428" t="n">
         <v>0</v>
@@ -19880,16 +19880,16 @@
         <v>0</v>
       </c>
       <c r="K429" t="n">
-        <v>72650231699</v>
+        <v>50769482900</v>
       </c>
       <c r="L429" t="n">
-        <v>33530876168</v>
+        <v>23432069030</v>
       </c>
       <c r="M429" t="n">
-        <v>39119355530</v>
+        <v>27337413869</v>
       </c>
       <c r="N429" t="n">
-        <v>23880644469</v>
+        <v>35662586130</v>
       </c>
     </row>
     <row r="430">
@@ -19926,16 +19926,16 @@
         <v>0</v>
       </c>
       <c r="K430" t="n">
-        <v>72650231699</v>
+        <v>50769482900</v>
       </c>
       <c r="L430" t="n">
         <v>0</v>
       </c>
       <c r="M430" t="n">
-        <v>33530876168</v>
+        <v>23432069030</v>
       </c>
       <c r="N430" t="n">
-        <v>20469123831</v>
+        <v>30567930969</v>
       </c>
     </row>
     <row r="431">
@@ -19972,16 +19972,16 @@
         <v>6452450600</v>
       </c>
       <c r="K431" t="n">
-        <v>0</v>
+        <v>6452450600</v>
       </c>
       <c r="L431" t="n">
-        <v>6452450600</v>
+        <v>3368558769</v>
       </c>
       <c r="M431" t="n">
-        <v>0</v>
+        <v>3083891830</v>
       </c>
       <c r="N431" t="n">
-        <v>65000000000</v>
+        <v>61916108169</v>
       </c>
     </row>
     <row r="432">
@@ -20018,16 +20018,16 @@
         <v>6452450600</v>
       </c>
       <c r="K432" t="n">
-        <v>0</v>
+        <v>6452450600</v>
       </c>
       <c r="L432" t="n">
-        <v>12904901200</v>
+        <v>1470779180</v>
       </c>
       <c r="M432" t="n">
-        <v>0</v>
+        <v>1897779588</v>
       </c>
       <c r="N432" t="n">
-        <v>40000000000</v>
+        <v>38102220411</v>
       </c>
     </row>
     <row r="433">
@@ -20064,16 +20064,16 @@
         <v>6452450600</v>
       </c>
       <c r="K433" t="n">
-        <v>0</v>
+        <v>6452450600</v>
       </c>
       <c r="L433" t="n">
-        <v>19357351800</v>
+        <v>0</v>
       </c>
       <c r="M433" t="n">
-        <v>0</v>
+        <v>1470779180</v>
       </c>
       <c r="N433" t="n">
-        <v>31000000000</v>
+        <v>29529220819</v>
       </c>
     </row>
     <row r="434">
@@ -20110,16 +20110,16 @@
         <v>0</v>
       </c>
       <c r="K434" t="n">
-        <v>19357351800</v>
+        <v>0</v>
       </c>
       <c r="L434" t="n">
-        <v>15485881440</v>
+        <v>0</v>
       </c>
       <c r="M434" t="n">
-        <v>3871470360</v>
+        <v>0</v>
       </c>
       <c r="N434" t="n">
-        <v>16128529640</v>
+        <v>20000000000</v>
       </c>
     </row>
     <row r="435">
@@ -20156,16 +20156,16 @@
         <v>0</v>
       </c>
       <c r="K435" t="n">
-        <v>19357351800</v>
+        <v>0</v>
       </c>
       <c r="L435" t="n">
-        <v>7742940720</v>
+        <v>0</v>
       </c>
       <c r="M435" t="n">
-        <v>7742940720</v>
+        <v>0</v>
       </c>
       <c r="N435" t="n">
-        <v>32257059280</v>
+        <v>40000000000</v>
       </c>
     </row>
     <row r="436">
@@ -20202,16 +20202,16 @@
         <v>0</v>
       </c>
       <c r="K436" t="n">
-        <v>19357351800</v>
+        <v>0</v>
       </c>
       <c r="L436" t="n">
         <v>0</v>
       </c>
       <c r="M436" t="n">
-        <v>7742940720</v>
+        <v>0</v>
       </c>
       <c r="N436" t="n">
-        <v>32257059280</v>
+        <v>40000000000</v>
       </c>
     </row>
     <row r="437">
@@ -20248,16 +20248,16 @@
         <v>19864392900</v>
       </c>
       <c r="K437" t="n">
-        <v>0</v>
+        <v>19864392900</v>
       </c>
       <c r="L437" t="n">
-        <v>19864392900</v>
+        <v>18392956388</v>
       </c>
       <c r="M437" t="n">
-        <v>0</v>
+        <v>1471436511</v>
       </c>
       <c r="N437" t="n">
-        <v>12000000000</v>
+        <v>10528563488</v>
       </c>
     </row>
     <row r="438">
@@ -20294,16 +20294,16 @@
         <v>19864392900</v>
       </c>
       <c r="K438" t="n">
-        <v>0</v>
+        <v>19864392900</v>
       </c>
       <c r="L438" t="n">
-        <v>39728785800</v>
+        <v>8583379647</v>
       </c>
       <c r="M438" t="n">
-        <v>0</v>
+        <v>9809576740</v>
       </c>
       <c r="N438" t="n">
-        <v>80000000000</v>
+        <v>70190423259</v>
       </c>
     </row>
     <row r="439">
@@ -20340,16 +20340,16 @@
         <v>19864392900</v>
       </c>
       <c r="K439" t="n">
-        <v>0</v>
+        <v>19864392900</v>
       </c>
       <c r="L439" t="n">
-        <v>59593178700</v>
+        <v>-1</v>
       </c>
       <c r="M439" t="n">
-        <v>0</v>
+        <v>8583379648</v>
       </c>
       <c r="N439" t="n">
-        <v>70000000000</v>
+        <v>61416620351</v>
       </c>
     </row>
     <row r="440">
@@ -20384,10 +20384,10 @@
         <v>0</v>
       </c>
       <c r="K440" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L440" t="n">
-        <v>59593178700</v>
+        <v>-1</v>
       </c>
       <c r="M440" t="n">
         <v>0</v>
@@ -20428,10 +20428,10 @@
         <v>0</v>
       </c>
       <c r="K441" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L441" t="n">
-        <v>59593178700</v>
+        <v>-1</v>
       </c>
       <c r="M441" t="n">
         <v>0</v>
@@ -20472,10 +20472,10 @@
         <v>0</v>
       </c>
       <c r="K442" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L442" t="n">
-        <v>59593178700</v>
+        <v>-1</v>
       </c>
       <c r="M442" t="n">
         <v>0</v>
@@ -20516,10 +20516,10 @@
         <v>0</v>
       </c>
       <c r="K443" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L443" t="n">
-        <v>59593178700</v>
+        <v>-1</v>
       </c>
       <c r="M443" t="n">
         <v>0</v>
@@ -20562,16 +20562,16 @@
         <v>5050404000</v>
       </c>
       <c r="K444" t="n">
-        <v>59593178700</v>
+        <v>5050403999</v>
       </c>
       <c r="L444" t="n">
-        <v>53041370917</v>
+        <v>4067139503</v>
       </c>
       <c r="M444" t="n">
-        <v>11602211782</v>
+        <v>983264495</v>
       </c>
       <c r="N444" t="n">
-        <v>32397788217</v>
+        <v>43016735504</v>
       </c>
     </row>
     <row r="445">
@@ -20608,16 +20608,16 @@
         <v>5050404000</v>
       </c>
       <c r="K445" t="n">
-        <v>59593178700</v>
+        <v>5050403999</v>
       </c>
       <c r="L445" t="n">
-        <v>40952143874</v>
+        <v>2614589680</v>
       </c>
       <c r="M445" t="n">
-        <v>17139631042</v>
+        <v>1452549822</v>
       </c>
       <c r="N445" t="n">
-        <v>47860368957</v>
+        <v>63547450177</v>
       </c>
     </row>
     <row r="446">
@@ -20654,16 +20654,16 @@
         <v>5050404000</v>
       </c>
       <c r="K446" t="n">
-        <v>59593178700</v>
+        <v>5050403999</v>
       </c>
       <c r="L446" t="n">
-        <v>29390290094</v>
+        <v>1206733697</v>
       </c>
       <c r="M446" t="n">
-        <v>16612257779</v>
+        <v>1407855982</v>
       </c>
       <c r="N446" t="n">
-        <v>46387742220</v>
+        <v>61592144017</v>
       </c>
     </row>
     <row r="447">
@@ -20700,16 +20700,16 @@
         <v>5050404000</v>
       </c>
       <c r="K447" t="n">
-        <v>59593178700</v>
+        <v>5050403999</v>
       </c>
       <c r="L447" t="n">
-        <v>20201615997</v>
+        <v>-1</v>
       </c>
       <c r="M447" t="n">
-        <v>14239078096</v>
+        <v>1206733698</v>
       </c>
       <c r="N447" t="n">
-        <v>39760921903</v>
+        <v>52793266301</v>
       </c>
     </row>
     <row r="448">
@@ -20746,16 +20746,16 @@
         <v>0</v>
       </c>
       <c r="K448" t="n">
-        <v>20201615997</v>
+        <v>-1</v>
       </c>
       <c r="L448" t="n">
-        <v>15448294585</v>
+        <v>0</v>
       </c>
       <c r="M448" t="n">
-        <v>4753321411</v>
+        <v>0</v>
       </c>
       <c r="N448" t="n">
-        <v>35246678588</v>
+        <v>40000000000</v>
       </c>
     </row>
     <row r="449">
@@ -20792,16 +20792,16 @@
         <v>0</v>
       </c>
       <c r="K449" t="n">
-        <v>20201615997</v>
+        <v>-1</v>
       </c>
       <c r="L449" t="n">
-        <v>10100807997</v>
+        <v>0</v>
       </c>
       <c r="M449" t="n">
-        <v>5347486587</v>
+        <v>0</v>
       </c>
       <c r="N449" t="n">
-        <v>39652513412</v>
+        <v>45000000000</v>
       </c>
     </row>
     <row r="450">
@@ -20838,16 +20838,16 @@
         <v>0</v>
       </c>
       <c r="K450" t="n">
-        <v>20201615997</v>
+        <v>-1</v>
       </c>
       <c r="L450" t="n">
-        <v>7724147291</v>
+        <v>0</v>
       </c>
       <c r="M450" t="n">
-        <v>2376660705</v>
+        <v>0</v>
       </c>
       <c r="N450" t="n">
-        <v>17623339294</v>
+        <v>20000000000</v>
       </c>
     </row>
     <row r="451">
@@ -20884,16 +20884,16 @@
         <v>0</v>
       </c>
       <c r="K451" t="n">
-        <v>20201615997</v>
+        <v>-1</v>
       </c>
       <c r="L451" t="n">
-        <v>2970825879</v>
+        <v>0</v>
       </c>
       <c r="M451" t="n">
-        <v>4753321411</v>
+        <v>0</v>
       </c>
       <c r="N451" t="n">
-        <v>35246678588</v>
+        <v>40000000000</v>
       </c>
     </row>
     <row r="452">
@@ -20930,16 +20930,16 @@
         <v>0</v>
       </c>
       <c r="K452" t="n">
-        <v>20201615997</v>
+        <v>-1</v>
       </c>
       <c r="L452" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M452" t="n">
-        <v>2970825881</v>
+        <v>0</v>
       </c>
       <c r="N452" t="n">
-        <v>22029174118</v>
+        <v>25000000000</v>
       </c>
     </row>
     <row r="453">
@@ -20973,19 +20973,19 @@
         <v>20060200</v>
       </c>
       <c r="J453" t="n">
-        <v>9604008200</v>
+        <v>25036498400</v>
       </c>
       <c r="K453" t="n">
-        <v>-2</v>
+        <v>25036498400</v>
       </c>
       <c r="L453" t="n">
-        <v>9604008198</v>
+        <v>16251762119</v>
       </c>
       <c r="M453" t="n">
-        <v>0</v>
+        <v>8784736280</v>
       </c>
       <c r="N453" t="n">
-        <v>80000000000</v>
+        <v>71215263719</v>
       </c>
     </row>
     <row r="454">
@@ -21022,16 +21022,16 @@
         <v>9604008200</v>
       </c>
       <c r="K454" t="n">
-        <v>-2</v>
+        <v>25036498400</v>
       </c>
       <c r="L454" t="n">
-        <v>19208016398</v>
+        <v>8565117873</v>
       </c>
       <c r="M454" t="n">
-        <v>0</v>
+        <v>7686644245</v>
       </c>
       <c r="N454" t="n">
-        <v>70000000000</v>
+        <v>62313355754</v>
       </c>
     </row>
     <row r="455">
@@ -21068,16 +21068,16 @@
         <v>9604008200</v>
       </c>
       <c r="K455" t="n">
-        <v>-2</v>
+        <v>25036498400</v>
       </c>
       <c r="L455" t="n">
-        <v>28812024598</v>
+        <v>4172749732</v>
       </c>
       <c r="M455" t="n">
-        <v>0</v>
+        <v>4392368140</v>
       </c>
       <c r="N455" t="n">
-        <v>40000000000</v>
+        <v>35607631859</v>
       </c>
     </row>
     <row r="456">
@@ -21114,16 +21114,16 @@
         <v>9604008200</v>
       </c>
       <c r="K456" t="n">
-        <v>-2</v>
+        <v>25036498400</v>
       </c>
       <c r="L456" t="n">
-        <v>38416032798</v>
+        <v>-1</v>
       </c>
       <c r="M456" t="n">
-        <v>0</v>
+        <v>4172749733</v>
       </c>
       <c r="N456" t="n">
-        <v>38000000000</v>
+        <v>33827250266</v>
       </c>
     </row>
     <row r="457">
@@ -21155,13 +21155,13 @@
         <v>0</v>
       </c>
       <c r="J457" t="n">
-        <v>15432490200</v>
+        <v>0</v>
       </c>
       <c r="K457" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L457" t="n">
-        <v>53848522998</v>
+        <v>-1</v>
       </c>
       <c r="M457" t="n">
         <v>0</v>
@@ -21202,10 +21202,10 @@
         <v>0</v>
       </c>
       <c r="K458" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L458" t="n">
-        <v>53848522998</v>
+        <v>-1</v>
       </c>
       <c r="M458" t="n">
         <v>0</v>
@@ -21246,10 +21246,10 @@
         <v>0</v>
       </c>
       <c r="K459" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L459" t="n">
-        <v>53848522998</v>
+        <v>-1</v>
       </c>
       <c r="M459" t="n">
         <v>0</v>
@@ -21292,16 +21292,16 @@
         <v>0</v>
       </c>
       <c r="K460" t="n">
-        <v>53848522998</v>
+        <v>-1</v>
       </c>
       <c r="L460" t="n">
-        <v>24853164460</v>
+        <v>0</v>
       </c>
       <c r="M460" t="n">
-        <v>28995358537</v>
+        <v>0</v>
       </c>
       <c r="N460" t="n">
-        <v>34004641462</v>
+        <v>63000000000</v>
       </c>
     </row>
     <row r="461">
@@ -21338,16 +21338,16 @@
         <v>0</v>
       </c>
       <c r="K461" t="n">
-        <v>53848522998</v>
+        <v>-1</v>
       </c>
       <c r="L461" t="n">
         <v>0</v>
       </c>
       <c r="M461" t="n">
-        <v>24853164460</v>
+        <v>0</v>
       </c>
       <c r="N461" t="n">
-        <v>29146835539</v>
+        <v>54000000000</v>
       </c>
     </row>
     <row r="462">
@@ -21384,16 +21384,16 @@
         <v>6713800200</v>
       </c>
       <c r="K462" t="n">
-        <v>0</v>
+        <v>6713800200</v>
       </c>
       <c r="L462" t="n">
-        <v>6713800200</v>
+        <v>2557638171</v>
       </c>
       <c r="M462" t="n">
-        <v>0</v>
+        <v>4156162028</v>
       </c>
       <c r="N462" t="n">
-        <v>65000000000</v>
+        <v>60843837971</v>
       </c>
     </row>
     <row r="463">
@@ -21430,16 +21430,16 @@
         <v>6713800200</v>
       </c>
       <c r="K463" t="n">
-        <v>0</v>
+        <v>6713800200</v>
       </c>
       <c r="L463" t="n">
-        <v>13427600400</v>
+        <v>0</v>
       </c>
       <c r="M463" t="n">
-        <v>0</v>
+        <v>2557638171</v>
       </c>
       <c r="N463" t="n">
-        <v>40000000000</v>
+        <v>37442361828</v>
       </c>
     </row>
     <row r="464">
@@ -21476,16 +21476,16 @@
         <v>0</v>
       </c>
       <c r="K464" t="n">
-        <v>13427600400</v>
+        <v>0</v>
       </c>
       <c r="L464" t="n">
-        <v>6713800200</v>
+        <v>0</v>
       </c>
       <c r="M464" t="n">
-        <v>6713800200</v>
+        <v>0</v>
       </c>
       <c r="N464" t="n">
-        <v>33286199800</v>
+        <v>40000000000</v>
       </c>
     </row>
     <row r="465">
@@ -21522,16 +21522,16 @@
         <v>0</v>
       </c>
       <c r="K465" t="n">
-        <v>13427600400</v>
+        <v>0</v>
       </c>
       <c r="L465" t="n">
         <v>0</v>
       </c>
       <c r="M465" t="n">
-        <v>6713800200</v>
+        <v>0</v>
       </c>
       <c r="N465" t="n">
-        <v>33286199800</v>
+        <v>40000000000</v>
       </c>
     </row>
     <row r="466">
@@ -21568,16 +21568,16 @@
         <v>10194000000</v>
       </c>
       <c r="K466" t="n">
-        <v>0</v>
+        <v>10194000000</v>
       </c>
       <c r="L466" t="n">
-        <v>10194000000</v>
+        <v>4757200000</v>
       </c>
       <c r="M466" t="n">
-        <v>0</v>
+        <v>5436800000</v>
       </c>
       <c r="N466" t="n">
-        <v>80000000000</v>
+        <v>74563200000</v>
       </c>
     </row>
     <row r="467">
@@ -21614,16 +21614,16 @@
         <v>10194000000</v>
       </c>
       <c r="K467" t="n">
-        <v>0</v>
+        <v>10194000000</v>
       </c>
       <c r="L467" t="n">
-        <v>20388000000</v>
+        <v>0</v>
       </c>
       <c r="M467" t="n">
-        <v>0</v>
+        <v>4757200000</v>
       </c>
       <c r="N467" t="n">
-        <v>70000000000</v>
+        <v>65242800000</v>
       </c>
     </row>
     <row r="468">
@@ -21661,7 +21661,7 @@
         <v>0</v>
       </c>
       <c r="L468" t="n">
-        <v>20388000000</v>
+        <v>0</v>
       </c>
       <c r="M468" t="n">
         <v>0</v>
@@ -21705,7 +21705,7 @@
         <v>0</v>
       </c>
       <c r="L469" t="n">
-        <v>20388000000</v>
+        <v>0</v>
       </c>
       <c r="M469" t="n">
         <v>0</v>
@@ -21749,7 +21749,7 @@
         <v>0</v>
       </c>
       <c r="L470" t="n">
-        <v>20388000000</v>
+        <v>0</v>
       </c>
       <c r="M470" t="n">
         <v>0</v>
@@ -21792,16 +21792,16 @@
         <v>0</v>
       </c>
       <c r="K471" t="n">
-        <v>20388000000</v>
+        <v>0</v>
       </c>
       <c r="L471" t="n">
-        <v>14816124223</v>
+        <v>0</v>
       </c>
       <c r="M471" t="n">
-        <v>5571875776</v>
+        <v>0</v>
       </c>
       <c r="N471" t="n">
-        <v>38428124223</v>
+        <v>44000000000</v>
       </c>
     </row>
     <row r="472">
@@ -21838,16 +21838,16 @@
         <v>0</v>
       </c>
       <c r="K472" t="n">
-        <v>20388000000</v>
+        <v>0</v>
       </c>
       <c r="L472" t="n">
-        <v>6838211179</v>
+        <v>0</v>
       </c>
       <c r="M472" t="n">
-        <v>7977913043</v>
+        <v>0</v>
       </c>
       <c r="N472" t="n">
-        <v>55022086956</v>
+        <v>63000000000</v>
       </c>
     </row>
     <row r="473">
@@ -21884,16 +21884,16 @@
         <v>0</v>
       </c>
       <c r="K473" t="n">
-        <v>20388000000</v>
+        <v>0</v>
       </c>
       <c r="L473" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M473" t="n">
-        <v>6838211180</v>
+        <v>0</v>
       </c>
       <c r="N473" t="n">
-        <v>47161788819</v>
+        <v>54000000000</v>
       </c>
     </row>
     <row r="474">
@@ -21930,16 +21930,16 @@
         <v>6470094200</v>
       </c>
       <c r="K474" t="n">
-        <v>-1</v>
+        <v>6470094200</v>
       </c>
       <c r="L474" t="n">
-        <v>6470094199</v>
+        <v>5015576899</v>
       </c>
       <c r="M474" t="n">
-        <v>0</v>
+        <v>1454517300</v>
       </c>
       <c r="N474" t="n">
-        <v>29000000000</v>
+        <v>27545482699</v>
       </c>
     </row>
     <row r="475">
@@ -21976,16 +21976,16 @@
         <v>6470094200</v>
       </c>
       <c r="K475" t="n">
-        <v>-1</v>
+        <v>6470094200</v>
       </c>
       <c r="L475" t="n">
-        <v>12940188399</v>
+        <v>2006230759</v>
       </c>
       <c r="M475" t="n">
-        <v>0</v>
+        <v>3009346139</v>
       </c>
       <c r="N475" t="n">
-        <v>60000000000</v>
+        <v>56990653860</v>
       </c>
     </row>
     <row r="476">
@@ -22022,16 +22022,16 @@
         <v>6470094200</v>
       </c>
       <c r="K476" t="n">
-        <v>-1</v>
+        <v>6470094200</v>
       </c>
       <c r="L476" t="n">
-        <v>19410282599</v>
+        <v>0</v>
       </c>
       <c r="M476" t="n">
-        <v>0</v>
+        <v>2006230759</v>
       </c>
       <c r="N476" t="n">
-        <v>40000000000</v>
+        <v>37993769240</v>
       </c>
     </row>
     <row r="477">
@@ -22068,16 +22068,16 @@
         <v>0</v>
       </c>
       <c r="K477" t="n">
-        <v>19410282599</v>
+        <v>0</v>
       </c>
       <c r="L477" t="n">
-        <v>10352150719</v>
+        <v>0</v>
       </c>
       <c r="M477" t="n">
-        <v>9058131879</v>
+        <v>0</v>
       </c>
       <c r="N477" t="n">
-        <v>25941868120</v>
+        <v>35000000000</v>
       </c>
     </row>
     <row r="478">
@@ -22114,16 +22114,16 @@
         <v>0</v>
       </c>
       <c r="K478" t="n">
-        <v>19410282599</v>
+        <v>0</v>
       </c>
       <c r="L478" t="n">
         <v>0</v>
       </c>
       <c r="M478" t="n">
-        <v>10352150719</v>
+        <v>0</v>
       </c>
       <c r="N478" t="n">
-        <v>29647849280</v>
+        <v>40000000000</v>
       </c>
     </row>
     <row r="479">
@@ -22160,16 +22160,16 @@
         <v>7193692400</v>
       </c>
       <c r="K479" t="n">
-        <v>0</v>
+        <v>7193692400</v>
       </c>
       <c r="L479" t="n">
-        <v>7193692400</v>
+        <v>3814105366</v>
       </c>
       <c r="M479" t="n">
-        <v>0</v>
+        <v>3379587033</v>
       </c>
       <c r="N479" t="n">
-        <v>70000000000</v>
+        <v>66620412966</v>
       </c>
     </row>
     <row r="480">
@@ -22206,16 +22206,16 @@
         <v>7193692400</v>
       </c>
       <c r="K480" t="n">
-        <v>0</v>
+        <v>7193692400</v>
       </c>
       <c r="L480" t="n">
-        <v>14387384800</v>
+        <v>917316480</v>
       </c>
       <c r="M480" t="n">
-        <v>0</v>
+        <v>2896788885</v>
       </c>
       <c r="N480" t="n">
-        <v>60000000000</v>
+        <v>57103211114</v>
       </c>
     </row>
     <row r="481">
@@ -22252,16 +22252,16 @@
         <v>7193692400</v>
       </c>
       <c r="K481" t="n">
-        <v>0</v>
+        <v>7193692400</v>
       </c>
       <c r="L481" t="n">
-        <v>21581077200</v>
+        <v>0</v>
       </c>
       <c r="M481" t="n">
-        <v>0</v>
+        <v>917316480</v>
       </c>
       <c r="N481" t="n">
-        <v>19000000000</v>
+        <v>18082683519</v>
       </c>
     </row>
     <row r="482">
@@ -22299,7 +22299,7 @@
         <v>0</v>
       </c>
       <c r="L482" t="n">
-        <v>21581077200</v>
+        <v>0</v>
       </c>
       <c r="M482" t="n">
         <v>0</v>
@@ -22343,7 +22343,7 @@
         <v>0</v>
       </c>
       <c r="L483" t="n">
-        <v>21581077200</v>
+        <v>0</v>
       </c>
       <c r="M483" t="n">
         <v>0</v>
@@ -22387,7 +22387,7 @@
         <v>0</v>
       </c>
       <c r="L484" t="n">
-        <v>21581077200</v>
+        <v>0</v>
       </c>
       <c r="M484" t="n">
         <v>0</v>
@@ -22430,16 +22430,16 @@
         <v>1308000000</v>
       </c>
       <c r="K485" t="n">
-        <v>21581077200</v>
+        <v>1308000000</v>
       </c>
       <c r="L485" t="n">
-        <v>11530615515</v>
+        <v>619578947</v>
       </c>
       <c r="M485" t="n">
-        <v>11358461684</v>
+        <v>688421052</v>
       </c>
       <c r="N485" t="n">
-        <v>48641538315</v>
+        <v>59311578947</v>
       </c>
     </row>
     <row r="486">
@@ -22476,16 +22476,16 @@
         <v>1308000000</v>
       </c>
       <c r="K486" t="n">
-        <v>21581077200</v>
+        <v>1308000000</v>
       </c>
       <c r="L486" t="n">
-        <v>2615999999</v>
+        <v>0</v>
       </c>
       <c r="M486" t="n">
-        <v>10222615515</v>
+        <v>619578947</v>
       </c>
       <c r="N486" t="n">
-        <v>43777384484</v>
+        <v>53380421052</v>
       </c>
     </row>
     <row r="487">
@@ -22522,16 +22522,16 @@
         <v>6771856400</v>
       </c>
       <c r="K487" t="n">
-        <v>2615999999</v>
+        <v>6771856400</v>
       </c>
       <c r="L487" t="n">
-        <v>8333017689</v>
+        <v>4041269141</v>
       </c>
       <c r="M487" t="n">
-        <v>1054838709</v>
+        <v>2730587258</v>
       </c>
       <c r="N487" t="n">
-        <v>48945161290</v>
+        <v>47269412741</v>
       </c>
     </row>
     <row r="488">
@@ -22568,16 +22568,16 @@
         <v>6771856400</v>
       </c>
       <c r="K488" t="n">
-        <v>2615999999</v>
+        <v>6771856400</v>
       </c>
       <c r="L488" t="n">
-        <v>14261003121</v>
+        <v>1856799334</v>
       </c>
       <c r="M488" t="n">
-        <v>843870967</v>
+        <v>2184469806</v>
       </c>
       <c r="N488" t="n">
-        <v>39156129032</v>
+        <v>37815530193</v>
       </c>
     </row>
     <row r="489">
@@ -22614,16 +22614,16 @@
         <v>6771856400</v>
       </c>
       <c r="K489" t="n">
-        <v>2615999999</v>
+        <v>6771856400</v>
       </c>
       <c r="L489" t="n">
-        <v>20315569198</v>
+        <v>-1</v>
       </c>
       <c r="M489" t="n">
-        <v>717290322</v>
+        <v>1856799335</v>
       </c>
       <c r="N489" t="n">
-        <v>33282709677</v>
+        <v>32143200664</v>
       </c>
     </row>
     <row r="490">
@@ -22660,16 +22660,16 @@
         <v>0</v>
       </c>
       <c r="K490" t="n">
-        <v>20315569198</v>
+        <v>-1</v>
       </c>
       <c r="L490" t="n">
-        <v>16561605324</v>
+        <v>0</v>
       </c>
       <c r="M490" t="n">
-        <v>3753963873</v>
+        <v>0</v>
       </c>
       <c r="N490" t="n">
-        <v>13246036126</v>
+        <v>17000000000</v>
       </c>
     </row>
     <row r="491">
@@ -22706,16 +22706,16 @@
         <v>0</v>
       </c>
       <c r="K491" t="n">
-        <v>20315569198</v>
+        <v>-1</v>
       </c>
       <c r="L491" t="n">
-        <v>8832856172</v>
+        <v>0</v>
       </c>
       <c r="M491" t="n">
-        <v>7728749151</v>
+        <v>0</v>
       </c>
       <c r="N491" t="n">
-        <v>27271250848</v>
+        <v>35000000000</v>
       </c>
     </row>
     <row r="492">
@@ -22752,16 +22752,16 @@
         <v>0</v>
       </c>
       <c r="K492" t="n">
-        <v>20315569198</v>
+        <v>-1</v>
       </c>
       <c r="L492" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M492" t="n">
-        <v>8832856173</v>
+        <v>0</v>
       </c>
       <c r="N492" t="n">
-        <v>31167143826</v>
+        <v>40000000000</v>
       </c>
     </row>
     <row r="493">
@@ -22798,16 +22798,16 @@
         <v>17645591700</v>
       </c>
       <c r="K493" t="n">
-        <v>-1</v>
+        <v>17645591700</v>
       </c>
       <c r="L493" t="n">
-        <v>17645591699</v>
+        <v>15609561888</v>
       </c>
       <c r="M493" t="n">
-        <v>0</v>
+        <v>2036029811</v>
       </c>
       <c r="N493" t="n">
-        <v>15000000000</v>
+        <v>12963970188</v>
       </c>
     </row>
     <row r="494">
@@ -22844,16 +22844,16 @@
         <v>17645591700</v>
       </c>
       <c r="K494" t="n">
-        <v>-1</v>
+        <v>17645591700</v>
       </c>
       <c r="L494" t="n">
-        <v>35291183399</v>
+        <v>7465442641</v>
       </c>
       <c r="M494" t="n">
-        <v>0</v>
+        <v>8144119246</v>
       </c>
       <c r="N494" t="n">
-        <v>60000000000</v>
+        <v>51855880753</v>
       </c>
     </row>
     <row r="495">
@@ -22890,16 +22890,16 @@
         <v>17645591700</v>
       </c>
       <c r="K495" t="n">
+        <v>17645591700</v>
+      </c>
+      <c r="L495" t="n">
         <v>-1</v>
       </c>
-      <c r="L495" t="n">
-        <v>52936775099</v>
-      </c>
       <c r="M495" t="n">
-        <v>0</v>
+        <v>7465442642</v>
       </c>
       <c r="N495" t="n">
-        <v>55000000000</v>
+        <v>47534557357</v>
       </c>
     </row>
     <row r="496">
@@ -22934,10 +22934,10 @@
         <v>0</v>
       </c>
       <c r="K496" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L496" t="n">
-        <v>52936775099</v>
+        <v>-1</v>
       </c>
       <c r="M496" t="n">
         <v>0</v>
@@ -22978,10 +22978,10 @@
         <v>0</v>
       </c>
       <c r="K497" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L497" t="n">
-        <v>52936775099</v>
+        <v>-1</v>
       </c>
       <c r="M497" t="n">
         <v>0</v>
@@ -23022,10 +23022,10 @@
         <v>0</v>
       </c>
       <c r="K498" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L498" t="n">
-        <v>52936775099</v>
+        <v>-1</v>
       </c>
       <c r="M498" t="n">
         <v>0</v>
@@ -23068,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="K499" t="n">
-        <v>52936775099</v>
+        <v>-1</v>
       </c>
       <c r="L499" t="n">
-        <v>25753025723</v>
+        <v>0</v>
       </c>
       <c r="M499" t="n">
-        <v>27183749375</v>
+        <v>0</v>
       </c>
       <c r="N499" t="n">
-        <v>29816250624</v>
+        <v>57000000000</v>
       </c>
     </row>
     <row r="500">
@@ -23114,16 +23114,16 @@
         <v>0</v>
       </c>
       <c r="K500" t="n">
-        <v>52936775099</v>
+        <v>-1</v>
       </c>
       <c r="L500" t="n">
         <v>0</v>
       </c>
       <c r="M500" t="n">
-        <v>25753025723</v>
+        <v>0</v>
       </c>
       <c r="N500" t="n">
-        <v>28246974276</v>
+        <v>54000000000</v>
       </c>
     </row>
     <row r="501">
@@ -23160,16 +23160,16 @@
         <v>5704144800</v>
       </c>
       <c r="K501" t="n">
-        <v>0</v>
+        <v>5704144800</v>
       </c>
       <c r="L501" t="n">
-        <v>5704144800</v>
+        <v>3906948493</v>
       </c>
       <c r="M501" t="n">
-        <v>0</v>
+        <v>1797196306</v>
       </c>
       <c r="N501" t="n">
-        <v>46000000000</v>
+        <v>44202803693</v>
       </c>
     </row>
     <row r="502">
@@ -23206,16 +23206,16 @@
         <v>5704144800</v>
       </c>
       <c r="K502" t="n">
-        <v>0</v>
+        <v>5704144800</v>
       </c>
       <c r="L502" t="n">
-        <v>11408289600</v>
+        <v>2344169095</v>
       </c>
       <c r="M502" t="n">
-        <v>0</v>
+        <v>1562779397</v>
       </c>
       <c r="N502" t="n">
-        <v>40000000000</v>
+        <v>38437220602</v>
       </c>
     </row>
     <row r="503">
@@ -23252,16 +23252,16 @@
         <v>5704144800</v>
       </c>
       <c r="K503" t="n">
-        <v>0</v>
+        <v>5704144800</v>
       </c>
       <c r="L503" t="n">
-        <v>17112434400</v>
+        <v>781389697</v>
       </c>
       <c r="M503" t="n">
-        <v>0</v>
+        <v>1562779397</v>
       </c>
       <c r="N503" t="n">
-        <v>40000000000</v>
+        <v>38437220602</v>
       </c>
     </row>
     <row r="504">
@@ -23298,16 +23298,16 @@
         <v>5704144800</v>
       </c>
       <c r="K504" t="n">
-        <v>0</v>
+        <v>5704144800</v>
       </c>
       <c r="L504" t="n">
-        <v>22816579200</v>
+        <v>-1</v>
       </c>
       <c r="M504" t="n">
-        <v>0</v>
+        <v>781389698</v>
       </c>
       <c r="N504" t="n">
-        <v>20000000000</v>
+        <v>19218610301</v>
       </c>
     </row>
     <row r="505">
@@ -23344,16 +23344,16 @@
         <v>0</v>
       </c>
       <c r="K505" t="n">
-        <v>22816579200</v>
+        <v>-1</v>
       </c>
       <c r="L505" t="n">
-        <v>17630993018</v>
+        <v>0</v>
       </c>
       <c r="M505" t="n">
-        <v>5185586181</v>
+        <v>0</v>
       </c>
       <c r="N505" t="n">
-        <v>24814413818</v>
+        <v>30000000000</v>
       </c>
     </row>
     <row r="506">
@@ -23390,16 +23390,16 @@
         <v>0</v>
       </c>
       <c r="K506" t="n">
-        <v>22816579200</v>
+        <v>-1</v>
       </c>
       <c r="L506" t="n">
-        <v>11581142472</v>
+        <v>0</v>
       </c>
       <c r="M506" t="n">
-        <v>6049850545</v>
+        <v>0</v>
       </c>
       <c r="N506" t="n">
-        <v>28950149454</v>
+        <v>35000000000</v>
       </c>
     </row>
     <row r="507">
@@ -23436,16 +23436,16 @@
         <v>0</v>
       </c>
       <c r="K507" t="n">
-        <v>22816579200</v>
+        <v>-1</v>
       </c>
       <c r="L507" t="n">
-        <v>3457057453</v>
+        <v>0</v>
       </c>
       <c r="M507" t="n">
-        <v>8124085018</v>
+        <v>0</v>
       </c>
       <c r="N507" t="n">
-        <v>38875914981</v>
+        <v>47000000000</v>
       </c>
     </row>
     <row r="508">
@@ -23482,16 +23482,16 @@
         <v>0</v>
       </c>
       <c r="K508" t="n">
-        <v>22816579200</v>
+        <v>-1</v>
       </c>
       <c r="L508" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M508" t="n">
-        <v>3457057454</v>
+        <v>0</v>
       </c>
       <c r="N508" t="n">
-        <v>16542942545</v>
+        <v>20000000000</v>
       </c>
     </row>
     <row r="509">
@@ -23528,16 +23528,16 @@
         <v>4249636400</v>
       </c>
       <c r="K509" t="n">
-        <v>-1</v>
+        <v>4249636400</v>
       </c>
       <c r="L509" t="n">
-        <v>4249636399</v>
+        <v>2742673137</v>
       </c>
       <c r="M509" t="n">
-        <v>0</v>
+        <v>1506963262</v>
       </c>
       <c r="N509" t="n">
-        <v>50000000000</v>
+        <v>48493036737</v>
       </c>
     </row>
     <row r="510">
@@ -23574,16 +23574,16 @@
         <v>4249636400</v>
       </c>
       <c r="K510" t="n">
-        <v>-1</v>
+        <v>4249636400</v>
       </c>
       <c r="L510" t="n">
-        <v>8499272799</v>
+        <v>1235709874</v>
       </c>
       <c r="M510" t="n">
-        <v>0</v>
+        <v>1506963262</v>
       </c>
       <c r="N510" t="n">
-        <v>50000000000</v>
+        <v>48493036737</v>
       </c>
     </row>
     <row r="511">
@@ -23620,16 +23620,16 @@
         <v>4249636400</v>
       </c>
       <c r="K511" t="n">
+        <v>4249636400</v>
+      </c>
+      <c r="L511" t="n">
         <v>-1</v>
       </c>
-      <c r="L511" t="n">
-        <v>12748909199</v>
-      </c>
       <c r="M511" t="n">
-        <v>0</v>
+        <v>1235709875</v>
       </c>
       <c r="N511" t="n">
-        <v>41000000000</v>
+        <v>39764290124</v>
       </c>
     </row>
     <row r="512">
@@ -23664,10 +23664,10 @@
         <v>0</v>
       </c>
       <c r="K512" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L512" t="n">
-        <v>12748909199</v>
+        <v>-1</v>
       </c>
       <c r="M512" t="n">
         <v>0</v>
@@ -23708,10 +23708,10 @@
         <v>0</v>
       </c>
       <c r="K513" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L513" t="n">
-        <v>12748909199</v>
+        <v>-1</v>
       </c>
       <c r="M513" t="n">
         <v>0</v>
@@ -23752,10 +23752,10 @@
         <v>0</v>
       </c>
       <c r="K514" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L514" t="n">
-        <v>12748909199</v>
+        <v>-1</v>
       </c>
       <c r="M514" t="n">
         <v>0</v>
@@ -23798,16 +23798,16 @@
         <v>0</v>
       </c>
       <c r="K515" t="n">
-        <v>12748909199</v>
+        <v>-1</v>
       </c>
       <c r="L515" t="n">
-        <v>6192327325</v>
+        <v>0</v>
       </c>
       <c r="M515" t="n">
-        <v>6556581873</v>
+        <v>0</v>
       </c>
       <c r="N515" t="n">
-        <v>47443418126</v>
+        <v>54000000000</v>
       </c>
     </row>
     <row r="516">
@@ -23844,16 +23844,16 @@
         <v>0</v>
       </c>
       <c r="K516" t="n">
-        <v>12748909199</v>
+        <v>-1</v>
       </c>
       <c r="L516" t="n">
         <v>0</v>
       </c>
       <c r="M516" t="n">
-        <v>6192327325</v>
+        <v>0</v>
       </c>
       <c r="N516" t="n">
-        <v>44807672674</v>
+        <v>51000000000</v>
       </c>
     </row>
     <row r="517">
@@ -23890,16 +23890,16 @@
         <v>29235095200</v>
       </c>
       <c r="K517" t="n">
-        <v>0</v>
+        <v>29235095200</v>
       </c>
       <c r="L517" t="n">
-        <v>29235095200</v>
+        <v>14617547600</v>
       </c>
       <c r="M517" t="n">
-        <v>0</v>
+        <v>14617547600</v>
       </c>
       <c r="N517" t="n">
-        <v>35000000000</v>
+        <v>20382452400</v>
       </c>
     </row>
     <row r="518">
@@ -23936,16 +23936,16 @@
         <v>29235095200</v>
       </c>
       <c r="K518" t="n">
-        <v>0</v>
+        <v>29235095200</v>
       </c>
       <c r="L518" t="n">
-        <v>58470190400</v>
+        <v>0</v>
       </c>
       <c r="M518" t="n">
-        <v>0</v>
+        <v>14617547600</v>
       </c>
       <c r="N518" t="n">
-        <v>35000000000</v>
+        <v>20382452400</v>
       </c>
     </row>
     <row r="519">
@@ -23982,16 +23982,16 @@
         <v>0</v>
       </c>
       <c r="K519" t="n">
-        <v>58470190400</v>
+        <v>0</v>
       </c>
       <c r="L519" t="n">
-        <v>33470190400</v>
+        <v>0</v>
       </c>
       <c r="M519" t="n">
+        <v>0</v>
+      </c>
+      <c r="N519" t="n">
         <v>25000000000</v>
-      </c>
-      <c r="N519" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="520">
@@ -24028,16 +24028,16 @@
         <v>0</v>
       </c>
       <c r="K520" t="n">
-        <v>58470190400</v>
+        <v>0</v>
       </c>
       <c r="L520" t="n">
-        <v>3470190400</v>
+        <v>0</v>
       </c>
       <c r="M520" t="n">
+        <v>0</v>
+      </c>
+      <c r="N520" t="n">
         <v>30000000000</v>
-      </c>
-      <c r="N520" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="521">
@@ -24074,16 +24074,16 @@
         <v>13530083800</v>
       </c>
       <c r="K521" t="n">
-        <v>3470190400</v>
+        <v>13530083800</v>
       </c>
       <c r="L521" t="n">
-        <v>15265179000</v>
+        <v>6765041900</v>
       </c>
       <c r="M521" t="n">
-        <v>1735095200</v>
+        <v>6765041900</v>
       </c>
       <c r="N521" t="n">
-        <v>43264904800</v>
+        <v>38234958100</v>
       </c>
     </row>
     <row r="522">
@@ -24120,16 +24120,16 @@
         <v>13530083800</v>
       </c>
       <c r="K522" t="n">
-        <v>3470190400</v>
+        <v>13530083800</v>
       </c>
       <c r="L522" t="n">
-        <v>27060167600</v>
+        <v>0</v>
       </c>
       <c r="M522" t="n">
-        <v>1735095200</v>
+        <v>6765041900</v>
       </c>
       <c r="N522" t="n">
-        <v>43264904800</v>
+        <v>38234958100</v>
       </c>
     </row>
     <row r="523">
@@ -24167,7 +24167,7 @@
         <v>0</v>
       </c>
       <c r="L523" t="n">
-        <v>27060167600</v>
+        <v>0</v>
       </c>
       <c r="M523" t="n">
         <v>0</v>
@@ -24211,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="L524" t="n">
-        <v>27060167600</v>
+        <v>0</v>
       </c>
       <c r="M524" t="n">
         <v>0</v>
@@ -24255,7 +24255,7 @@
         <v>0</v>
       </c>
       <c r="L525" t="n">
-        <v>27060167600</v>
+        <v>0</v>
       </c>
       <c r="M525" t="n">
         <v>0</v>
@@ -24298,16 +24298,16 @@
         <v>0</v>
       </c>
       <c r="K526" t="n">
-        <v>27060167600</v>
+        <v>0</v>
       </c>
       <c r="L526" t="n">
-        <v>13143509977</v>
+        <v>0</v>
       </c>
       <c r="M526" t="n">
-        <v>13916657622</v>
+        <v>0</v>
       </c>
       <c r="N526" t="n">
-        <v>40083342377</v>
+        <v>54000000000</v>
       </c>
     </row>
     <row r="527">
@@ -24344,16 +24344,16 @@
         <v>0</v>
       </c>
       <c r="K527" t="n">
-        <v>27060167600</v>
+        <v>0</v>
       </c>
       <c r="L527" t="n">
         <v>0</v>
       </c>
       <c r="M527" t="n">
-        <v>13143509977</v>
+        <v>0</v>
       </c>
       <c r="N527" t="n">
-        <v>37856490022</v>
+        <v>51000000000</v>
       </c>
     </row>
     <row r="528">
@@ -24390,16 +24390,16 @@
         <v>6437622800</v>
       </c>
       <c r="K528" t="n">
-        <v>0</v>
+        <v>6437622800</v>
       </c>
       <c r="L528" t="n">
-        <v>6437622800</v>
+        <v>3884772379</v>
       </c>
       <c r="M528" t="n">
-        <v>0</v>
+        <v>2552850420</v>
       </c>
       <c r="N528" t="n">
-        <v>46000000000</v>
+        <v>43447149579</v>
       </c>
     </row>
     <row r="529">
@@ -24436,16 +24436,16 @@
         <v>6437622800</v>
       </c>
       <c r="K529" t="n">
-        <v>0</v>
+        <v>6437622800</v>
       </c>
       <c r="L529" t="n">
-        <v>12875245600</v>
+        <v>1942386189</v>
       </c>
       <c r="M529" t="n">
-        <v>0</v>
+        <v>1942386189</v>
       </c>
       <c r="N529" t="n">
-        <v>35000000000</v>
+        <v>33057613810</v>
       </c>
     </row>
     <row r="530">
@@ -24482,16 +24482,16 @@
         <v>6437622800</v>
       </c>
       <c r="K530" t="n">
-        <v>0</v>
+        <v>6437622800</v>
       </c>
       <c r="L530" t="n">
-        <v>19312868400</v>
+        <v>0</v>
       </c>
       <c r="M530" t="n">
-        <v>0</v>
+        <v>1942386189</v>
       </c>
       <c r="N530" t="n">
-        <v>35000000000</v>
+        <v>33057613810</v>
       </c>
     </row>
     <row r="531">
@@ -24528,16 +24528,16 @@
         <v>0</v>
       </c>
       <c r="K531" t="n">
-        <v>19312868400</v>
+        <v>0</v>
       </c>
       <c r="L531" t="n">
-        <v>12645330500</v>
+        <v>0</v>
       </c>
       <c r="M531" t="n">
-        <v>6667537899</v>
+        <v>0</v>
       </c>
       <c r="N531" t="n">
-        <v>22332462100</v>
+        <v>29000000000</v>
       </c>
     </row>
     <row r="532">
@@ -24574,16 +24574,16 @@
         <v>0</v>
       </c>
       <c r="K532" t="n">
-        <v>19312868400</v>
+        <v>0</v>
       </c>
       <c r="L532" t="n">
-        <v>6897453000</v>
+        <v>0</v>
       </c>
       <c r="M532" t="n">
-        <v>5747877500</v>
+        <v>0</v>
       </c>
       <c r="N532" t="n">
-        <v>19252122500</v>
+        <v>25000000000</v>
       </c>
     </row>
     <row r="533">
@@ -24620,16 +24620,16 @@
         <v>0</v>
       </c>
       <c r="K533" t="n">
-        <v>19312868400</v>
+        <v>0</v>
       </c>
       <c r="L533" t="n">
         <v>0</v>
       </c>
       <c r="M533" t="n">
-        <v>6897453000</v>
+        <v>0</v>
       </c>
       <c r="N533" t="n">
-        <v>23102547000</v>
+        <v>30000000000</v>
       </c>
     </row>
     <row r="534">
@@ -24666,16 +24666,16 @@
         <v>10875237800</v>
       </c>
       <c r="K534" t="n">
-        <v>0</v>
+        <v>10875237800</v>
       </c>
       <c r="L534" t="n">
-        <v>10875237800</v>
+        <v>8788070949</v>
       </c>
       <c r="M534" t="n">
-        <v>0</v>
+        <v>2087166850</v>
       </c>
       <c r="N534" t="n">
-        <v>19000000000</v>
+        <v>16912833149</v>
       </c>
     </row>
     <row r="535">
@@ -24712,16 +24712,16 @@
         <v>10875237800</v>
       </c>
       <c r="K535" t="n">
-        <v>0</v>
+        <v>10875237800</v>
       </c>
       <c r="L535" t="n">
-        <v>21750475600</v>
+        <v>4394035474</v>
       </c>
       <c r="M535" t="n">
-        <v>0</v>
+        <v>4394035474</v>
       </c>
       <c r="N535" t="n">
-        <v>40000000000</v>
+        <v>35605964525</v>
       </c>
     </row>
     <row r="536">
@@ -24758,16 +24758,16 @@
         <v>10875237800</v>
       </c>
       <c r="K536" t="n">
-        <v>0</v>
+        <v>10875237800</v>
       </c>
       <c r="L536" t="n">
-        <v>32625713400</v>
+        <v>0</v>
       </c>
       <c r="M536" t="n">
-        <v>0</v>
+        <v>4394035474</v>
       </c>
       <c r="N536" t="n">
-        <v>40000000000</v>
+        <v>35605964525</v>
       </c>
     </row>
     <row r="537">
@@ -24804,16 +24804,16 @@
         <v>0</v>
       </c>
       <c r="K537" t="n">
-        <v>32625713400</v>
+        <v>0</v>
       </c>
       <c r="L537" t="n">
-        <v>32600713400</v>
+        <v>0</v>
       </c>
       <c r="M537" t="n">
+        <v>0</v>
+      </c>
+      <c r="N537" t="n">
         <v>25000000</v>
-      </c>
-      <c r="N537" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="538">
@@ -24851,7 +24851,7 @@
         <v>0</v>
       </c>
       <c r="L538" t="n">
-        <v>32600713400</v>
+        <v>0</v>
       </c>
       <c r="M538" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="L539" t="n">
-        <v>32600713400</v>
+        <v>0</v>
       </c>
       <c r="M539" t="n">
         <v>0</v>
@@ -24938,16 +24938,16 @@
         <v>0</v>
       </c>
       <c r="K540" t="n">
-        <v>32600713400</v>
+        <v>0</v>
       </c>
       <c r="L540" t="n">
-        <v>15834632222</v>
+        <v>0</v>
       </c>
       <c r="M540" t="n">
-        <v>16766081177</v>
+        <v>0</v>
       </c>
       <c r="N540" t="n">
-        <v>37233918822</v>
+        <v>54000000000</v>
       </c>
     </row>
     <row r="541">
@@ -24984,16 +24984,16 @@
         <v>0</v>
       </c>
       <c r="K541" t="n">
-        <v>32600713400</v>
+        <v>0</v>
       </c>
       <c r="L541" t="n">
         <v>0</v>
       </c>
       <c r="M541" t="n">
-        <v>15834632222</v>
+        <v>0</v>
       </c>
       <c r="N541" t="n">
-        <v>35165367777</v>
+        <v>51000000000</v>
       </c>
     </row>
     <row r="542">
@@ -25030,16 +25030,16 @@
         <v>6657527900</v>
       </c>
       <c r="K542" t="n">
-        <v>0</v>
+        <v>6657527900</v>
       </c>
       <c r="L542" t="n">
-        <v>6657527900</v>
+        <v>4417013702</v>
       </c>
       <c r="M542" t="n">
-        <v>0</v>
+        <v>2240514197</v>
       </c>
       <c r="N542" t="n">
-        <v>35000000000</v>
+        <v>32759485802</v>
       </c>
     </row>
     <row r="543">
@@ -25076,16 +25076,16 @@
         <v>6657527900</v>
       </c>
       <c r="K543" t="n">
-        <v>0</v>
+        <v>6657527900</v>
       </c>
       <c r="L543" t="n">
-        <v>13315055800</v>
+        <v>2176499504</v>
       </c>
       <c r="M543" t="n">
-        <v>0</v>
+        <v>2240514197</v>
       </c>
       <c r="N543" t="n">
-        <v>35000000000</v>
+        <v>32759485802</v>
       </c>
     </row>
     <row r="544">
@@ -25122,16 +25122,16 @@
         <v>6657527900</v>
       </c>
       <c r="K544" t="n">
-        <v>0</v>
+        <v>6657527900</v>
       </c>
       <c r="L544" t="n">
-        <v>19972583700</v>
+        <v>-1</v>
       </c>
       <c r="M544" t="n">
-        <v>0</v>
+        <v>2176499505</v>
       </c>
       <c r="N544" t="n">
-        <v>34000000000</v>
+        <v>31823500494</v>
       </c>
     </row>
     <row r="545">
@@ -25168,16 +25168,16 @@
         <v>0</v>
       </c>
       <c r="K545" t="n">
-        <v>19972583700</v>
+        <v>-1</v>
       </c>
       <c r="L545" t="n">
-        <v>10894136563</v>
+        <v>0</v>
       </c>
       <c r="M545" t="n">
-        <v>9078447136</v>
+        <v>0</v>
       </c>
       <c r="N545" t="n">
-        <v>15921552863</v>
+        <v>25000000000</v>
       </c>
     </row>
     <row r="546">
@@ -25214,16 +25214,16 @@
         <v>0</v>
       </c>
       <c r="K546" t="n">
-        <v>19972583700</v>
+        <v>-1</v>
       </c>
       <c r="L546" t="n">
         <v>0</v>
       </c>
       <c r="M546" t="n">
-        <v>10894136563</v>
+        <v>0</v>
       </c>
       <c r="N546" t="n">
-        <v>19105863436</v>
+        <v>30000000000</v>
       </c>
     </row>
     <row r="547">
@@ -25260,16 +25260,16 @@
         <v>18724230800</v>
       </c>
       <c r="K547" t="n">
-        <v>0</v>
+        <v>18724230800</v>
       </c>
       <c r="L547" t="n">
-        <v>18724230800</v>
+        <v>9362115400</v>
       </c>
       <c r="M547" t="n">
-        <v>0</v>
+        <v>9362115400</v>
       </c>
       <c r="N547" t="n">
-        <v>35000000000</v>
+        <v>25637884600</v>
       </c>
     </row>
     <row r="548">
@@ -25306,16 +25306,16 @@
         <v>18724230800</v>
       </c>
       <c r="K548" t="n">
-        <v>0</v>
+        <v>18724230800</v>
       </c>
       <c r="L548" t="n">
-        <v>37448461600</v>
+        <v>0</v>
       </c>
       <c r="M548" t="n">
-        <v>0</v>
+        <v>9362115400</v>
       </c>
       <c r="N548" t="n">
-        <v>35000000000</v>
+        <v>25637884600</v>
       </c>
     </row>
     <row r="549">
@@ -25353,7 +25353,7 @@
         <v>0</v>
       </c>
       <c r="L549" t="n">
-        <v>37448461600</v>
+        <v>0</v>
       </c>
       <c r="M549" t="n">
         <v>0</v>
@@ -25397,7 +25397,7 @@
         <v>0</v>
       </c>
       <c r="L550" t="n">
-        <v>37448461600</v>
+        <v>0</v>
       </c>
       <c r="M550" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="L551" t="n">
-        <v>37448461600</v>
+        <v>0</v>
       </c>
       <c r="M551" t="n">
         <v>0</v>
@@ -25484,16 +25484,16 @@
         <v>0</v>
       </c>
       <c r="K552" t="n">
-        <v>37448461600</v>
+        <v>0</v>
       </c>
       <c r="L552" t="n">
-        <v>18189252777</v>
+        <v>0</v>
       </c>
       <c r="M552" t="n">
-        <v>19259208822</v>
+        <v>0</v>
       </c>
       <c r="N552" t="n">
-        <v>34740791177</v>
+        <v>54000000000</v>
       </c>
     </row>
     <row r="553">
@@ -25530,16 +25530,16 @@
         <v>0</v>
       </c>
       <c r="K553" t="n">
-        <v>37448461600</v>
+        <v>0</v>
       </c>
       <c r="L553" t="n">
         <v>0</v>
       </c>
       <c r="M553" t="n">
-        <v>18189252777</v>
+        <v>0</v>
       </c>
       <c r="N553" t="n">
-        <v>32810747222</v>
+        <v>51000000000</v>
       </c>
     </row>
     <row r="554">
@@ -25576,16 +25576,16 @@
         <v>5332930800</v>
       </c>
       <c r="K554" t="n">
-        <v>0</v>
+        <v>5332930800</v>
       </c>
       <c r="L554" t="n">
-        <v>5332930800</v>
+        <v>3333081750</v>
       </c>
       <c r="M554" t="n">
-        <v>0</v>
+        <v>1999849050</v>
       </c>
       <c r="N554" t="n">
-        <v>30000000000</v>
+        <v>28000150950</v>
       </c>
     </row>
     <row r="555">
@@ -25622,16 +25622,16 @@
         <v>5332930800</v>
       </c>
       <c r="K555" t="n">
-        <v>0</v>
+        <v>5332930800</v>
       </c>
       <c r="L555" t="n">
-        <v>10665861600</v>
+        <v>1333232700</v>
       </c>
       <c r="M555" t="n">
-        <v>0</v>
+        <v>1999849050</v>
       </c>
       <c r="N555" t="n">
-        <v>30000000000</v>
+        <v>28000150950</v>
       </c>
     </row>
     <row r="556">
@@ -25668,16 +25668,16 @@
         <v>5332930800</v>
       </c>
       <c r="K556" t="n">
-        <v>0</v>
+        <v>5332930800</v>
       </c>
       <c r="L556" t="n">
-        <v>15998792400</v>
+        <v>0</v>
       </c>
       <c r="M556" t="n">
-        <v>0</v>
+        <v>1333232700</v>
       </c>
       <c r="N556" t="n">
-        <v>20000000000</v>
+        <v>18666767300</v>
       </c>
     </row>
     <row r="557">
@@ -25714,16 +25714,16 @@
         <v>0</v>
       </c>
       <c r="K557" t="n">
-        <v>15998792400</v>
+        <v>0</v>
       </c>
       <c r="L557" t="n">
-        <v>12221299750</v>
+        <v>0</v>
       </c>
       <c r="M557" t="n">
-        <v>3777492650</v>
+        <v>0</v>
       </c>
       <c r="N557" t="n">
-        <v>13222507350</v>
+        <v>17000000000</v>
       </c>
     </row>
     <row r="558">
@@ -25760,16 +25760,16 @@
         <v>0</v>
       </c>
       <c r="K558" t="n">
-        <v>15998792400</v>
+        <v>0</v>
       </c>
       <c r="L558" t="n">
-        <v>6666163500</v>
+        <v>0</v>
       </c>
       <c r="M558" t="n">
-        <v>5555136250</v>
+        <v>0</v>
       </c>
       <c r="N558" t="n">
-        <v>19444863750</v>
+        <v>25000000000</v>
       </c>
     </row>
     <row r="559">
@@ -25806,16 +25806,16 @@
         <v>0</v>
       </c>
       <c r="K559" t="n">
-        <v>15998792400</v>
+        <v>0</v>
       </c>
       <c r="L559" t="n">
         <v>0</v>
       </c>
       <c r="M559" t="n">
-        <v>6666163500</v>
+        <v>0</v>
       </c>
       <c r="N559" t="n">
-        <v>23333836500</v>
+        <v>30000000000</v>
       </c>
     </row>
     <row r="560">
@@ -25852,16 +25852,16 @@
         <v>16277175800</v>
       </c>
       <c r="K560" t="n">
-        <v>0</v>
+        <v>16277175800</v>
       </c>
       <c r="L560" t="n">
-        <v>16277175800</v>
+        <v>13392613000</v>
       </c>
       <c r="M560" t="n">
-        <v>0</v>
+        <v>2884562799</v>
       </c>
       <c r="N560" t="n">
-        <v>14000000000</v>
+        <v>11115437200</v>
       </c>
     </row>
     <row r="561">
@@ -25898,16 +25898,16 @@
         <v>16277175800</v>
       </c>
       <c r="K561" t="n">
-        <v>0</v>
+        <v>16277175800</v>
       </c>
       <c r="L561" t="n">
-        <v>32554351600</v>
+        <v>7211407000</v>
       </c>
       <c r="M561" t="n">
-        <v>0</v>
+        <v>6181206000</v>
       </c>
       <c r="N561" t="n">
-        <v>30000000000</v>
+        <v>23818794000</v>
       </c>
     </row>
     <row r="562">
@@ -25944,16 +25944,16 @@
         <v>16277175800</v>
       </c>
       <c r="K562" t="n">
-        <v>0</v>
+        <v>16277175800</v>
       </c>
       <c r="L562" t="n">
-        <v>48831527400</v>
+        <v>0</v>
       </c>
       <c r="M562" t="n">
-        <v>0</v>
+        <v>7211407000</v>
       </c>
       <c r="N562" t="n">
-        <v>35000000000</v>
+        <v>27788593000</v>
       </c>
     </row>
     <row r="563">
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="L563" t="n">
-        <v>48831527400</v>
+        <v>0</v>
       </c>
       <c r="M563" t="n">
         <v>0</v>
@@ -26035,7 +26035,7 @@
         <v>0</v>
       </c>
       <c r="L564" t="n">
-        <v>48831527400</v>
+        <v>0</v>
       </c>
       <c r="M564" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="L565" t="n">
-        <v>48831527400</v>
+        <v>0</v>
       </c>
       <c r="M565" t="n">
         <v>0</v>
@@ -26122,16 +26122,16 @@
         <v>0</v>
       </c>
       <c r="K566" t="n">
-        <v>48831527400</v>
+        <v>0</v>
       </c>
       <c r="L566" t="n">
-        <v>37227996136</v>
+        <v>0</v>
       </c>
       <c r="M566" t="n">
-        <v>11603531263</v>
+        <v>0</v>
       </c>
       <c r="N566" t="n">
-        <v>36396468736</v>
+        <v>48000000000</v>
       </c>
     </row>
     <row r="567">
@@ -26168,16 +26168,16 @@
         <v>0</v>
       </c>
       <c r="K567" t="n">
-        <v>48831527400</v>
+        <v>0</v>
       </c>
       <c r="L567" t="n">
-        <v>25382724637</v>
+        <v>0</v>
       </c>
       <c r="M567" t="n">
-        <v>11845271498</v>
+        <v>0</v>
       </c>
       <c r="N567" t="n">
-        <v>37154728501</v>
+        <v>49000000000</v>
       </c>
     </row>
     <row r="568">
@@ -26214,16 +26214,16 @@
         <v>0</v>
       </c>
       <c r="K568" t="n">
-        <v>48831527400</v>
+        <v>0</v>
       </c>
       <c r="L568" t="n">
-        <v>12328751965</v>
+        <v>0</v>
       </c>
       <c r="M568" t="n">
-        <v>13053972671</v>
+        <v>0</v>
       </c>
       <c r="N568" t="n">
-        <v>40946027328</v>
+        <v>54000000000</v>
       </c>
     </row>
     <row r="569">
@@ -26260,16 +26260,16 @@
         <v>0</v>
       </c>
       <c r="K569" t="n">
-        <v>48831527400</v>
+        <v>0</v>
       </c>
       <c r="L569" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M569" t="n">
-        <v>12328751967</v>
+        <v>0</v>
       </c>
       <c r="N569" t="n">
-        <v>38671248032</v>
+        <v>51000000000</v>
       </c>
     </row>
     <row r="570">
@@ -26306,16 +26306,16 @@
         <v>6398553400</v>
       </c>
       <c r="K570" t="n">
-        <v>-2</v>
+        <v>6398553400</v>
       </c>
       <c r="L570" t="n">
-        <v>6398553398</v>
+        <v>5198824637</v>
       </c>
       <c r="M570" t="n">
-        <v>0</v>
+        <v>1199728762</v>
       </c>
       <c r="N570" t="n">
-        <v>24000000000</v>
+        <v>22800271237</v>
       </c>
     </row>
     <row r="571">
@@ -26352,16 +26352,16 @@
         <v>6398553400</v>
       </c>
       <c r="K571" t="n">
-        <v>-2</v>
+        <v>6398553400</v>
       </c>
       <c r="L571" t="n">
-        <v>12797106798</v>
+        <v>2999321905</v>
       </c>
       <c r="M571" t="n">
-        <v>0</v>
+        <v>2199502731</v>
       </c>
       <c r="N571" t="n">
-        <v>44000000000</v>
+        <v>41800497268</v>
       </c>
     </row>
     <row r="572">
@@ -26398,16 +26398,16 @@
         <v>6398553400</v>
       </c>
       <c r="K572" t="n">
-        <v>-2</v>
+        <v>6398553400</v>
       </c>
       <c r="L572" t="n">
-        <v>19195660198</v>
+        <v>1499660951</v>
       </c>
       <c r="M572" t="n">
-        <v>0</v>
+        <v>1499660953</v>
       </c>
       <c r="N572" t="n">
-        <v>30000000000</v>
+        <v>28500339046</v>
       </c>
     </row>
     <row r="573">
@@ -26444,16 +26444,16 @@
         <v>6398553400</v>
       </c>
       <c r="K573" t="n">
+        <v>6398553400</v>
+      </c>
+      <c r="L573" t="n">
         <v>-2</v>
       </c>
-      <c r="L573" t="n">
-        <v>25594213598</v>
-      </c>
       <c r="M573" t="n">
-        <v>0</v>
+        <v>1499660953</v>
       </c>
       <c r="N573" t="n">
-        <v>30000000000</v>
+        <v>28500339046</v>
       </c>
     </row>
     <row r="574">
@@ -26490,16 +26490,16 @@
         <v>0</v>
       </c>
       <c r="K574" t="n">
-        <v>25594213598</v>
+        <v>-2</v>
       </c>
       <c r="L574" t="n">
-        <v>13960480144</v>
+        <v>-1</v>
       </c>
       <c r="M574" t="n">
-        <v>11633733453</v>
+        <v>0</v>
       </c>
       <c r="N574" t="n">
-        <v>13366266546</v>
+        <v>25000000000</v>
       </c>
     </row>
     <row r="575">
@@ -26536,16 +26536,16 @@
         <v>0</v>
       </c>
       <c r="K575" t="n">
-        <v>25594213598</v>
+        <v>-2</v>
       </c>
       <c r="L575" t="n">
         <v>0</v>
       </c>
       <c r="M575" t="n">
-        <v>13960480144</v>
+        <v>-1</v>
       </c>
       <c r="N575" t="n">
-        <v>16039519855</v>
+        <v>30000000001</v>
       </c>
     </row>
     <row r="576">
@@ -26582,16 +26582,16 @@
         <v>12161641600</v>
       </c>
       <c r="K576" t="n">
-        <v>0</v>
+        <v>12161641600</v>
       </c>
       <c r="L576" t="n">
-        <v>12161641600</v>
+        <v>6548576246</v>
       </c>
       <c r="M576" t="n">
-        <v>0</v>
+        <v>5613065353</v>
       </c>
       <c r="N576" t="n">
-        <v>30000000000</v>
+        <v>24386934646</v>
       </c>
     </row>
     <row r="577">
@@ -26628,16 +26628,16 @@
         <v>12161641600</v>
       </c>
       <c r="K577" t="n">
-        <v>0</v>
+        <v>12161641600</v>
       </c>
       <c r="L577" t="n">
-        <v>24323283200</v>
+        <v>0</v>
       </c>
       <c r="M577" t="n">
-        <v>0</v>
+        <v>6548576246</v>
       </c>
       <c r="N577" t="n">
-        <v>35000000000</v>
+        <v>28451423753</v>
       </c>
     </row>
     <row r="578">
@@ -26672,10 +26672,10 @@
         <v>22273141400</v>
       </c>
       <c r="K578" t="n">
-        <v>0</v>
+        <v>22273141400</v>
       </c>
       <c r="L578" t="n">
-        <v>46596424600</v>
+        <v>22273141400</v>
       </c>
       <c r="M578" t="n">
         <v>0</v>
@@ -26716,10 +26716,10 @@
         <v>0</v>
       </c>
       <c r="K579" t="n">
-        <v>0</v>
+        <v>22273141400</v>
       </c>
       <c r="L579" t="n">
-        <v>46596424600</v>
+        <v>22273141400</v>
       </c>
       <c r="M579" t="n">
         <v>0</v>
@@ -26760,10 +26760,10 @@
         <v>0</v>
       </c>
       <c r="K580" t="n">
-        <v>0</v>
+        <v>22273141400</v>
       </c>
       <c r="L580" t="n">
-        <v>46596424600</v>
+        <v>22273141400</v>
       </c>
       <c r="M580" t="n">
         <v>0</v>
@@ -26806,16 +26806,16 @@
         <v>0</v>
       </c>
       <c r="K581" t="n">
-        <v>46596424600</v>
+        <v>22273141400</v>
       </c>
       <c r="L581" t="n">
-        <v>22632549091</v>
+        <v>10818382965</v>
       </c>
       <c r="M581" t="n">
-        <v>23963875508</v>
+        <v>11454758434</v>
       </c>
       <c r="N581" t="n">
-        <v>30036124491</v>
+        <v>42545241565</v>
       </c>
     </row>
     <row r="582">
@@ -26852,16 +26852,16 @@
         <v>0</v>
       </c>
       <c r="K582" t="n">
-        <v>46596424600</v>
+        <v>22273141400</v>
       </c>
       <c r="L582" t="n">
         <v>0</v>
       </c>
       <c r="M582" t="n">
-        <v>22632549091</v>
+        <v>10818382965</v>
       </c>
       <c r="N582" t="n">
-        <v>28367450908</v>
+        <v>40181617034</v>
       </c>
     </row>
     <row r="583">
@@ -26898,16 +26898,16 @@
         <v>6238188600</v>
       </c>
       <c r="K583" t="n">
-        <v>0</v>
+        <v>6238188600</v>
       </c>
       <c r="L583" t="n">
-        <v>6238188600</v>
+        <v>3119094300</v>
       </c>
       <c r="M583" t="n">
-        <v>0</v>
+        <v>3119094300</v>
       </c>
       <c r="N583" t="n">
-        <v>30000000000</v>
+        <v>26880905700</v>
       </c>
     </row>
     <row r="584">
@@ -26944,16 +26944,16 @@
         <v>6238188600</v>
       </c>
       <c r="K584" t="n">
-        <v>0</v>
+        <v>6238188600</v>
       </c>
       <c r="L584" t="n">
-        <v>12476377200</v>
+        <v>0</v>
       </c>
       <c r="M584" t="n">
-        <v>0</v>
+        <v>3119094300</v>
       </c>
       <c r="N584" t="n">
-        <v>30000000000</v>
+        <v>26880905700</v>
       </c>
     </row>
     <row r="585">
@@ -26990,16 +26990,16 @@
         <v>0</v>
       </c>
       <c r="K585" t="n">
-        <v>12476377200</v>
+        <v>0</v>
       </c>
       <c r="L585" t="n">
-        <v>6805296654</v>
+        <v>0</v>
       </c>
       <c r="M585" t="n">
-        <v>5671080545</v>
+        <v>0</v>
       </c>
       <c r="N585" t="n">
-        <v>19328919454</v>
+        <v>25000000000</v>
       </c>
     </row>
     <row r="586">
@@ -27036,16 +27036,16 @@
         <v>0</v>
       </c>
       <c r="K586" t="n">
-        <v>12476377200</v>
+        <v>0</v>
       </c>
       <c r="L586" t="n">
         <v>0</v>
       </c>
       <c r="M586" t="n">
-        <v>6805296654</v>
+        <v>0</v>
       </c>
       <c r="N586" t="n">
-        <v>23194703345</v>
+        <v>30000000000</v>
       </c>
     </row>
     <row r="587">
@@ -27082,16 +27082,16 @@
         <v>11550602300</v>
       </c>
       <c r="K587" t="n">
-        <v>0</v>
+        <v>11550602300</v>
       </c>
       <c r="L587" t="n">
-        <v>11550602300</v>
+        <v>6219555084</v>
       </c>
       <c r="M587" t="n">
-        <v>0</v>
+        <v>5331047215</v>
       </c>
       <c r="N587" t="n">
-        <v>30000000000</v>
+        <v>24668952784</v>
       </c>
     </row>
     <row r="588">
@@ -27128,16 +27128,16 @@
         <v>11550602300</v>
       </c>
       <c r="K588" t="n">
-        <v>0</v>
+        <v>11550602300</v>
       </c>
       <c r="L588" t="n">
-        <v>23101204600</v>
+        <v>0</v>
       </c>
       <c r="M588" t="n">
-        <v>0</v>
+        <v>6219555084</v>
       </c>
       <c r="N588" t="n">
-        <v>35000000000</v>
+        <v>28780444915</v>
       </c>
     </row>
     <row r="589">
@@ -27175,7 +27175,7 @@
         <v>0</v>
       </c>
       <c r="L589" t="n">
-        <v>23101204600</v>
+        <v>0</v>
       </c>
       <c r="M589" t="n">
         <v>0</v>

--- a/.idea/fed_rollover.xlsx
+++ b/.idea/fed_rollover.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N58"/>
+  <dimension ref="A1:N65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3126,6 +3126,314 @@
         <v>0</v>
       </c>
     </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>20090100</v>
+      </c>
+      <c r="B59" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>20090200</v>
+      </c>
+      <c r="B60" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>20090300</v>
+      </c>
+      <c r="B61" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>20090400</v>
+      </c>
+      <c r="B62" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>20090500</v>
+      </c>
+      <c r="B63" t="b">
+        <v>0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>20090600</v>
+      </c>
+      <c r="B64" t="b">
+        <v>0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>20090700</v>
+      </c>
+      <c r="B65" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/.idea/fed_rollover.xlsx
+++ b/.idea/fed_rollover.xlsx
@@ -2470,7 +2470,7 @@
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>6218625100</v>
       </c>
       <c r="D45" t="n">
         <v>620</v>
@@ -2493,19 +2493,19 @@
         <v>20083100</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>6218625100</v>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>6218625101</v>
       </c>
       <c r="L45" t="n">
-        <v>1</v>
+        <v>3391977328</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>2826647773</v>
       </c>
       <c r="N45" t="n">
-        <v>50000000000</v>
+        <v>47173352227</v>
       </c>
     </row>
     <row r="46">
@@ -2516,7 +2516,7 @@
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>6218625100</v>
       </c>
       <c r="D46" t="n">
         <v>621</v>
@@ -2539,19 +2539,19 @@
         <v>20082700</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>6218625100</v>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>6218625101</v>
       </c>
       <c r="L46" t="n">
-        <v>1</v>
+        <v>1695988665</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1695988663</v>
       </c>
       <c r="N46" t="n">
-        <v>30000000000</v>
+        <v>28304011337</v>
       </c>
     </row>
     <row r="47">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>6218625100</v>
       </c>
       <c r="D47" t="n">
         <v>622</v>
@@ -2585,19 +2585,19 @@
         <v>20082700</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>6218625100</v>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
+        <v>6218625101</v>
       </c>
       <c r="L47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>1695988663</v>
       </c>
       <c r="N47" t="n">
-        <v>30000000000</v>
+        <v>28304011337</v>
       </c>
     </row>
     <row r="48">
@@ -2638,10 +2638,10 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
@@ -2688,10 +2688,10 @@
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
@@ -2738,10 +2738,10 @@
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
@@ -2788,10 +2788,10 @@
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
@@ -2808,7 +2808,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>8672784200</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -2835,19 +2835,19 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>8672784200</v>
       </c>
       <c r="K52" t="n">
-        <v>1</v>
+        <v>8672784202</v>
       </c>
       <c r="L52" t="n">
-        <v>1</v>
+        <v>6349717006</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>2323067196</v>
       </c>
       <c r="N52" t="n">
-        <v>30000000000</v>
+        <v>27676932804</v>
       </c>
     </row>
     <row r="53">
@@ -2858,7 +2858,7 @@
         <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>8672784200</v>
       </c>
       <c r="D53" t="n">
         <v>1</v>
@@ -2885,19 +2885,19 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>8672784200</v>
       </c>
       <c r="K53" t="n">
-        <v>1</v>
+        <v>8672784202</v>
       </c>
       <c r="L53" t="n">
-        <v>1</v>
+        <v>3639471943</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>2710245063</v>
       </c>
       <c r="N53" t="n">
-        <v>35000000000</v>
+        <v>32289754937</v>
       </c>
     </row>
     <row r="54">
@@ -2908,7 +2908,7 @@
         <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>8672784200</v>
       </c>
       <c r="D54" t="n">
         <v>2</v>
@@ -2935,19 +2935,19 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>8672784200</v>
       </c>
       <c r="K54" t="n">
-        <v>1</v>
+        <v>8672784202</v>
       </c>
       <c r="L54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>3639471941</v>
       </c>
       <c r="N54" t="n">
-        <v>47000000000</v>
+        <v>43360528059</v>
       </c>
     </row>
     <row r="55">
@@ -2982,10 +2982,10 @@
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
@@ -3026,10 +3026,10 @@
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
@@ -3070,10 +3070,10 @@
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
@@ -3090,7 +3090,7 @@
         <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>15637301200</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -3111,13 +3111,13 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>15637301200</v>
       </c>
       <c r="K58" t="n">
-        <v>1</v>
+        <v>15637301202</v>
       </c>
       <c r="L58" t="n">
-        <v>1</v>
+        <v>15637301202</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
@@ -3134,7 +3134,7 @@
         <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>6097975400</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -3155,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>6097975400</v>
       </c>
       <c r="K59" t="n">
-        <v>1</v>
+        <v>21735276602</v>
       </c>
       <c r="L59" t="n">
-        <v>1</v>
+        <v>21735276602</v>
       </c>
       <c r="M59" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>1</v>
+        <v>21735276602</v>
       </c>
       <c r="L60" t="n">
-        <v>1</v>
+        <v>21735276602</v>
       </c>
       <c r="M60" t="n">
         <v>0</v>
@@ -3222,7 +3222,7 @@
         <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>12700077000</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>12700077000</v>
       </c>
       <c r="K61" t="n">
-        <v>1</v>
+        <v>34435353602</v>
       </c>
       <c r="L61" t="n">
-        <v>1</v>
+        <v>34435353602</v>
       </c>
       <c r="M61" t="n">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>1</v>
+        <v>34435353602</v>
       </c>
       <c r="L62" t="n">
-        <v>1</v>
+        <v>34435353602</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
@@ -3334,10 +3334,10 @@
         <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>1</v>
+        <v>34435353602</v>
       </c>
       <c r="L63" t="n">
-        <v>1</v>
+        <v>34435353602</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
@@ -3378,10 +3378,10 @@
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>1</v>
+        <v>34435353602</v>
       </c>
       <c r="L64" t="n">
-        <v>1</v>
+        <v>34435353602</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
@@ -3422,10 +3422,10 @@
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>1</v>
+        <v>34435353602</v>
       </c>
       <c r="L65" t="n">
-        <v>1</v>
+        <v>34435353602</v>
       </c>
       <c r="M65" t="n">
         <v>0</v>

--- a/.idea/fed_rollover.xlsx
+++ b/.idea/fed_rollover.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N65"/>
+  <dimension ref="A1:N141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,31 +508,33 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>20080100</v>
+        <v>20070100</v>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>58</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
+        <v>320</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>9127964J5</t>
+        </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>55000000000</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>25000000000</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>20070700</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -547,36 +549,38 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>25000000000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>20080200</v>
+        <v>20070100</v>
       </c>
       <c r="B3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
+        <v>321</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>9127965B1</t>
+        </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>55000000000</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>30000000000</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>20070700</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -591,222 +595,216 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>30000000000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>20080300</v>
+        <v>20070200</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>13530083800</v>
       </c>
       <c r="D4" t="n">
-        <v>60</v>
+        <v>322</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>912796TP4</t>
+          <t>9127963M9</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>105000000000</v>
+        <v>90000000000</v>
       </c>
       <c r="G4" t="n">
-        <v>54000000000</v>
+        <v>45000000000</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5142857142857142</v>
+        <v>0.5</v>
       </c>
       <c r="I4" t="n">
-        <v>20080600</v>
+        <v>20070700</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>13530083800</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>13530083800</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>6765041900</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>6765041900</v>
       </c>
       <c r="N4" t="n">
-        <v>54000000000</v>
+        <v>38234958100</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>20080300</v>
+        <v>20070200</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>13530083800</v>
       </c>
       <c r="D5" t="n">
-        <v>61</v>
+        <v>323</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>9127963W7</t>
+          <t>9127963R8</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>105000000000</v>
+        <v>90000000000</v>
       </c>
       <c r="G5" t="n">
-        <v>51000000000</v>
+        <v>45000000000</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4857142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="I5" t="n">
-        <v>20080600</v>
+        <v>20070700</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>13530083800</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>13530083800</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>6765041900</v>
       </c>
       <c r="N5" t="n">
-        <v>51000000000</v>
+        <v>38234958100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>20080400</v>
+        <v>20070300</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>6238188600</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>62</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>9127962G3</t>
-        </is>
+        <v>324</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>60000000000</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>30000000000</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>20080600</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>6238188600</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>6238188600</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>3119094300</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>3119094300</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>26880905700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>20080400</v>
+        <v>20070400</v>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>6238188600</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>63</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>912796TU3</t>
-        </is>
+        <v>325</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>60000000000</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>30000000000</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>20080600</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>6238188600</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>6238188600</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>3119094300</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>26880905700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>20080500</v>
+        <v>20070500</v>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>64</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>9127964T3</t>
-        </is>
+        <v>326</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>55000000000</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>25000000000</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4545454545454545</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>20081100</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -821,12 +819,12 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>25000000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>20080500</v>
+        <v>20070600</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -835,24 +833,24 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>65</v>
+        <v>327</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>912796A66</t>
+          <t>912796TN9</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>55000000000</v>
+        <v>105000000000</v>
       </c>
       <c r="G9" t="n">
-        <v>30000000000</v>
+        <v>54000000000</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="I9" t="n">
-        <v>20081100</v>
+        <v>20070900</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -867,236 +865,242 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>30000000000</v>
+        <v>54000000000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>20080600</v>
+        <v>20070600</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>11550602300</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>66</v>
+        <v>328</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>9127963X5</t>
+          <t>9127963T4</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>65000000000</v>
+        <v>105000000000</v>
       </c>
       <c r="G10" t="n">
-        <v>30000000000</v>
+        <v>51000000000</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="I10" t="n">
-        <v>20081100</v>
+        <v>20070900</v>
       </c>
       <c r="J10" t="n">
-        <v>11550602300</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>11550602300</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6219555085</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>5331047215</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>24668952785</v>
+        <v>51000000000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>20080600</v>
+        <v>20070700</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>11550602300</v>
+        <v>6437622800</v>
       </c>
       <c r="D11" t="n">
-        <v>67</v>
+        <v>329</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>9127964G1</t>
+          <t>912828ZY9</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>65000000000</v>
+        <v>116000000000</v>
       </c>
       <c r="G11" t="n">
-        <v>35000000000</v>
+        <v>46000000000</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.396551724137931</v>
       </c>
       <c r="I11" t="n">
-        <v>20081100</v>
+        <v>20071500</v>
       </c>
       <c r="J11" t="n">
-        <v>11550602300</v>
+        <v>6437622800</v>
       </c>
       <c r="K11" t="n">
-        <v>11550602300</v>
+        <v>6437622800</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>3884772380</v>
       </c>
       <c r="M11" t="n">
-        <v>6219555084</v>
+        <v>2552850420</v>
       </c>
       <c r="N11" t="n">
-        <v>28780444916</v>
+        <v>43447149580</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>20080700</v>
+        <v>20070700</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>6437622800</v>
       </c>
       <c r="D12" t="n">
-        <v>68</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
+        <v>330</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>912796XF1</t>
+        </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>116000000000</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>35000000000</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>0.3017241379310345</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>20070900</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>6437622800</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>6437622800</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>1942386191</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1942386189</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>33057613811</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>20080800</v>
+        <v>20070700</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>6437622800</v>
       </c>
       <c r="D13" t="n">
-        <v>588</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
+        <v>331</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>912796TP4</t>
+        </is>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>116000000000</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>35000000000</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.3017241379310345</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>20070900</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>6437622800</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>6437622800</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1942386189</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>33057613811</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>20080900</v>
+        <v>20070800</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>589</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
+        <v>332</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>912828ZQ6</t>
+        </is>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>84000000000</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>29000000000</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>0.3452380952380952</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>20071500</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>29000000000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>20081000</v>
+        <v>20070800</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -1105,44 +1109,44 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>590</v>
+        <v>333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>9127962Z1</t>
+          <t>9127964K2</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>105000000000</v>
+        <v>84000000000</v>
       </c>
       <c r="G15" t="n">
-        <v>54000000000</v>
+        <v>25000000000</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5142857142857142</v>
+        <v>0.2976190476190476</v>
       </c>
       <c r="I15" t="n">
-        <v>20081300</v>
+        <v>20071400</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>54000000000</v>
+        <v>25000000000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>20081000</v>
+        <v>20070800</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -1151,320 +1155,316 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>591</v>
+        <v>334</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>9127964C0</t>
+          <t>9127965C9</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>105000000000</v>
+        <v>84000000000</v>
       </c>
       <c r="G16" t="n">
-        <v>51000000000</v>
+        <v>30000000000</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4857142857142857</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="I16" t="n">
-        <v>20081300</v>
+        <v>20071400</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>51000000000</v>
+        <v>30000000000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>20081100</v>
+        <v>20070900</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>6454236100</v>
+        <v>10875237800</v>
       </c>
       <c r="D17" t="n">
-        <v>592</v>
+        <v>335</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>91282CAF8</t>
+          <t>912810SN9</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>142000000000</v>
+        <v>99000000000</v>
       </c>
       <c r="G17" t="n">
-        <v>48000000000</v>
+        <v>19000000000</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3380281690140845</v>
+        <v>0.1919191919191919</v>
       </c>
       <c r="I17" t="n">
-        <v>20081700</v>
+        <v>20071500</v>
       </c>
       <c r="J17" t="n">
-        <v>6454236100</v>
+        <v>10875237800</v>
       </c>
       <c r="K17" t="n">
-        <v>6454236101</v>
+        <v>10875237802</v>
       </c>
       <c r="L17" t="n">
-        <v>4272522490</v>
+        <v>8788070952</v>
       </c>
       <c r="M17" t="n">
-        <v>2181713611</v>
+        <v>2087166850</v>
       </c>
       <c r="N17" t="n">
-        <v>45818286389</v>
+        <v>16912833150</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>20081100</v>
+        <v>20070900</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>6454236100</v>
+        <v>10875237800</v>
       </c>
       <c r="D18" t="n">
-        <v>593</v>
+        <v>336</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>9127962H1</t>
+          <t>9127963N7</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>142000000000</v>
+        <v>99000000000</v>
       </c>
       <c r="G18" t="n">
-        <v>30000000000</v>
+        <v>40000000000</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2112676056338028</v>
+        <v>0.404040404040404</v>
       </c>
       <c r="I18" t="n">
-        <v>20081300</v>
+        <v>20071400</v>
       </c>
       <c r="J18" t="n">
-        <v>6454236100</v>
+        <v>10875237800</v>
       </c>
       <c r="K18" t="n">
-        <v>6454236101</v>
+        <v>10875237802</v>
       </c>
       <c r="L18" t="n">
-        <v>2908951483</v>
+        <v>4394035477</v>
       </c>
       <c r="M18" t="n">
-        <v>1363571007</v>
+        <v>4394035475</v>
       </c>
       <c r="N18" t="n">
-        <v>28636428993</v>
+        <v>35605964525</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>20081100</v>
+        <v>20070900</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>6454236100</v>
+        <v>10875237800</v>
       </c>
       <c r="D19" t="n">
-        <v>594</v>
+        <v>337</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>9127963J6</t>
+          <t>9127963X5</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>142000000000</v>
+        <v>99000000000</v>
       </c>
       <c r="G19" t="n">
-        <v>30000000000</v>
+        <v>40000000000</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2112676056338028</v>
+        <v>0.404040404040404</v>
       </c>
       <c r="I19" t="n">
-        <v>20081300</v>
+        <v>20071400</v>
       </c>
       <c r="J19" t="n">
-        <v>6454236100</v>
+        <v>10875237800</v>
       </c>
       <c r="K19" t="n">
-        <v>6454236101</v>
+        <v>10875237802</v>
       </c>
       <c r="L19" t="n">
-        <v>1545380476</v>
+        <v>2</v>
       </c>
       <c r="M19" t="n">
-        <v>1363571007</v>
+        <v>4394035475</v>
       </c>
       <c r="N19" t="n">
-        <v>28636428993</v>
+        <v>35605964525</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>20081100</v>
+        <v>20071000</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>6454236100</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>595</v>
+        <v>338</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>9127964B2</t>
+          <t>912828ZJ2</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>142000000000</v>
+        <v>25000000</v>
       </c>
       <c r="G20" t="n">
-        <v>34000000000</v>
+        <v>25000000</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2394366197183098</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>20081300</v>
+        <v>20071300</v>
       </c>
       <c r="J20" t="n">
-        <v>6454236100</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>6454236101</v>
+        <v>2</v>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>1545380474</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>32454619526</v>
+        <v>24999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>20081200</v>
+        <v>20071100</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>596</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>9127964U0</t>
-        </is>
+        <v>339</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>93000000000</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>25000000000</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2688172043010753</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>20081800</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>25000000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>20081200</v>
+        <v>20071200</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>597</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>912796A74</t>
-        </is>
+        <v>340</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>93000000000</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>30000000000</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3225806451612903</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>20081800</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>30000000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>20081200</v>
+        <v>20071300</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
@@ -1473,250 +1473,254 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>598</v>
+        <v>341</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>91282CAE1</t>
+          <t>9127962R9</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>93000000000</v>
+        <v>105000000000</v>
       </c>
       <c r="G23" t="n">
-        <v>38000000000</v>
+        <v>54000000000</v>
       </c>
       <c r="H23" t="n">
-        <v>0.4086021505376344</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="I23" t="n">
-        <v>20081700</v>
+        <v>20071600</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>38000000000</v>
+        <v>54000000000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>20081300</v>
+        <v>20071300</v>
       </c>
       <c r="B24" t="b">
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>16337596500</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>599</v>
+        <v>342</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>9127963Y3</t>
+          <t>9127963U1</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>91000000000</v>
+        <v>105000000000</v>
       </c>
       <c r="G24" t="n">
-        <v>30000000000</v>
+        <v>51000000000</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3296703296703297</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="I24" t="n">
-        <v>20081800</v>
+        <v>20071600</v>
       </c>
       <c r="J24" t="n">
-        <v>82949911200</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>82949911202</v>
+        <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>55603786630</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>27346124572</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>2653875428</v>
+        <v>51000000000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>20081300</v>
+        <v>20071400</v>
       </c>
       <c r="B25" t="b">
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>16337596500</v>
+        <v>6657527900</v>
       </c>
       <c r="D25" t="n">
-        <v>600</v>
+        <v>343</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>9127964H9</t>
+          <t>912796XG9</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>91000000000</v>
+        <v>104000000000</v>
       </c>
       <c r="G25" t="n">
         <v>35000000000</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.3365384615384616</v>
       </c>
       <c r="I25" t="n">
-        <v>20081800</v>
+        <v>20071600</v>
       </c>
       <c r="J25" t="n">
-        <v>16337596500</v>
+        <v>6657527900</v>
       </c>
       <c r="K25" t="n">
-        <v>82949911202</v>
+        <v>6657527901</v>
       </c>
       <c r="L25" t="n">
-        <v>23699974630</v>
+        <v>4417013704</v>
       </c>
       <c r="M25" t="n">
-        <v>31903812000</v>
+        <v>2240514197</v>
       </c>
       <c r="N25" t="n">
-        <v>3096188000</v>
+        <v>32759485803</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>20081300</v>
+        <v>20071400</v>
       </c>
       <c r="B26" t="b">
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>16337596500</v>
+        <v>6657527900</v>
       </c>
       <c r="D26" t="n">
-        <v>601</v>
+        <v>344</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>912810SP4</t>
+          <t>9127962Z1</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>91000000000</v>
+        <v>104000000000</v>
       </c>
       <c r="G26" t="n">
-        <v>26000000000</v>
+        <v>35000000000</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.3365384615384616</v>
       </c>
       <c r="I26" t="n">
-        <v>20081700</v>
+        <v>20071600</v>
       </c>
       <c r="J26" t="n">
-        <v>16337596500</v>
+        <v>6657527900</v>
       </c>
       <c r="K26" t="n">
-        <v>82949911202</v>
+        <v>6657527901</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>2176499507</v>
       </c>
       <c r="M26" t="n">
-        <v>23699974629</v>
+        <v>2240514197</v>
       </c>
       <c r="N26" t="n">
-        <v>2300025371</v>
+        <v>32759485803</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>20081400</v>
+        <v>20071400</v>
       </c>
       <c r="B27" t="b">
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>6657527900</v>
       </c>
       <c r="D27" t="n">
-        <v>602</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
+        <v>345</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>9127963S6</t>
+        </is>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>104000000000</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>34000000000</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>0.3269230769230769</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>20071600</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>6657527900</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>6657527901</v>
       </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>2176499506</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>31823500494</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>20081500</v>
+        <v>20071500</v>
       </c>
       <c r="B28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>66612314700</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>603</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
+        <v>346</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>9127964Q9</t>
+        </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>55000000000</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>25000000000</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>20072100</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1731,36 +1735,38 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>25000000000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>20081600</v>
+        <v>20071500</v>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>604</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
+        <v>347</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>9127965D7</t>
+        </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>55000000000</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>30000000000</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>20072100</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1775,222 +1781,216 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>30000000000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>20081700</v>
+        <v>20071600</v>
       </c>
       <c r="B30" t="b">
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>18724230800</v>
       </c>
       <c r="D30" t="n">
-        <v>605</v>
+        <v>348</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>9127963A5</t>
+          <t>9127963P2</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>105000000000</v>
+        <v>70000000000</v>
       </c>
       <c r="G30" t="n">
-        <v>54000000000</v>
+        <v>35000000000</v>
       </c>
       <c r="H30" t="n">
-        <v>0.5142857142857142</v>
+        <v>0.5</v>
       </c>
       <c r="I30" t="n">
-        <v>20082000</v>
+        <v>20072100</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>18724230800</v>
       </c>
       <c r="K30" t="n">
-        <v>1</v>
+        <v>18724230801</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>9362115401</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>9362115400</v>
       </c>
       <c r="N30" t="n">
-        <v>54000000000</v>
+        <v>25637884600</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>20081700</v>
+        <v>20071600</v>
       </c>
       <c r="B31" t="b">
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>18724230800</v>
       </c>
       <c r="D31" t="n">
-        <v>606</v>
+        <v>349</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>9127964D8</t>
+          <t>9127963Y3</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>105000000000</v>
+        <v>70000000000</v>
       </c>
       <c r="G31" t="n">
-        <v>51000000000</v>
+        <v>35000000000</v>
       </c>
       <c r="H31" t="n">
-        <v>0.4857142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="I31" t="n">
-        <v>20082000</v>
+        <v>20072100</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>18724230800</v>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>18724230801</v>
       </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>9362115400</v>
       </c>
       <c r="N31" t="n">
-        <v>51000000000</v>
+        <v>25637884600</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>20081800</v>
+        <v>20071700</v>
       </c>
       <c r="B32" t="b">
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>5394534600</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>607</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>9127962J7</t>
-        </is>
+        <v>350</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>60000000000</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>30000000000</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>20082000</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>5394534600</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>5394534601</v>
+        <v>1</v>
       </c>
       <c r="L32" t="n">
-        <v>2697267301</v>
+        <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>2697267300</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>27302732700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>20081800</v>
+        <v>20071800</v>
       </c>
       <c r="B33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>5394534600</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>608</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>9127963K3</t>
-        </is>
+        <v>351</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>60000000000</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>30000000000</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>20082000</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>5394534600</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>5394534601</v>
+        <v>1</v>
       </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
       <c r="M33" t="n">
-        <v>2697267300</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>27302732700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>20081900</v>
+        <v>20071900</v>
       </c>
       <c r="B34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>609</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>912810SQ2</t>
-        </is>
+        <v>352</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>80000000000</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>25000000000</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3125</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>20083100</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -2005,12 +2005,12 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>25000000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>20081900</v>
+        <v>20072000</v>
       </c>
       <c r="B35" t="b">
         <v>1</v>
@@ -2019,24 +2019,24 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>610</v>
+        <v>353</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>9127965B1</t>
+          <t>9127962S7</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>80000000000</v>
+        <v>105000000000</v>
       </c>
       <c r="G35" t="n">
-        <v>25000000000</v>
+        <v>54000000000</v>
       </c>
       <c r="H35" t="n">
-        <v>0.3125</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="I35" t="n">
-        <v>20082500</v>
+        <v>20072300</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -2051,12 +2051,12 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>25000000000</v>
+        <v>54000000000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>20081900</v>
+        <v>20072000</v>
       </c>
       <c r="B36" t="b">
         <v>1</v>
@@ -2065,24 +2065,24 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>611</v>
+        <v>354</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>912796A82</t>
+          <t>9127963V9</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>80000000000</v>
+        <v>105000000000</v>
       </c>
       <c r="G36" t="n">
-        <v>30000000000</v>
+        <v>51000000000</v>
       </c>
       <c r="H36" t="n">
-        <v>0.375</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="I36" t="n">
-        <v>20082500</v>
+        <v>20072300</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -2097,150 +2097,150 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>30000000000</v>
+        <v>51000000000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>20082000</v>
+        <v>20072100</v>
       </c>
       <c r="B37" t="b">
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>13479396000</v>
+        <v>5332930800</v>
       </c>
       <c r="D37" t="n">
-        <v>612</v>
+        <v>355</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>912810SM1</t>
+          <t>912796XH7</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>72000000000</v>
+        <v>80000000000</v>
       </c>
       <c r="G37" t="n">
-        <v>7000000000</v>
+        <v>30000000000</v>
       </c>
       <c r="H37" t="n">
-        <v>0.09722222222222222</v>
+        <v>0.375</v>
       </c>
       <c r="I37" t="n">
-        <v>20083100</v>
+        <v>20072300</v>
       </c>
       <c r="J37" t="n">
-        <v>13479396000</v>
+        <v>5332930800</v>
       </c>
       <c r="K37" t="n">
-        <v>13479396001</v>
+        <v>5332930801</v>
       </c>
       <c r="L37" t="n">
-        <v>12168899168</v>
+        <v>3333081751</v>
       </c>
       <c r="M37" t="n">
-        <v>1310496833</v>
+        <v>1999849050</v>
       </c>
       <c r="N37" t="n">
-        <v>5689503167</v>
+        <v>28000150950</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>20082000</v>
+        <v>20072100</v>
       </c>
       <c r="B38" t="b">
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>13479396000</v>
+        <v>5332930800</v>
       </c>
       <c r="D38" t="n">
-        <v>613</v>
+        <v>356</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>9127963Z0</t>
+          <t>9127963A5</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>72000000000</v>
+        <v>80000000000</v>
       </c>
       <c r="G38" t="n">
         <v>30000000000</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.375</v>
       </c>
       <c r="I38" t="n">
-        <v>20082500</v>
+        <v>20072300</v>
       </c>
       <c r="J38" t="n">
-        <v>13479396000</v>
+        <v>5332930800</v>
       </c>
       <c r="K38" t="n">
-        <v>13479396001</v>
+        <v>5332930801</v>
       </c>
       <c r="L38" t="n">
-        <v>6552484168</v>
+        <v>1333232701</v>
       </c>
       <c r="M38" t="n">
-        <v>5616415000</v>
+        <v>1999849050</v>
       </c>
       <c r="N38" t="n">
-        <v>24383585000</v>
+        <v>28000150950</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>20082000</v>
+        <v>20072100</v>
       </c>
       <c r="B39" t="b">
         <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>13479396000</v>
+        <v>5332930800</v>
       </c>
       <c r="D39" t="n">
-        <v>614</v>
+        <v>357</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>9127964J5</t>
+          <t>9127962Q1</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>72000000000</v>
+        <v>80000000000</v>
       </c>
       <c r="G39" t="n">
-        <v>35000000000</v>
+        <v>20000000000</v>
       </c>
       <c r="H39" t="n">
-        <v>0.4861111111111111</v>
+        <v>0.25</v>
       </c>
       <c r="I39" t="n">
-        <v>20082500</v>
+        <v>20072300</v>
       </c>
       <c r="J39" t="n">
-        <v>13479396000</v>
+        <v>5332930800</v>
       </c>
       <c r="K39" t="n">
-        <v>13479396001</v>
+        <v>5332930801</v>
       </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
       <c r="M39" t="n">
-        <v>6552484167</v>
+        <v>1333232700</v>
       </c>
       <c r="N39" t="n">
-        <v>28447515833</v>
+        <v>18666767300</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>20082100</v>
+        <v>20072200</v>
       </c>
       <c r="B40" t="b">
         <v>1</v>
@@ -2249,22 +2249,24 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>615</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
+        <v>358</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>912810SR0</t>
+        </is>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>72000000000</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>17000000000</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>20073100</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -2279,36 +2281,38 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>17000000000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>20082200</v>
+        <v>20072200</v>
       </c>
       <c r="B41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>616</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
+        <v>359</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>9127964R7</t>
+        </is>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>72000000000</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>25000000000</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>0.3472222222222222</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>20072800</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -2323,36 +2327,38 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>25000000000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>20082300</v>
+        <v>20072200</v>
       </c>
       <c r="B42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>617</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0</v>
+        <v>360</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>9127965F2</t>
+        </is>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>72000000000</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>30000000000</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>20072800</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -2367,292 +2373,282 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>30000000000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>20082400</v>
+        <v>20072300</v>
       </c>
       <c r="B43" t="b">
         <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>16277175800</v>
       </c>
       <c r="D43" t="n">
-        <v>618</v>
+        <v>361</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>9127963B3</t>
+          <t>912828ZZ6</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>105000000000</v>
+        <v>79000000000</v>
       </c>
       <c r="G43" t="n">
-        <v>54000000000</v>
+        <v>14000000000</v>
       </c>
       <c r="H43" t="n">
-        <v>0.5142857142857142</v>
+        <v>0.1772151898734177</v>
       </c>
       <c r="I43" t="n">
-        <v>20082700</v>
+        <v>20073100</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>16277175800</v>
       </c>
       <c r="K43" t="n">
-        <v>1</v>
+        <v>16277175801</v>
       </c>
       <c r="L43" t="n">
-        <v>1</v>
+        <v>13392613001</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>2884562800</v>
       </c>
       <c r="N43" t="n">
-        <v>54000000000</v>
+        <v>11115437200</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>20082400</v>
+        <v>20072300</v>
       </c>
       <c r="B44" t="b">
         <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>16277175800</v>
       </c>
       <c r="D44" t="n">
-        <v>619</v>
+        <v>362</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>912796XE4</t>
+          <t>9127963Q0</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>105000000000</v>
+        <v>79000000000</v>
       </c>
       <c r="G44" t="n">
-        <v>51000000000</v>
+        <v>30000000000</v>
       </c>
       <c r="H44" t="n">
-        <v>0.4857142857142857</v>
+        <v>0.379746835443038</v>
       </c>
       <c r="I44" t="n">
-        <v>20082700</v>
+        <v>20072800</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>16277175800</v>
       </c>
       <c r="K44" t="n">
-        <v>1</v>
+        <v>16277175801</v>
       </c>
       <c r="L44" t="n">
-        <v>1</v>
+        <v>7211407001</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>6181206000</v>
       </c>
       <c r="N44" t="n">
-        <v>51000000000</v>
+        <v>23818794000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>20082500</v>
+        <v>20072300</v>
       </c>
       <c r="B45" t="b">
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>6218625100</v>
+        <v>16277175800</v>
       </c>
       <c r="D45" t="n">
-        <v>620</v>
+        <v>363</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>91282CAG6</t>
+          <t>9127963Z0</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>110000000000</v>
+        <v>79000000000</v>
       </c>
       <c r="G45" t="n">
-        <v>50000000000</v>
+        <v>35000000000</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.4430379746835443</v>
       </c>
       <c r="I45" t="n">
-        <v>20083100</v>
+        <v>20072800</v>
       </c>
       <c r="J45" t="n">
-        <v>6218625100</v>
+        <v>16277175800</v>
       </c>
       <c r="K45" t="n">
-        <v>6218625101</v>
+        <v>16277175801</v>
       </c>
       <c r="L45" t="n">
-        <v>3391977328</v>
+        <v>1</v>
       </c>
       <c r="M45" t="n">
-        <v>2826647773</v>
+        <v>7211407000</v>
       </c>
       <c r="N45" t="n">
-        <v>47173352227</v>
+        <v>27788593000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>20082500</v>
+        <v>20072400</v>
       </c>
       <c r="B46" t="b">
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>6218625100</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>621</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>912796TN9</t>
-        </is>
+        <v>364</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>110000000000</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>30000000000</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2727272727272727</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>20082700</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>6218625100</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>6218625101</v>
+        <v>1</v>
       </c>
       <c r="L46" t="n">
-        <v>1695988665</v>
+        <v>1</v>
       </c>
       <c r="M46" t="n">
-        <v>1695988663</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>28304011337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>20082500</v>
+        <v>20072500</v>
       </c>
       <c r="B47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>6218625100</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>622</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>9127963L1</t>
-        </is>
+        <v>365</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>110000000000</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>30000000000</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.2727272727272727</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>20082700</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>6218625100</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>6218625101</v>
+        <v>1</v>
       </c>
       <c r="L47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M47" t="n">
-        <v>1695988663</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>28304011337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>20082600</v>
+        <v>20072600</v>
       </c>
       <c r="B48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>9127965C9</t>
-        </is>
+        <v>366</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>128000000000</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>25000000000</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.1953125</v>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>20090100</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>25000000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>20082600</v>
+        <v>20072700</v>
       </c>
       <c r="B49" t="b">
         <v>1</v>
@@ -2661,48 +2657,44 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>367</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>912796B65</t>
+          <t>91282CAC5</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>128000000000</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>30000000000</t>
-        </is>
+        <v>202000000000</v>
+      </c>
+      <c r="G49" t="n">
+        <v>48000000000</v>
       </c>
       <c r="H49" t="n">
-        <v>0.234375</v>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>20090100</t>
-        </is>
+        <v>0.2376237623762376</v>
+      </c>
+      <c r="I49" t="n">
+        <v>20073100</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>30000000000</v>
+        <v>48000000000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>20082600</v>
+        <v>20072700</v>
       </c>
       <c r="B50" t="b">
         <v>1</v>
@@ -2711,48 +2703,44 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>2</v>
+        <v>368</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>91282CAJ0</t>
+          <t>91282CAB7</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>128000000000</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>51000000000</t>
-        </is>
+        <v>202000000000</v>
+      </c>
+      <c r="G50" t="n">
+        <v>49000000000</v>
       </c>
       <c r="H50" t="n">
-        <v>0.3984375</v>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>20083100</t>
-        </is>
+        <v>0.2425742574257426</v>
+      </c>
+      <c r="I50" t="n">
+        <v>20073100</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>51000000000</v>
+        <v>49000000000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>20082600</v>
+        <v>20072700</v>
       </c>
       <c r="B51" t="b">
         <v>1</v>
@@ -2761,310 +2749,300 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>3</v>
+        <v>369</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>91282CAA9</t>
+          <t>9127962T5</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>128000000000</v>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>22000000000</t>
-        </is>
+        <v>202000000000</v>
+      </c>
+      <c r="G51" t="n">
+        <v>54000000000</v>
       </c>
       <c r="H51" t="n">
-        <v>0.171875</v>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>20082800</t>
-        </is>
+        <v>0.2673267326732673</v>
+      </c>
+      <c r="I51" t="n">
+        <v>20073000</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>22000000000</v>
+        <v>54000000000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>20082700</v>
+        <v>20072700</v>
       </c>
       <c r="B52" t="b">
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>8672784200</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>9127964A4</t>
+          <t>912796UC1</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>112000000000</v>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>30000000000</t>
-        </is>
+        <v>202000000000</v>
+      </c>
+      <c r="G52" t="n">
+        <v>51000000000</v>
       </c>
       <c r="H52" t="n">
-        <v>0.2678571428571428</v>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>20090100</t>
-        </is>
+        <v>0.2524752475247525</v>
+      </c>
+      <c r="I52" t="n">
+        <v>20073000</v>
       </c>
       <c r="J52" t="n">
-        <v>8672784200</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>8672784202</v>
+        <v>1</v>
       </c>
       <c r="L52" t="n">
-        <v>6349717006</v>
+        <v>1</v>
       </c>
       <c r="M52" t="n">
-        <v>2323067196</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>27676932804</v>
+        <v>51000000000</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>20082700</v>
+        <v>20072800</v>
       </c>
       <c r="B53" t="b">
         <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>8672784200</v>
+        <v>6398553400</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>371</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>9127964K2</t>
+          <t>91282CAA9</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>112000000000</v>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>35000000000</t>
-        </is>
+        <v>128000000000</v>
+      </c>
+      <c r="G53" t="n">
+        <v>24000000000</v>
       </c>
       <c r="H53" t="n">
-        <v>0.3125</v>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>20090100</t>
-        </is>
+        <v>0.1875</v>
+      </c>
+      <c r="I53" t="n">
+        <v>20073100</v>
       </c>
       <c r="J53" t="n">
-        <v>8672784200</v>
+        <v>6398553400</v>
       </c>
       <c r="K53" t="n">
-        <v>8672784202</v>
+        <v>6398553401</v>
       </c>
       <c r="L53" t="n">
-        <v>3639471943</v>
+        <v>5198824639</v>
       </c>
       <c r="M53" t="n">
-        <v>2710245063</v>
+        <v>1199728762</v>
       </c>
       <c r="N53" t="n">
-        <v>32289754937</v>
+        <v>22800271238</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>20082700</v>
+        <v>20072800</v>
       </c>
       <c r="B54" t="b">
         <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>8672784200</v>
+        <v>6398553400</v>
       </c>
       <c r="D54" t="n">
-        <v>2</v>
+        <v>372</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>91282CAH4</t>
+          <t>91282CAD3</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>112000000000</v>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>47000000000</t>
-        </is>
+        <v>128000000000</v>
+      </c>
+      <c r="G54" t="n">
+        <v>44000000000</v>
       </c>
       <c r="H54" t="n">
-        <v>0.4196428571428572</v>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>20083100</t>
-        </is>
+        <v>0.34375</v>
+      </c>
+      <c r="I54" t="n">
+        <v>20073100</v>
       </c>
       <c r="J54" t="n">
-        <v>8672784200</v>
+        <v>6398553400</v>
       </c>
       <c r="K54" t="n">
-        <v>8672784202</v>
+        <v>6398553401</v>
       </c>
       <c r="L54" t="n">
-        <v>2</v>
+        <v>2999321908</v>
       </c>
       <c r="M54" t="n">
-        <v>3639471941</v>
+        <v>2199502731</v>
       </c>
       <c r="N54" t="n">
-        <v>43360528059</v>
+        <v>41800497269</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>20082800</v>
+        <v>20072800</v>
       </c>
       <c r="B55" t="b">
         <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>6398553400</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0</v>
+        <v>373</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>912796TJ8</t>
+        </is>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>128000000000</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>30000000000</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>0.234375</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>20073000</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>6398553400</v>
       </c>
       <c r="K55" t="n">
-        <v>2</v>
+        <v>6398553401</v>
       </c>
       <c r="L55" t="n">
-        <v>2</v>
+        <v>1499660955</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>1499660953</v>
       </c>
       <c r="N55" t="n">
-        <v>0</v>
+        <v>28500339047</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>20082900</v>
+        <v>20072800</v>
       </c>
       <c r="B56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>6398553400</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0</v>
+        <v>374</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>9127963B3</t>
+        </is>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>128000000000</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>30000000000</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>0.234375</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>20073000</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>6398553400</v>
       </c>
       <c r="K56" t="n">
-        <v>2</v>
+        <v>6398553401</v>
       </c>
       <c r="L56" t="n">
         <v>2</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>1499660953</v>
       </c>
       <c r="N56" t="n">
-        <v>0</v>
+        <v>28500339047</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>20083000</v>
+        <v>20072900</v>
       </c>
       <c r="B57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0</v>
+        <v>375</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>9127964S5</t>
+        </is>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>55000000000</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>25000000000</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>20080400</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -3079,153 +3057,159 @@
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
+        <v>25000000000</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>20083100</v>
+        <v>20072900</v>
       </c>
       <c r="B58" t="b">
         <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>15637301200</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
+        <v>376</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>912796A58</t>
+        </is>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>55000000000</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>30000000000</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>20080400</v>
       </c>
       <c r="J58" t="n">
-        <v>15637301200</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>15637301202</v>
+        <v>2</v>
       </c>
       <c r="L58" t="n">
-        <v>15637301202</v>
+        <v>1</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N58" t="n">
-        <v>0</v>
+        <v>29999999999</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>20090100</v>
+        <v>20073000</v>
       </c>
       <c r="B59" t="b">
         <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>6097975400</v>
+        <v>12161641600</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0</v>
+        <v>377</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>9127963R8</t>
+        </is>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>65000000000</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>30000000000</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>20080400</v>
       </c>
       <c r="J59" t="n">
-        <v>6097975400</v>
+        <v>12161641600</v>
       </c>
       <c r="K59" t="n">
-        <v>21735276602</v>
+        <v>12161641601</v>
       </c>
       <c r="L59" t="n">
-        <v>21735276602</v>
+        <v>6548576247</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>5613065354</v>
       </c>
       <c r="N59" t="n">
-        <v>0</v>
+        <v>24386934646</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>20090200</v>
+        <v>20073000</v>
       </c>
       <c r="B60" t="b">
         <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>12161641600</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0</v>
+        <v>378</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>9127964A4</t>
+        </is>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>65000000000</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>35000000000</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>20080400</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>12161641600</v>
       </c>
       <c r="K60" t="n">
-        <v>21735276602</v>
+        <v>12161641601</v>
       </c>
       <c r="L60" t="n">
-        <v>21735276602</v>
+        <v>1</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>6548576246</v>
       </c>
       <c r="N60" t="n">
-        <v>0</v>
+        <v>28451423754</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>20090300</v>
+        <v>20073100</v>
       </c>
       <c r="B61" t="b">
         <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>12700077000</v>
+        <v>22273141400</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>379</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
@@ -3243,13 +3227,13 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>12700077000</v>
+        <v>22273141400</v>
       </c>
       <c r="K61" t="n">
-        <v>34435353602</v>
+        <v>22273141401</v>
       </c>
       <c r="L61" t="n">
-        <v>34435353602</v>
+        <v>22273141401</v>
       </c>
       <c r="M61" t="n">
         <v>0</v>
@@ -3260,16 +3244,16 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>20090400</v>
+        <v>20080100</v>
       </c>
       <c r="B62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
@@ -3290,10 +3274,10 @@
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>34435353602</v>
+        <v>22273141401</v>
       </c>
       <c r="L62" t="n">
-        <v>34435353602</v>
+        <v>22273141401</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
@@ -3304,7 +3288,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>20090500</v>
+        <v>20080200</v>
       </c>
       <c r="B63" t="b">
         <v>0</v>
@@ -3313,7 +3297,7 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>381</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
@@ -3334,10 +3318,10 @@
         <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>34435353602</v>
+        <v>22273141401</v>
       </c>
       <c r="L63" t="n">
-        <v>34435353602</v>
+        <v>22273141401</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
@@ -3348,89 +3332,3581 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>20090600</v>
+        <v>20080300</v>
       </c>
       <c r="B64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0</v>
+        <v>382</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>912796TP4</t>
+        </is>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>105000000000</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>54000000000</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>20080600</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>34435353602</v>
+        <v>22273141401</v>
       </c>
       <c r="L64" t="n">
-        <v>34435353602</v>
+        <v>10818382967</v>
       </c>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>11454758434</v>
       </c>
       <c r="N64" t="n">
-        <v>0</v>
+        <v>42545241566</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
+        <v>20080300</v>
+      </c>
+      <c r="B65" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>383</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>9127963W7</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>105000000000</v>
+      </c>
+      <c r="G65" t="n">
+        <v>51000000000</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.4857142857142857</v>
+      </c>
+      <c r="I65" t="n">
+        <v>20080600</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>22273141401</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="n">
+        <v>10818382966</v>
+      </c>
+      <c r="N65" t="n">
+        <v>40181617034</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>20080400</v>
+      </c>
+      <c r="B66" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" t="n">
+        <v>6238188600</v>
+      </c>
+      <c r="D66" t="n">
+        <v>384</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>9127962G3</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>60000000000</v>
+      </c>
+      <c r="G66" t="n">
+        <v>30000000000</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I66" t="n">
+        <v>20080600</v>
+      </c>
+      <c r="J66" t="n">
+        <v>6238188600</v>
+      </c>
+      <c r="K66" t="n">
+        <v>6238188601</v>
+      </c>
+      <c r="L66" t="n">
+        <v>3119094301</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3119094300</v>
+      </c>
+      <c r="N66" t="n">
+        <v>26880905700</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>20080400</v>
+      </c>
+      <c r="B67" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" t="n">
+        <v>6238188600</v>
+      </c>
+      <c r="D67" t="n">
+        <v>385</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>912796TU3</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>60000000000</v>
+      </c>
+      <c r="G67" t="n">
+        <v>30000000000</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I67" t="n">
+        <v>20080600</v>
+      </c>
+      <c r="J67" t="n">
+        <v>6238188600</v>
+      </c>
+      <c r="K67" t="n">
+        <v>6238188601</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3119094300</v>
+      </c>
+      <c r="N67" t="n">
+        <v>26880905700</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>20080500</v>
+      </c>
+      <c r="B68" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>386</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>9127964T3</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>55000000000</v>
+      </c>
+      <c r="G68" t="n">
+        <v>25000000000</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="I68" t="n">
+        <v>20081100</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>25000000000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>20080500</v>
+      </c>
+      <c r="B69" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>387</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>912796A66</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>55000000000</v>
+      </c>
+      <c r="G69" t="n">
+        <v>30000000000</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="I69" t="n">
+        <v>20081100</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>30000000000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>20080600</v>
+      </c>
+      <c r="B70" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" t="n">
+        <v>11550602300</v>
+      </c>
+      <c r="D70" t="n">
+        <v>388</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>9127963X5</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>65000000000</v>
+      </c>
+      <c r="G70" t="n">
+        <v>30000000000</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="I70" t="n">
+        <v>20081100</v>
+      </c>
+      <c r="J70" t="n">
+        <v>11550602300</v>
+      </c>
+      <c r="K70" t="n">
+        <v>11550602301</v>
+      </c>
+      <c r="L70" t="n">
+        <v>6219555086</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5331047215</v>
+      </c>
+      <c r="N70" t="n">
+        <v>24668952785</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>20080600</v>
+      </c>
+      <c r="B71" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" t="n">
+        <v>11550602300</v>
+      </c>
+      <c r="D71" t="n">
+        <v>389</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>9127964G1</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>65000000000</v>
+      </c>
+      <c r="G71" t="n">
+        <v>35000000000</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="I71" t="n">
+        <v>20081100</v>
+      </c>
+      <c r="J71" t="n">
+        <v>11550602300</v>
+      </c>
+      <c r="K71" t="n">
+        <v>11550602301</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="n">
+        <v>6219555085</v>
+      </c>
+      <c r="N71" t="n">
+        <v>28780444915</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>20080700</v>
+      </c>
+      <c r="B72" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>390</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>20080800</v>
+      </c>
+      <c r="B73" t="b">
+        <v>0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>391</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>20080900</v>
+      </c>
+      <c r="B74" t="b">
+        <v>0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>392</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>20081000</v>
+      </c>
+      <c r="B75" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>393</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>9127962Z1</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>105000000000</v>
+      </c>
+      <c r="G75" t="n">
+        <v>54000000000</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="I75" t="n">
+        <v>20081300</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>54000000000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>20081000</v>
+      </c>
+      <c r="B76" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>394</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>9127964C0</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>105000000000</v>
+      </c>
+      <c r="G76" t="n">
+        <v>51000000000</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.4857142857142857</v>
+      </c>
+      <c r="I76" t="n">
+        <v>20081300</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>51000000000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>20081100</v>
+      </c>
+      <c r="B77" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" t="n">
+        <v>6454236100</v>
+      </c>
+      <c r="D77" t="n">
+        <v>395</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>91282CAF8</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>142000000000</v>
+      </c>
+      <c r="G77" t="n">
+        <v>48000000000</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.3380281690140845</v>
+      </c>
+      <c r="I77" t="n">
+        <v>20081700</v>
+      </c>
+      <c r="J77" t="n">
+        <v>6454236100</v>
+      </c>
+      <c r="K77" t="n">
+        <v>6454236101</v>
+      </c>
+      <c r="L77" t="n">
+        <v>4272522490</v>
+      </c>
+      <c r="M77" t="n">
+        <v>2181713611</v>
+      </c>
+      <c r="N77" t="n">
+        <v>45818286389</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>20081100</v>
+      </c>
+      <c r="B78" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" t="n">
+        <v>6454236100</v>
+      </c>
+      <c r="D78" t="n">
+        <v>396</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>9127962H1</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>142000000000</v>
+      </c>
+      <c r="G78" t="n">
+        <v>30000000000</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.2112676056338028</v>
+      </c>
+      <c r="I78" t="n">
+        <v>20081300</v>
+      </c>
+      <c r="J78" t="n">
+        <v>6454236100</v>
+      </c>
+      <c r="K78" t="n">
+        <v>6454236101</v>
+      </c>
+      <c r="L78" t="n">
+        <v>2908951483</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1363571007</v>
+      </c>
+      <c r="N78" t="n">
+        <v>28636428993</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>20081100</v>
+      </c>
+      <c r="B79" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" t="n">
+        <v>6454236100</v>
+      </c>
+      <c r="D79" t="n">
+        <v>397</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>9127963J6</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>142000000000</v>
+      </c>
+      <c r="G79" t="n">
+        <v>30000000000</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.2112676056338028</v>
+      </c>
+      <c r="I79" t="n">
+        <v>20081300</v>
+      </c>
+      <c r="J79" t="n">
+        <v>6454236100</v>
+      </c>
+      <c r="K79" t="n">
+        <v>6454236101</v>
+      </c>
+      <c r="L79" t="n">
+        <v>1545380476</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1363571007</v>
+      </c>
+      <c r="N79" t="n">
+        <v>28636428993</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>20081100</v>
+      </c>
+      <c r="B80" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" t="n">
+        <v>6454236100</v>
+      </c>
+      <c r="D80" t="n">
+        <v>398</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>9127964B2</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>142000000000</v>
+      </c>
+      <c r="G80" t="n">
+        <v>34000000000</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.2394366197183098</v>
+      </c>
+      <c r="I80" t="n">
+        <v>20081300</v>
+      </c>
+      <c r="J80" t="n">
+        <v>6454236100</v>
+      </c>
+      <c r="K80" t="n">
+        <v>6454236101</v>
+      </c>
+      <c r="L80" t="n">
+        <v>2</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1545380474</v>
+      </c>
+      <c r="N80" t="n">
+        <v>32454619526</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>20081200</v>
+      </c>
+      <c r="B81" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>399</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>9127964U0</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>93000000000</v>
+      </c>
+      <c r="G81" t="n">
+        <v>25000000000</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.2688172043010753</v>
+      </c>
+      <c r="I81" t="n">
+        <v>20081800</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>2</v>
+      </c>
+      <c r="L81" t="n">
+        <v>2</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>25000000000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>20081200</v>
+      </c>
+      <c r="B82" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>400</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>912796A74</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>93000000000</v>
+      </c>
+      <c r="G82" t="n">
+        <v>30000000000</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.3225806451612903</v>
+      </c>
+      <c r="I82" t="n">
+        <v>20081800</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>2</v>
+      </c>
+      <c r="L82" t="n">
+        <v>2</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>30000000000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>20081200</v>
+      </c>
+      <c r="B83" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>401</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>91282CAE1</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>93000000000</v>
+      </c>
+      <c r="G83" t="n">
+        <v>38000000000</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.4086021505376344</v>
+      </c>
+      <c r="I83" t="n">
+        <v>20081700</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>2</v>
+      </c>
+      <c r="L83" t="n">
+        <v>2</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>38000000000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>20081300</v>
+      </c>
+      <c r="B84" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" t="n">
+        <v>16337596500</v>
+      </c>
+      <c r="D84" t="n">
+        <v>402</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>9127963Y3</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>91000000000</v>
+      </c>
+      <c r="G84" t="n">
+        <v>30000000000</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.3296703296703297</v>
+      </c>
+      <c r="I84" t="n">
+        <v>20081800</v>
+      </c>
+      <c r="J84" t="n">
+        <v>82949911200</v>
+      </c>
+      <c r="K84" t="n">
+        <v>82949911202</v>
+      </c>
+      <c r="L84" t="n">
+        <v>55603786630</v>
+      </c>
+      <c r="M84" t="n">
+        <v>27346124572</v>
+      </c>
+      <c r="N84" t="n">
+        <v>2653875428</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>20081300</v>
+      </c>
+      <c r="B85" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" t="n">
+        <v>16337596500</v>
+      </c>
+      <c r="D85" t="n">
+        <v>403</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>9127964H9</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>91000000000</v>
+      </c>
+      <c r="G85" t="n">
+        <v>35000000000</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.3846153846153846</v>
+      </c>
+      <c r="I85" t="n">
+        <v>20081800</v>
+      </c>
+      <c r="J85" t="n">
+        <v>16337596500</v>
+      </c>
+      <c r="K85" t="n">
+        <v>82949911202</v>
+      </c>
+      <c r="L85" t="n">
+        <v>23699974630</v>
+      </c>
+      <c r="M85" t="n">
+        <v>31903812000</v>
+      </c>
+      <c r="N85" t="n">
+        <v>3096188000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>20081300</v>
+      </c>
+      <c r="B86" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" t="n">
+        <v>16337596500</v>
+      </c>
+      <c r="D86" t="n">
+        <v>404</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>912810SP4</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>91000000000</v>
+      </c>
+      <c r="G86" t="n">
+        <v>26000000000</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="I86" t="n">
+        <v>20081700</v>
+      </c>
+      <c r="J86" t="n">
+        <v>16337596500</v>
+      </c>
+      <c r="K86" t="n">
+        <v>82949911202</v>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="n">
+        <v>23699974629</v>
+      </c>
+      <c r="N86" t="n">
+        <v>2300025371</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>20081400</v>
+      </c>
+      <c r="B87" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>405</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>20081500</v>
+      </c>
+      <c r="B88" t="b">
+        <v>0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>66612314700</v>
+      </c>
+      <c r="D88" t="n">
+        <v>406</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>20081600</v>
+      </c>
+      <c r="B89" t="b">
+        <v>0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>407</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>20081700</v>
+      </c>
+      <c r="B90" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>408</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>9127963A5</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>105000000000</v>
+      </c>
+      <c r="G90" t="n">
+        <v>54000000000</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="I90" t="n">
+        <v>20082000</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>54000000000</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>20081700</v>
+      </c>
+      <c r="B91" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>409</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>9127964D8</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>105000000000</v>
+      </c>
+      <c r="G91" t="n">
+        <v>51000000000</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.4857142857142857</v>
+      </c>
+      <c r="I91" t="n">
+        <v>20082000</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>51000000000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>20081800</v>
+      </c>
+      <c r="B92" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" t="n">
+        <v>5394534600</v>
+      </c>
+      <c r="D92" t="n">
+        <v>410</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>9127962J7</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>60000000000</v>
+      </c>
+      <c r="G92" t="n">
+        <v>30000000000</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I92" t="n">
+        <v>20082000</v>
+      </c>
+      <c r="J92" t="n">
+        <v>5394534600</v>
+      </c>
+      <c r="K92" t="n">
+        <v>5394534601</v>
+      </c>
+      <c r="L92" t="n">
+        <v>2697267301</v>
+      </c>
+      <c r="M92" t="n">
+        <v>2697267300</v>
+      </c>
+      <c r="N92" t="n">
+        <v>27302732700</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>20081800</v>
+      </c>
+      <c r="B93" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" t="n">
+        <v>5394534600</v>
+      </c>
+      <c r="D93" t="n">
+        <v>411</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>9127963K3</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>60000000000</v>
+      </c>
+      <c r="G93" t="n">
+        <v>30000000000</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I93" t="n">
+        <v>20082000</v>
+      </c>
+      <c r="J93" t="n">
+        <v>5394534600</v>
+      </c>
+      <c r="K93" t="n">
+        <v>5394534601</v>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="n">
+        <v>2697267300</v>
+      </c>
+      <c r="N93" t="n">
+        <v>27302732700</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>20081900</v>
+      </c>
+      <c r="B94" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>412</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>912810SQ2</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>80000000000</v>
+      </c>
+      <c r="G94" t="n">
+        <v>25000000000</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="I94" t="n">
+        <v>20083100</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>25000000000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>20081900</v>
+      </c>
+      <c r="B95" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>413</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>9127965B1</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>80000000000</v>
+      </c>
+      <c r="G95" t="n">
+        <v>25000000000</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="I95" t="n">
+        <v>20082500</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>25000000000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>20081900</v>
+      </c>
+      <c r="B96" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>414</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>912796A82</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>80000000000</v>
+      </c>
+      <c r="G96" t="n">
+        <v>30000000000</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I96" t="n">
+        <v>20082500</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>30000000000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>20082000</v>
+      </c>
+      <c r="B97" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" t="n">
+        <v>13479396000</v>
+      </c>
+      <c r="D97" t="n">
+        <v>415</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>912810SM1</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>72000000000</v>
+      </c>
+      <c r="G97" t="n">
+        <v>7000000000</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.09722222222222222</v>
+      </c>
+      <c r="I97" t="n">
+        <v>20083100</v>
+      </c>
+      <c r="J97" t="n">
+        <v>13479396000</v>
+      </c>
+      <c r="K97" t="n">
+        <v>13479396001</v>
+      </c>
+      <c r="L97" t="n">
+        <v>12168899168</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1310496833</v>
+      </c>
+      <c r="N97" t="n">
+        <v>5689503167</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>20082000</v>
+      </c>
+      <c r="B98" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" t="n">
+        <v>13479396000</v>
+      </c>
+      <c r="D98" t="n">
+        <v>416</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>9127963Z0</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>72000000000</v>
+      </c>
+      <c r="G98" t="n">
+        <v>30000000000</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="I98" t="n">
+        <v>20082500</v>
+      </c>
+      <c r="J98" t="n">
+        <v>13479396000</v>
+      </c>
+      <c r="K98" t="n">
+        <v>13479396001</v>
+      </c>
+      <c r="L98" t="n">
+        <v>6552484168</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5616415000</v>
+      </c>
+      <c r="N98" t="n">
+        <v>24383585000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>20082000</v>
+      </c>
+      <c r="B99" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" t="n">
+        <v>13479396000</v>
+      </c>
+      <c r="D99" t="n">
+        <v>417</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>9127964J5</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>72000000000</v>
+      </c>
+      <c r="G99" t="n">
+        <v>35000000000</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="I99" t="n">
+        <v>20082500</v>
+      </c>
+      <c r="J99" t="n">
+        <v>13479396000</v>
+      </c>
+      <c r="K99" t="n">
+        <v>13479396001</v>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="n">
+        <v>6552484167</v>
+      </c>
+      <c r="N99" t="n">
+        <v>28447515833</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>20082100</v>
+      </c>
+      <c r="B100" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>418</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>20082200</v>
+      </c>
+      <c r="B101" t="b">
+        <v>0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>419</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>20082300</v>
+      </c>
+      <c r="B102" t="b">
+        <v>0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>420</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>20082400</v>
+      </c>
+      <c r="B103" t="b">
+        <v>1</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>421</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>9127963B3</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>105000000000</v>
+      </c>
+      <c r="G103" t="n">
+        <v>54000000000</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="I103" t="n">
+        <v>20082700</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>54000000000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>20082400</v>
+      </c>
+      <c r="B104" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>422</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>912796XE4</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>105000000000</v>
+      </c>
+      <c r="G104" t="n">
+        <v>51000000000</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.4857142857142857</v>
+      </c>
+      <c r="I104" t="n">
+        <v>20082700</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" t="n">
+        <v>51000000000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>20082500</v>
+      </c>
+      <c r="B105" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" t="n">
+        <v>6218625100</v>
+      </c>
+      <c r="D105" t="n">
+        <v>423</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>91282CAG6</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>110000000000</v>
+      </c>
+      <c r="G105" t="n">
+        <v>50000000000</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="I105" t="n">
+        <v>20083100</v>
+      </c>
+      <c r="J105" t="n">
+        <v>6218625100</v>
+      </c>
+      <c r="K105" t="n">
+        <v>6218625101</v>
+      </c>
+      <c r="L105" t="n">
+        <v>3391977328</v>
+      </c>
+      <c r="M105" t="n">
+        <v>2826647773</v>
+      </c>
+      <c r="N105" t="n">
+        <v>47173352227</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>20082500</v>
+      </c>
+      <c r="B106" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" t="n">
+        <v>6218625100</v>
+      </c>
+      <c r="D106" t="n">
+        <v>424</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>912796TN9</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>110000000000</v>
+      </c>
+      <c r="G106" t="n">
+        <v>30000000000</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="I106" t="n">
+        <v>20082700</v>
+      </c>
+      <c r="J106" t="n">
+        <v>6218625100</v>
+      </c>
+      <c r="K106" t="n">
+        <v>6218625101</v>
+      </c>
+      <c r="L106" t="n">
+        <v>1695988665</v>
+      </c>
+      <c r="M106" t="n">
+        <v>1695988663</v>
+      </c>
+      <c r="N106" t="n">
+        <v>28304011337</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>20082500</v>
+      </c>
+      <c r="B107" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" t="n">
+        <v>6218625100</v>
+      </c>
+      <c r="D107" t="n">
+        <v>425</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>9127963L1</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>110000000000</v>
+      </c>
+      <c r="G107" t="n">
+        <v>30000000000</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="I107" t="n">
+        <v>20082700</v>
+      </c>
+      <c r="J107" t="n">
+        <v>6218625100</v>
+      </c>
+      <c r="K107" t="n">
+        <v>6218625101</v>
+      </c>
+      <c r="L107" t="n">
+        <v>2</v>
+      </c>
+      <c r="M107" t="n">
+        <v>1695988663</v>
+      </c>
+      <c r="N107" t="n">
+        <v>28304011337</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>20082600</v>
+      </c>
+      <c r="B108" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>426</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>9127965C9</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>128000000000</v>
+      </c>
+      <c r="G108" t="n">
+        <v>25000000000</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.1953125</v>
+      </c>
+      <c r="I108" t="n">
+        <v>20090100</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>2</v>
+      </c>
+      <c r="L108" t="n">
+        <v>2</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>25000000000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>20082600</v>
+      </c>
+      <c r="B109" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>427</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>912796B65</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>128000000000</v>
+      </c>
+      <c r="G109" t="n">
+        <v>30000000000</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.234375</v>
+      </c>
+      <c r="I109" t="n">
+        <v>20090100</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>2</v>
+      </c>
+      <c r="L109" t="n">
+        <v>2</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N109" t="n">
+        <v>30000000000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>20082600</v>
+      </c>
+      <c r="B110" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>428</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>91282CAJ0</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>128000000000</v>
+      </c>
+      <c r="G110" t="n">
+        <v>51000000000</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.3984375</v>
+      </c>
+      <c r="I110" t="n">
+        <v>20083100</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>2</v>
+      </c>
+      <c r="L110" t="n">
+        <v>2</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>51000000000</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>20082600</v>
+      </c>
+      <c r="B111" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>429</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>91282CAA9</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>128000000000</v>
+      </c>
+      <c r="G111" t="n">
+        <v>22000000000</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.171875</v>
+      </c>
+      <c r="I111" t="n">
+        <v>20082800</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>2</v>
+      </c>
+      <c r="L111" t="n">
+        <v>2</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>22000000000</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>20082700</v>
+      </c>
+      <c r="B112" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" t="n">
+        <v>8672784200</v>
+      </c>
+      <c r="D112" t="n">
+        <v>430</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>9127964A4</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>112000000000</v>
+      </c>
+      <c r="G112" t="n">
+        <v>30000000000</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.2678571428571428</v>
+      </c>
+      <c r="I112" t="n">
+        <v>20090100</v>
+      </c>
+      <c r="J112" t="n">
+        <v>8672784200</v>
+      </c>
+      <c r="K112" t="n">
+        <v>8672784202</v>
+      </c>
+      <c r="L112" t="n">
+        <v>6349717006</v>
+      </c>
+      <c r="M112" t="n">
+        <v>2323067196</v>
+      </c>
+      <c r="N112" t="n">
+        <v>27676932804</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>20082700</v>
+      </c>
+      <c r="B113" t="b">
+        <v>1</v>
+      </c>
+      <c r="C113" t="n">
+        <v>8672784200</v>
+      </c>
+      <c r="D113" t="n">
+        <v>431</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>9127964K2</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>112000000000</v>
+      </c>
+      <c r="G113" t="n">
+        <v>35000000000</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="I113" t="n">
+        <v>20090100</v>
+      </c>
+      <c r="J113" t="n">
+        <v>8672784200</v>
+      </c>
+      <c r="K113" t="n">
+        <v>8672784202</v>
+      </c>
+      <c r="L113" t="n">
+        <v>3639471943</v>
+      </c>
+      <c r="M113" t="n">
+        <v>2710245063</v>
+      </c>
+      <c r="N113" t="n">
+        <v>32289754937</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>20082700</v>
+      </c>
+      <c r="B114" t="b">
+        <v>1</v>
+      </c>
+      <c r="C114" t="n">
+        <v>8672784200</v>
+      </c>
+      <c r="D114" t="n">
+        <v>432</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>91282CAH4</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>112000000000</v>
+      </c>
+      <c r="G114" t="n">
+        <v>47000000000</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.4196428571428572</v>
+      </c>
+      <c r="I114" t="n">
+        <v>20083100</v>
+      </c>
+      <c r="J114" t="n">
+        <v>8672784200</v>
+      </c>
+      <c r="K114" t="n">
+        <v>8672784202</v>
+      </c>
+      <c r="L114" t="n">
+        <v>2</v>
+      </c>
+      <c r="M114" t="n">
+        <v>3639471941</v>
+      </c>
+      <c r="N114" t="n">
+        <v>43360528059</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>20082800</v>
+      </c>
+      <c r="B115" t="b">
+        <v>1</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>433</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>2</v>
+      </c>
+      <c r="L115" t="n">
+        <v>2</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>20082900</v>
+      </c>
+      <c r="B116" t="b">
+        <v>0</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>434</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>2</v>
+      </c>
+      <c r="L116" t="n">
+        <v>2</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>20083000</v>
+      </c>
+      <c r="B117" t="b">
+        <v>0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>435</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>2</v>
+      </c>
+      <c r="L117" t="n">
+        <v>2</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>20083100</v>
+      </c>
+      <c r="B118" t="b">
+        <v>1</v>
+      </c>
+      <c r="C118" t="n">
+        <v>15637301200</v>
+      </c>
+      <c r="D118" t="n">
+        <v>436</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>912796TU3</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>105000000000</v>
+      </c>
+      <c r="G118" t="n">
+        <v>54000000000</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="I118" t="n">
+        <v>20090300</v>
+      </c>
+      <c r="J118" t="n">
+        <v>15637301200</v>
+      </c>
+      <c r="K118" t="n">
+        <v>15637301202</v>
+      </c>
+      <c r="L118" t="n">
+        <v>7595260584</v>
+      </c>
+      <c r="M118" t="n">
+        <v>8042040618</v>
+      </c>
+      <c r="N118" t="n">
+        <v>45957959382</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>20083100</v>
+      </c>
+      <c r="B119" t="b">
+        <v>1</v>
+      </c>
+      <c r="C119" t="n">
+        <v>15637301200</v>
+      </c>
+      <c r="D119" t="n">
+        <v>437</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>9127964F3</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>105000000000</v>
+      </c>
+      <c r="G119" t="n">
+        <v>51000000000</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.4857142857142857</v>
+      </c>
+      <c r="I119" t="n">
+        <v>20090300</v>
+      </c>
+      <c r="J119" t="n">
+        <v>15637301200</v>
+      </c>
+      <c r="K119" t="n">
+        <v>15637301202</v>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="n">
+        <v>7595260583</v>
+      </c>
+      <c r="N119" t="n">
+        <v>43404739417</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>20090100</v>
+      </c>
+      <c r="B120" t="b">
+        <v>1</v>
+      </c>
+      <c r="C120" t="n">
+        <v>6097975400</v>
+      </c>
+      <c r="D120" t="n">
+        <v>438</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>9127962R9</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>60000000000</v>
+      </c>
+      <c r="G120" t="n">
+        <v>30000000000</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I120" t="n">
+        <v>20090300</v>
+      </c>
+      <c r="J120" t="n">
+        <v>6097975400</v>
+      </c>
+      <c r="K120" t="n">
+        <v>6097975401</v>
+      </c>
+      <c r="L120" t="n">
+        <v>3048987701</v>
+      </c>
+      <c r="M120" t="n">
+        <v>3048987700</v>
+      </c>
+      <c r="N120" t="n">
+        <v>26951012300</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>20090100</v>
+      </c>
+      <c r="B121" t="b">
+        <v>1</v>
+      </c>
+      <c r="C121" t="n">
+        <v>6097975400</v>
+      </c>
+      <c r="D121" t="n">
+        <v>439</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>912796TY5</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>60000000000</v>
+      </c>
+      <c r="G121" t="n">
+        <v>30000000000</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I121" t="n">
+        <v>20090300</v>
+      </c>
+      <c r="J121" t="n">
+        <v>6097975400</v>
+      </c>
+      <c r="K121" t="n">
+        <v>6097975401</v>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="n">
+        <v>3048987700</v>
+      </c>
+      <c r="N121" t="n">
+        <v>26951012300</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>20090200</v>
+      </c>
+      <c r="B122" t="b">
+        <v>1</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>440</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>9127965D7</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>55000000000</v>
+      </c>
+      <c r="G122" t="n">
+        <v>25000000000</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="I122" t="n">
+        <v>20090800</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N122" t="n">
+        <v>25000000000</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>20090200</v>
+      </c>
+      <c r="B123" t="b">
+        <v>1</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>441</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>912796B73</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>55000000000</v>
+      </c>
+      <c r="G123" t="n">
+        <v>30000000000</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="I123" t="n">
+        <v>20090800</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N123" t="n">
+        <v>30000000000</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>20090300</v>
+      </c>
+      <c r="B124" t="b">
+        <v>1</v>
+      </c>
+      <c r="C124" t="n">
+        <v>12700077000</v>
+      </c>
+      <c r="D124" t="n">
+        <v>442</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>9127964G1</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>65000000000</v>
+      </c>
+      <c r="G124" t="n">
+        <v>30000000000</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="I124" t="n">
+        <v>20090800</v>
+      </c>
+      <c r="J124" t="n">
+        <v>12700077000</v>
+      </c>
+      <c r="K124" t="n">
+        <v>12700077001</v>
+      </c>
+      <c r="L124" t="n">
+        <v>6838503001</v>
+      </c>
+      <c r="M124" t="n">
+        <v>5861574000</v>
+      </c>
+      <c r="N124" t="n">
+        <v>24138426000</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>20090300</v>
+      </c>
+      <c r="B125" t="b">
+        <v>1</v>
+      </c>
+      <c r="C125" t="n">
+        <v>12700077000</v>
+      </c>
+      <c r="D125" t="n">
+        <v>443</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>9127964Q9</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>65000000000</v>
+      </c>
+      <c r="G125" t="n">
+        <v>35000000000</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="I125" t="n">
+        <v>20090800</v>
+      </c>
+      <c r="J125" t="n">
+        <v>12700077000</v>
+      </c>
+      <c r="K125" t="n">
+        <v>12700077001</v>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="n">
+        <v>6838503000</v>
+      </c>
+      <c r="N125" t="n">
+        <v>28161497000</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>20090400</v>
+      </c>
+      <c r="B126" t="b">
+        <v>1</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>20090500</v>
+      </c>
+      <c r="B127" t="b">
+        <v>0</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>20090600</v>
+      </c>
+      <c r="B128" t="b">
+        <v>0</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
         <v>20090700</v>
       </c>
-      <c r="B65" t="b">
-        <v>1</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="n">
-        <v>34435353602</v>
-      </c>
-      <c r="L65" t="n">
-        <v>34435353602</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0</v>
-      </c>
-      <c r="N65" t="n">
+      <c r="B129" t="b">
+        <v>1</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>20090800</v>
+      </c>
+      <c r="B130" t="b">
+        <v>1</v>
+      </c>
+      <c r="C130" t="n">
+        <v>6307642100</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>91282CAK7</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>249000000000</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>50000000000</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>0.2008032128514056</v>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>20091500</t>
+        </is>
+      </c>
+      <c r="J130" t="n">
+        <v>6307642100</v>
+      </c>
+      <c r="K130" t="n">
+        <v>6307642101</v>
+      </c>
+      <c r="L130" t="n">
+        <v>5041047302</v>
+      </c>
+      <c r="M130" t="n">
+        <v>1266594799</v>
+      </c>
+      <c r="N130" t="n">
+        <v>48733405201</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>20090800</v>
+      </c>
+      <c r="B131" t="b">
+        <v>1</v>
+      </c>
+      <c r="C131" t="n">
+        <v>6307642100</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>9127962S7</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>249000000000</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>30000000000</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>0.1204819277108434</v>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>20091000</t>
+        </is>
+      </c>
+      <c r="J131" t="n">
+        <v>6307642100</v>
+      </c>
+      <c r="K131" t="n">
+        <v>6307642101</v>
+      </c>
+      <c r="L131" t="n">
+        <v>4281090423</v>
+      </c>
+      <c r="M131" t="n">
+        <v>759956879</v>
+      </c>
+      <c r="N131" t="n">
+        <v>29240043121</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>20090800</v>
+      </c>
+      <c r="B132" t="b">
+        <v>1</v>
+      </c>
+      <c r="C132" t="n">
+        <v>6307642100</v>
+      </c>
+      <c r="D132" t="n">
+        <v>2</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>9127963J6</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>249000000000</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>54000000000</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>0.2168674698795181</v>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>20091000</t>
+        </is>
+      </c>
+      <c r="J132" t="n">
+        <v>6307642100</v>
+      </c>
+      <c r="K132" t="n">
+        <v>6307642101</v>
+      </c>
+      <c r="L132" t="n">
+        <v>2913168040</v>
+      </c>
+      <c r="M132" t="n">
+        <v>1367922383</v>
+      </c>
+      <c r="N132" t="n">
+        <v>52632077617</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>20090800</v>
+      </c>
+      <c r="B133" t="b">
+        <v>1</v>
+      </c>
+      <c r="C133" t="n">
+        <v>6307642100</v>
+      </c>
+      <c r="D133" t="n">
+        <v>3</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>9127963T4</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>249000000000</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>30000000000</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>0.1204819277108434</v>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>20091000</t>
+        </is>
+      </c>
+      <c r="J133" t="n">
+        <v>6307642100</v>
+      </c>
+      <c r="K133" t="n">
+        <v>6307642101</v>
+      </c>
+      <c r="L133" t="n">
+        <v>2153211161</v>
+      </c>
+      <c r="M133" t="n">
+        <v>759956879</v>
+      </c>
+      <c r="N133" t="n">
+        <v>29240043121</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>20090800</v>
+      </c>
+      <c r="B134" t="b">
+        <v>1</v>
+      </c>
+      <c r="C134" t="n">
+        <v>6307642100</v>
+      </c>
+      <c r="D134" t="n">
+        <v>4</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>9127964M8</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>249000000000</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>51000000000</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>0.2048192771084337</v>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>20091000</t>
+        </is>
+      </c>
+      <c r="J134" t="n">
+        <v>6307642100</v>
+      </c>
+      <c r="K134" t="n">
+        <v>6307642101</v>
+      </c>
+      <c r="L134" t="n">
+        <v>861284466</v>
+      </c>
+      <c r="M134" t="n">
+        <v>1291926695</v>
+      </c>
+      <c r="N134" t="n">
+        <v>49708073305</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>20090800</v>
+      </c>
+      <c r="B135" t="b">
+        <v>1</v>
+      </c>
+      <c r="C135" t="n">
+        <v>6307642100</v>
+      </c>
+      <c r="D135" t="n">
+        <v>5</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>9127964L0</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>249000000000</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>34000000000</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>0.1365461847389558</v>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>20091000</t>
+        </is>
+      </c>
+      <c r="J135" t="n">
+        <v>6307642100</v>
+      </c>
+      <c r="K135" t="n">
+        <v>6307642101</v>
+      </c>
+      <c r="L135" t="n">
+        <v>3</v>
+      </c>
+      <c r="M135" t="n">
+        <v>861284463</v>
+      </c>
+      <c r="N135" t="n">
+        <v>33138715537</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>20090900</v>
+      </c>
+      <c r="B136" t="b">
+        <v>1</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>91282CAE1</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>35000000000</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>35000000000</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>20091500</t>
+        </is>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>3</v>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="n">
+        <v>2</v>
+      </c>
+      <c r="N136" t="n">
+        <v>34999999998</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>20091000</v>
+      </c>
+      <c r="B137" t="b">
+        <v>1</v>
+      </c>
+      <c r="C137" t="n">
+        <v>14700834300</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>912810SP4</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>23000000000</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>23000000000</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>20091500</t>
+        </is>
+      </c>
+      <c r="J137" t="n">
+        <v>14700834300</v>
+      </c>
+      <c r="K137" t="n">
+        <v>14700834301</v>
+      </c>
+      <c r="L137" t="n">
+        <v>4410250291</v>
+      </c>
+      <c r="M137" t="n">
+        <v>10290584010</v>
+      </c>
+      <c r="N137" t="n">
+        <v>12709415990</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>20091100</v>
+      </c>
+      <c r="B138" t="b">
+        <v>1</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>4410250291</v>
+      </c>
+      <c r="L138" t="n">
+        <v>4410250291</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>20091200</v>
+      </c>
+      <c r="B139" t="b">
+        <v>0</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>4410250291</v>
+      </c>
+      <c r="L139" t="n">
+        <v>4410250291</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>20091300</v>
+      </c>
+      <c r="B140" t="b">
+        <v>0</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>4410250291</v>
+      </c>
+      <c r="L140" t="n">
+        <v>4410250291</v>
+      </c>
+      <c r="M140" t="n">
+        <v>0</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>20091400</v>
+      </c>
+      <c r="B141" t="b">
+        <v>1</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>4410250291</v>
+      </c>
+      <c r="L141" t="n">
+        <v>4410250291</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0</v>
+      </c>
+      <c r="N141" t="n">
         <v>0</v>
       </c>
     </row>

--- a/.idea/fed_rollover.xlsx
+++ b/.idea/fed_rollover.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N59"/>
+  <dimension ref="A1:N65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3146,6 +3146,282 @@
         <v>43404739417</v>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>20090100</v>
+      </c>
+      <c r="B60" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" t="n">
+        <v>6097975400</v>
+      </c>
+      <c r="D60" t="n">
+        <v>438</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>9127962R9</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>60000000000</v>
+      </c>
+      <c r="G60" t="n">
+        <v>30000000000</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I60" t="n">
+        <v>20090300</v>
+      </c>
+      <c r="J60" t="n">
+        <v>6097975400</v>
+      </c>
+      <c r="K60" t="n">
+        <v>6097975401</v>
+      </c>
+      <c r="L60" t="n">
+        <v>3048987701</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3048987700</v>
+      </c>
+      <c r="N60" t="n">
+        <v>26951012300</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>20090100</v>
+      </c>
+      <c r="B61" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" t="n">
+        <v>6097975400</v>
+      </c>
+      <c r="D61" t="n">
+        <v>439</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>912796TY5</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>60000000000</v>
+      </c>
+      <c r="G61" t="n">
+        <v>30000000000</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I61" t="n">
+        <v>20090300</v>
+      </c>
+      <c r="J61" t="n">
+        <v>6097975400</v>
+      </c>
+      <c r="K61" t="n">
+        <v>6097975401</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3048987700</v>
+      </c>
+      <c r="N61" t="n">
+        <v>26951012300</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>20090200</v>
+      </c>
+      <c r="B62" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>440</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>9127965D7</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>55000000000</v>
+      </c>
+      <c r="G62" t="n">
+        <v>25000000000</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="I62" t="n">
+        <v>20090800</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>25000000000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>20090200</v>
+      </c>
+      <c r="B63" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>441</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>912796B73</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>55000000000</v>
+      </c>
+      <c r="G63" t="n">
+        <v>30000000000</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="I63" t="n">
+        <v>20090800</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>30000000000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>20090300</v>
+      </c>
+      <c r="B64" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" t="n">
+        <v>12700077000</v>
+      </c>
+      <c r="D64" t="n">
+        <v>442</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>9127964G1</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>65000000000</v>
+      </c>
+      <c r="G64" t="n">
+        <v>30000000000</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="I64" t="n">
+        <v>20090800</v>
+      </c>
+      <c r="J64" t="n">
+        <v>12700077000</v>
+      </c>
+      <c r="K64" t="n">
+        <v>12700077001</v>
+      </c>
+      <c r="L64" t="n">
+        <v>6838503001</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5861574000</v>
+      </c>
+      <c r="N64" t="n">
+        <v>24138426000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>20090300</v>
+      </c>
+      <c r="B65" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" t="n">
+        <v>12700077000</v>
+      </c>
+      <c r="D65" t="n">
+        <v>443</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>9127964Q9</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>65000000000</v>
+      </c>
+      <c r="G65" t="n">
+        <v>35000000000</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="I65" t="n">
+        <v>20090800</v>
+      </c>
+      <c r="J65" t="n">
+        <v>12700077000</v>
+      </c>
+      <c r="K65" t="n">
+        <v>12700077001</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="n">
+        <v>6838503000</v>
+      </c>
+      <c r="N65" t="n">
+        <v>28161497000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/.idea/fed_rollover.xlsx
+++ b/.idea/fed_rollover.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N65"/>
+  <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3146,282 +3146,6 @@
         <v>43404739417</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>20090100</v>
-      </c>
-      <c r="B60" t="b">
-        <v>1</v>
-      </c>
-      <c r="C60" t="n">
-        <v>6097975400</v>
-      </c>
-      <c r="D60" t="n">
-        <v>438</v>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>9127962R9</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>60000000000</v>
-      </c>
-      <c r="G60" t="n">
-        <v>30000000000</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I60" t="n">
-        <v>20090300</v>
-      </c>
-      <c r="J60" t="n">
-        <v>6097975400</v>
-      </c>
-      <c r="K60" t="n">
-        <v>6097975401</v>
-      </c>
-      <c r="L60" t="n">
-        <v>3048987701</v>
-      </c>
-      <c r="M60" t="n">
-        <v>3048987700</v>
-      </c>
-      <c r="N60" t="n">
-        <v>26951012300</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>20090100</v>
-      </c>
-      <c r="B61" t="b">
-        <v>1</v>
-      </c>
-      <c r="C61" t="n">
-        <v>6097975400</v>
-      </c>
-      <c r="D61" t="n">
-        <v>439</v>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>912796TY5</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>60000000000</v>
-      </c>
-      <c r="G61" t="n">
-        <v>30000000000</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I61" t="n">
-        <v>20090300</v>
-      </c>
-      <c r="J61" t="n">
-        <v>6097975400</v>
-      </c>
-      <c r="K61" t="n">
-        <v>6097975401</v>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="n">
-        <v>3048987700</v>
-      </c>
-      <c r="N61" t="n">
-        <v>26951012300</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>20090200</v>
-      </c>
-      <c r="B62" t="b">
-        <v>1</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" t="n">
-        <v>440</v>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>9127965D7</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
-        <v>55000000000</v>
-      </c>
-      <c r="G62" t="n">
-        <v>25000000000</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="I62" t="n">
-        <v>20090800</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="n">
-        <v>1</v>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" t="n">
-        <v>25000000000</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>20090200</v>
-      </c>
-      <c r="B63" t="b">
-        <v>1</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="n">
-        <v>441</v>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>912796B73</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
-        <v>55000000000</v>
-      </c>
-      <c r="G63" t="n">
-        <v>30000000000</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="I63" t="n">
-        <v>20090800</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="n">
-        <v>1</v>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" t="n">
-        <v>30000000000</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>20090300</v>
-      </c>
-      <c r="B64" t="b">
-        <v>1</v>
-      </c>
-      <c r="C64" t="n">
-        <v>12700077000</v>
-      </c>
-      <c r="D64" t="n">
-        <v>442</v>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>9127964G1</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
-        <v>65000000000</v>
-      </c>
-      <c r="G64" t="n">
-        <v>30000000000</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0.4615384615384616</v>
-      </c>
-      <c r="I64" t="n">
-        <v>20090800</v>
-      </c>
-      <c r="J64" t="n">
-        <v>12700077000</v>
-      </c>
-      <c r="K64" t="n">
-        <v>12700077001</v>
-      </c>
-      <c r="L64" t="n">
-        <v>6838503001</v>
-      </c>
-      <c r="M64" t="n">
-        <v>5861574000</v>
-      </c>
-      <c r="N64" t="n">
-        <v>24138426000</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>20090300</v>
-      </c>
-      <c r="B65" t="b">
-        <v>1</v>
-      </c>
-      <c r="C65" t="n">
-        <v>12700077000</v>
-      </c>
-      <c r="D65" t="n">
-        <v>443</v>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>9127964Q9</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
-        <v>65000000000</v>
-      </c>
-      <c r="G65" t="n">
-        <v>35000000000</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0.5384615384615384</v>
-      </c>
-      <c r="I65" t="n">
-        <v>20090800</v>
-      </c>
-      <c r="J65" t="n">
-        <v>12700077000</v>
-      </c>
-      <c r="K65" t="n">
-        <v>12700077001</v>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="n">
-        <v>6838503000</v>
-      </c>
-      <c r="N65" t="n">
-        <v>28161497000</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
